--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,194 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
-        <v>42916</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1936900</v>
+        <v>818500</v>
       </c>
       <c r="E8" s="3">
-        <v>2436500</v>
+        <v>2255100</v>
       </c>
       <c r="F8" s="3">
-        <v>1947900</v>
+        <v>1953800</v>
       </c>
       <c r="G8" s="3">
-        <v>2366200</v>
+        <v>938100</v>
       </c>
       <c r="H8" s="3">
-        <v>2303600</v>
+        <v>2457800</v>
       </c>
       <c r="I8" s="3">
+        <v>1964900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2386900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2424400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1246200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2715200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1416000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>1771100</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>2141100</v>
+        <v>1951600</v>
       </c>
       <c r="F9" s="3">
-        <v>1726100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1997300</v>
+        <v>1786600</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>2011500</v>
+        <v>2159800</v>
       </c>
       <c r="I9" s="3">
+        <v>1741100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2014700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2158700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2209200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>165800</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>295400</v>
+        <v>303500</v>
       </c>
       <c r="F10" s="3">
-        <v>221800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>368900</v>
+        <v>167200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>292100</v>
+        <v>297900</v>
       </c>
       <c r="I10" s="3">
+        <v>223700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>372200</v>
+      </c>
+      <c r="K10" s="3">
         <v>265700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>506000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>65900</v>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>54900</v>
+        <v>59800</v>
       </c>
       <c r="F12" s="3">
-        <v>73600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>68100</v>
+        <v>66500</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>95500</v>
+        <v>55400</v>
       </c>
       <c r="I12" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K12" s="3">
         <v>92200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>104300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,43 +944,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>14300</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>112000</v>
+        <v>89700</v>
       </c>
       <c r="F14" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>28500</v>
+        <v>14400</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>28500</v>
+        <v>113000</v>
       </c>
       <c r="I14" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>52700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2033500</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2450700</v>
+        <v>2291600</v>
       </c>
       <c r="F17" s="3">
-        <v>2047800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2259700</v>
+        <v>2051300</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>2366200</v>
+        <v>2472200</v>
       </c>
       <c r="I17" s="3">
+        <v>2065700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2279400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2445200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2608600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-96600</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-14300</v>
+        <v>-36600</v>
       </c>
       <c r="F18" s="3">
-        <v>-99900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>106500</v>
+        <v>-97500</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>-62600</v>
+        <v>-14400</v>
       </c>
       <c r="I18" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>106600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,183 +1143,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-17600</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-8800</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-14300</v>
+        <v>-17700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-40600</v>
+        <v>-8900</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-42800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-31400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>59300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>115300</v>
+        <v>147300</v>
       </c>
       <c r="F21" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>229500</v>
+        <v>59800</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>23100</v>
+        <v>116300</v>
       </c>
       <c r="I21" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>231500</v>
+      </c>
+      <c r="K21" s="3">
         <v>67000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>191900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>36200</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>24200</v>
+        <v>41000</v>
       </c>
       <c r="F22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>23100</v>
+        <v>36600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>27500</v>
+        <v>24400</v>
       </c>
       <c r="I22" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K22" s="3">
         <v>43900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>50500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-150400</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>-47200</v>
+        <v>-75300</v>
       </c>
       <c r="F23" s="3">
-        <v>-121900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>69200</v>
+        <v>-151700</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>-130700</v>
+        <v>-47600</v>
       </c>
       <c r="I23" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-107600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>24700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>7700</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>47200</v>
+        <v>-4400</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>116400</v>
+        <v>7800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>47600</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+        <v>11100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>117400</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>33700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-158100</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>-94400</v>
+        <v>-70900</v>
       </c>
       <c r="F26" s="3">
-        <v>-132900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-47200</v>
+        <v>-159500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>-137300</v>
+        <v>-95300</v>
       </c>
       <c r="I26" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-107600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-157000</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>-94400</v>
+        <v>-72000</v>
       </c>
       <c r="F27" s="3">
-        <v>-131800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-47200</v>
+        <v>-158400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>-137300</v>
+        <v>-95300</v>
       </c>
       <c r="I27" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-107600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,43 +1508,55 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F29" s="3">
         <v>4400</v>
       </c>
-      <c r="E29" s="3">
-        <v>187800</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-26400</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>20900</v>
+        <v>189400</v>
       </c>
       <c r="I29" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K29" s="3">
         <v>136200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-49400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>17600</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>8800</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>14300</v>
+        <v>17700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>40600</v>
+        <v>8900</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K32" s="3">
         <v>42800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>31400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-152600</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>93300</v>
+        <v>-100800</v>
       </c>
       <c r="F33" s="3">
-        <v>-166900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-73600</v>
+        <v>-154000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>-116400</v>
+        <v>94100</v>
       </c>
       <c r="I33" s="3">
+        <v>-168400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-58300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-152600</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>93300</v>
+        <v>-100800</v>
       </c>
       <c r="F35" s="3">
-        <v>-166900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-73600</v>
+        <v>-154000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>-116400</v>
+        <v>94100</v>
       </c>
       <c r="I35" s="3">
+        <v>-168400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-58300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
-        <v>42916</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,323 +1879,379 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>71400</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>319500</v>
+        <v>72000</v>
       </c>
       <c r="F41" s="3">
-        <v>216300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>350300</v>
+        <v>72000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>200900</v>
+        <v>322300</v>
       </c>
       <c r="I41" s="3">
+        <v>218200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K41" s="3">
         <v>407400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>486900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>16500</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="F42" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>11000</v>
+        <v>16600</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>13200</v>
+        <v>15500</v>
       </c>
       <c r="I42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K42" s="3">
         <v>18700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>25800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>658800</v>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>871800</v>
+        <v>688900</v>
       </c>
       <c r="F43" s="3">
-        <v>743300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>791700</v>
+        <v>664600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>872900</v>
+        <v>879400</v>
       </c>
       <c r="I43" s="3">
+        <v>749800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>798600</v>
+      </c>
+      <c r="K43" s="3">
         <v>943200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>892000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>321700</v>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>294300</v>
+        <v>269100</v>
       </c>
       <c r="F44" s="3">
-        <v>265700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>261300</v>
+        <v>324500</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>261300</v>
+        <v>296800</v>
       </c>
       <c r="I44" s="3">
+        <v>268000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>263600</v>
+      </c>
+      <c r="K44" s="3">
         <v>256900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>245700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>229500</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>319500</v>
+        <v>203800</v>
       </c>
       <c r="F45" s="3">
-        <v>228400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>288800</v>
+        <v>231500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>262400</v>
+        <v>322300</v>
       </c>
       <c r="I45" s="3">
+        <v>230400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K45" s="3">
         <v>311800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>482500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1297800</v>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>1820500</v>
+        <v>1248300</v>
       </c>
       <c r="F46" s="3">
-        <v>1463600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1703000</v>
+        <v>1309200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>1610800</v>
+        <v>1836400</v>
       </c>
       <c r="I46" s="3">
+        <v>1476400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1717900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1938000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>2132900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>35100</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>28500</v>
+        <v>44300</v>
       </c>
       <c r="F47" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>41700</v>
+        <v>35400</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>45000</v>
+        <v>28800</v>
       </c>
       <c r="I47" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K47" s="3">
         <v>67000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>80800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>545700</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>255800</v>
+        <v>527200</v>
       </c>
       <c r="F48" s="3">
-        <v>244900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>266800</v>
+        <v>550500</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>282200</v>
+        <v>258100</v>
       </c>
       <c r="I48" s="3">
+        <v>247000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K48" s="3">
         <v>314000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>325400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1714000</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>1746900</v>
+        <v>1642600</v>
       </c>
       <c r="F49" s="3">
-        <v>1735900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1720600</v>
+        <v>1729000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>1828200</v>
+        <v>1762200</v>
       </c>
       <c r="I49" s="3">
+        <v>1751100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1735600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1965400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1938800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>269000</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>275600</v>
+        <v>93000</v>
       </c>
       <c r="F52" s="3">
-        <v>352500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>343700</v>
+        <v>271400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>488600</v>
+        <v>278000</v>
       </c>
       <c r="I52" s="3">
+        <v>355500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K52" s="3">
         <v>525900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>578900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>3861700</v>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>4127400</v>
+        <v>3555400</v>
       </c>
       <c r="F54" s="3">
-        <v>3834200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4075800</v>
+        <v>3895400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>4254800</v>
+        <v>4163500</v>
       </c>
       <c r="I54" s="3">
+        <v>3867700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4111400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4810300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>5056800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,218 +2487,256 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>876200</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>1246200</v>
+        <v>913800</v>
       </c>
       <c r="F57" s="3">
-        <v>933300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1039800</v>
+        <v>883900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>978300</v>
+        <v>1257100</v>
       </c>
       <c r="I57" s="3">
+        <v>941500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1048900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1089200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>858300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>199800</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>22000</v>
+        <v>105200</v>
       </c>
       <c r="F58" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>22000</v>
+        <v>201600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>13200</v>
+        <v>22200</v>
       </c>
       <c r="I58" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K58" s="3">
         <v>57100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>96500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>657700</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>826800</v>
+        <v>688900</v>
       </c>
       <c r="F59" s="3">
-        <v>805900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>770800</v>
+        <v>663500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>776300</v>
+        <v>834000</v>
       </c>
       <c r="I59" s="3">
+        <v>813000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>777500</v>
+      </c>
+      <c r="K59" s="3">
         <v>937700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>1147800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1733700</v>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>2095000</v>
+        <v>1707900</v>
       </c>
       <c r="F60" s="3">
-        <v>1763400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1832600</v>
+        <v>1748900</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>1767800</v>
+        <v>2113300</v>
       </c>
       <c r="I60" s="3">
+        <v>1778800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1848600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2084000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2102600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1335200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1102400</v>
+        <v>1332400</v>
       </c>
       <c r="F61" s="3">
-        <v>1191300</v>
+        <v>1346800</v>
       </c>
       <c r="G61" s="3">
-        <v>1182500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1185800</v>
+        <v>1112000</v>
       </c>
       <c r="I61" s="3">
+        <v>1201700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1192900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1095800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1320600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>668700</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>631400</v>
+        <v>475200</v>
       </c>
       <c r="F62" s="3">
-        <v>676400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>691700</v>
+        <v>674500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>769700</v>
+        <v>636900</v>
       </c>
       <c r="I62" s="3">
+        <v>682300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>697800</v>
+      </c>
+      <c r="K62" s="3">
         <v>857500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>941300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>3737600</v>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>3829800</v>
+        <v>3515500</v>
       </c>
       <c r="F66" s="3">
-        <v>3634400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3710100</v>
+        <v>3770300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>3726600</v>
+        <v>3863300</v>
       </c>
       <c r="I66" s="3">
+        <v>3666200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3742600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4040600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>4366800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-309600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-124100</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-1538300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1371400</v>
+        <v>-312300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-1266000</v>
+        <v>-125200</v>
       </c>
       <c r="I72" s="3">
+        <v>-1551700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1383400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>124100</v>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>297600</v>
+        <v>39900</v>
       </c>
       <c r="F76" s="3">
-        <v>199800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>365600</v>
+        <v>125200</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>528100</v>
+        <v>300200</v>
       </c>
       <c r="I76" s="3">
+        <v>201600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K76" s="3">
         <v>769700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>690000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
-        <v>42916</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-152600</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>93300</v>
+        <v>-100800</v>
       </c>
       <c r="F81" s="3">
-        <v>-166900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-73600</v>
+        <v>-154000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>-116400</v>
+        <v>94100</v>
       </c>
       <c r="I81" s="3">
+        <v>-168400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-58300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,43 +3428,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>173500</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>137300</v>
+        <v>181600</v>
       </c>
       <c r="F83" s="3">
-        <v>119700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>132900</v>
+        <v>175000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>130700</v>
+        <v>138500</v>
       </c>
       <c r="I83" s="3">
+        <v>120700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K83" s="3">
         <v>139400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>116700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-200900</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>294300</v>
+        <v>243700</v>
       </c>
       <c r="F89" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>270100</v>
+        <v>-202700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>-86700</v>
+        <v>296800</v>
       </c>
       <c r="I89" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K89" s="3">
         <v>259100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>193000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-47200</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-41700</v>
+        <v>-29900</v>
       </c>
       <c r="F91" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-28500</v>
+        <v>-47600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-27500</v>
+        <v>-42100</v>
       </c>
       <c r="I91" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-36200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-39300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-101000</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-99900</v>
+        <v>-87500</v>
       </c>
       <c r="F94" s="3">
-        <v>-71400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-86700</v>
+        <v>-101900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-79100</v>
+        <v>-100800</v>
       </c>
       <c r="I94" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-45000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-84100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3466,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-27500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3475,16 +3942,22 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-28000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>53800</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-107600</v>
+        <v>-155100</v>
       </c>
       <c r="F100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-298700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-58300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-18700</v>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>-24200</v>
+        <v>15500</v>
       </c>
       <c r="I101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K101" s="3">
         <v>24200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>4500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-249200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>102100</v>
+        <v>2200</v>
       </c>
       <c r="F102" s="3">
-        <v>-132900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>149300</v>
+        <v>-251400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>-206400</v>
+        <v>103000</v>
       </c>
       <c r="I102" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>55000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>818500</v>
+        <v>1695100</v>
       </c>
       <c r="E8" s="3">
-        <v>2255100</v>
+        <v>874200</v>
       </c>
       <c r="F8" s="3">
-        <v>1953800</v>
+        <v>2408400</v>
       </c>
       <c r="G8" s="3">
-        <v>938100</v>
+        <v>2086600</v>
       </c>
       <c r="H8" s="3">
-        <v>2457800</v>
+        <v>1001900</v>
       </c>
       <c r="I8" s="3">
-        <v>1964900</v>
+        <v>2624900</v>
       </c>
       <c r="J8" s="3">
+        <v>2098500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2386900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2424400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1246200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2715200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1416000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1951600</v>
+      <c r="D9" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>1786600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2159800</v>
+        <v>2084300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>1741100</v>
+        <v>2306700</v>
       </c>
       <c r="J9" s="3">
+        <v>1859500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2014700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2158700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>2209200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>303500</v>
+      <c r="D10" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>167200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>297900</v>
+        <v>324100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>178600</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>223700</v>
+        <v>318200</v>
       </c>
       <c r="J10" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K10" s="3">
         <v>372200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>506000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +881,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>59800</v>
+      <c r="D12" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>66500</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>55400</v>
+        <v>63900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>74200</v>
+        <v>59100</v>
       </c>
       <c r="J12" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K12" s="3">
         <v>68700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>92200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>104300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +967,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>89700</v>
+      <c r="D14" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>113000</v>
+        <v>95800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>45400</v>
+        <v>120700</v>
       </c>
       <c r="J14" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K14" s="3">
         <v>28800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>52700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2291600</v>
+      <c r="D17" s="3">
+        <v>1950600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>2051300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2472200</v>
+        <v>2447400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2190700</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>2065700</v>
+        <v>2640200</v>
       </c>
       <c r="J17" s="3">
+        <v>2206100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2279400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2445200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2608600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-36600</v>
+      <c r="D18" s="3">
+        <v>-255500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>-97500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-14400</v>
+        <v>-39000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>-100800</v>
+        <v>-15400</v>
       </c>
       <c r="J18" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="K18" s="3">
         <v>107400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>106600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1178,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2200</v>
+      <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-8900</v>
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-9500</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-31400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>147300</v>
+      <c r="D21" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>59800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>116300</v>
+        <v>157300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>63900</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>18800</v>
+        <v>124200</v>
       </c>
       <c r="J21" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K21" s="3">
         <v>231500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>191900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>41000</v>
+      <c r="D22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>36600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>24400</v>
+        <v>43800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>22200</v>
+        <v>26000</v>
       </c>
       <c r="J22" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>50500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-75300</v>
+      <c r="D23" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>-151700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-47600</v>
+        <v>-80400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-162100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>-122900</v>
+        <v>-50900</v>
       </c>
       <c r="J23" s="3">
+        <v>-131300</v>
+      </c>
+      <c r="K23" s="3">
         <v>69800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-107600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>24700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-4400</v>
+      <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>47600</v>
+        <v>-4700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>11100</v>
+        <v>50900</v>
       </c>
       <c r="J24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K24" s="3">
         <v>117400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>33700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-70900</v>
+      <c r="D26" s="3">
+        <v>-312300</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>-159500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-95300</v>
+        <v>-75700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>-134000</v>
+        <v>-101700</v>
       </c>
       <c r="J26" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-47600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-107600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-72000</v>
+      <c r="D27" s="3">
+        <v>-312300</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>-158400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-95300</v>
+        <v>-76900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-169200</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>-132900</v>
+        <v>-101700</v>
       </c>
       <c r="J27" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-47600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-107600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,49 +1572,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-28800</v>
+      <c r="D29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>189400</v>
+        <v>-30800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-35400</v>
+        <v>202300</v>
       </c>
       <c r="J29" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-26600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>136200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-49400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-2200</v>
+      <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>8900</v>
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>31400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100800</v>
+      <c r="D33" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>94100</v>
+        <v>-107600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>-168400</v>
+        <v>100500</v>
       </c>
       <c r="J33" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-74200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-58300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100800</v>
+      <c r="D35" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>94100</v>
+        <v>-107600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>-168400</v>
+        <v>100500</v>
       </c>
       <c r="J35" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-74200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-58300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +1967,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>72000</v>
+      <c r="D41" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>72000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>322300</v>
+        <v>76900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>218200</v>
+        <v>344200</v>
       </c>
       <c r="J41" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K41" s="3">
         <v>353300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>407400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>486900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>14400</v>
+      <c r="D42" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>16600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>10000</v>
-      </c>
       <c r="J42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K42" s="3">
         <v>11100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>25800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>688900</v>
+      <c r="D43" s="3">
+        <v>707400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>664600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>879400</v>
+        <v>735800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>709700</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3">
-        <v>749800</v>
+        <v>939200</v>
       </c>
       <c r="J43" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K43" s="3">
         <v>798600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>943200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>892000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>269100</v>
+      <c r="D44" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F44" s="3">
-        <v>324500</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>296800</v>
+        <v>287400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>346600</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="3">
-        <v>268000</v>
+        <v>317000</v>
       </c>
       <c r="J44" s="3">
+        <v>286300</v>
+      </c>
+      <c r="K44" s="3">
         <v>263600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>256900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>245700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>203800</v>
+      <c r="D45" s="3">
+        <v>273200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>231500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>322300</v>
+        <v>217700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>247200</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="3">
-        <v>230400</v>
+        <v>344200</v>
       </c>
       <c r="J45" s="3">
+        <v>246000</v>
+      </c>
+      <c r="K45" s="3">
         <v>291300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>311800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>482500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1248300</v>
+      <c r="D46" s="3">
+        <v>1307100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>1309200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1836400</v>
+        <v>1333100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1398200</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I46" s="3">
-        <v>1476400</v>
+        <v>1961200</v>
       </c>
       <c r="J46" s="3">
+        <v>1576800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1717900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1938000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2132900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>44300</v>
+      <c r="D47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>35400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>28800</v>
+        <v>47300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>37700</v>
+        <v>30800</v>
       </c>
       <c r="J47" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K47" s="3">
         <v>42100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>67000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>80800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>527200</v>
+      <c r="D48" s="3">
+        <v>492100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>550500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>258100</v>
+        <v>563100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>587900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>247000</v>
+        <v>275600</v>
       </c>
       <c r="J48" s="3">
+        <v>263800</v>
+      </c>
+      <c r="K48" s="3">
         <v>269100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>314000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>325400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1642600</v>
+      <c r="D49" s="3">
+        <v>1637100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>1729000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1762200</v>
+        <v>1754200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>1751100</v>
+        <v>1882000</v>
       </c>
       <c r="J49" s="3">
+        <v>1870200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1735600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1965400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>1938800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2449,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>93000</v>
+      <c r="D52" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>271400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>278000</v>
+        <v>99400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>289800</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>355500</v>
+        <v>296900</v>
       </c>
       <c r="J52" s="3">
+        <v>379700</v>
+      </c>
+      <c r="K52" s="3">
         <v>346700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>525900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>578900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3555400</v>
+      <c r="D54" s="3">
+        <v>3596000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>3895400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4163500</v>
+        <v>3797100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4160300</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I54" s="3">
-        <v>3867700</v>
+        <v>4446500</v>
       </c>
       <c r="J54" s="3">
+        <v>4130700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4111400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4810300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>5056800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2619,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>913800</v>
+      <c r="D57" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>883900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1257100</v>
+        <v>975900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>944000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
-        <v>941500</v>
+        <v>1342600</v>
       </c>
       <c r="J57" s="3">
+        <v>1005500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1048900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1089200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>858300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>105200</v>
+      <c r="D58" s="3">
+        <v>1729400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>201600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+        <v>112400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>215300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K58" s="3">
         <v>22200</v>
       </c>
-      <c r="I58" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>22200</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>57100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>96500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>688900</v>
+      <c r="D59" s="3">
+        <v>637600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>663500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>834000</v>
+        <v>735800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>708600</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>813000</v>
+        <v>890700</v>
       </c>
       <c r="J59" s="3">
+        <v>868200</v>
+      </c>
+      <c r="K59" s="3">
         <v>777500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>937700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>1147800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1707900</v>
+      <c r="D60" s="3">
+        <v>3169000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F60" s="3">
-        <v>1748900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2113300</v>
+        <v>1824000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1867800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I60" s="3">
-        <v>1778800</v>
+        <v>2257000</v>
       </c>
       <c r="J60" s="3">
+        <v>1899700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1848600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2084000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2102600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>238900</v>
       </c>
       <c r="E61" s="3">
-        <v>1332400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1346800</v>
+        <v>1423000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1438400</v>
       </c>
       <c r="H61" s="3">
-        <v>1112000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1201700</v>
+        <v>1187600</v>
       </c>
       <c r="J61" s="3">
+        <v>1283400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1192900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1095800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1320600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>475200</v>
+      <c r="D62" s="3">
+        <v>513400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>674500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>636900</v>
+        <v>507500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>720400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>682300</v>
+        <v>680200</v>
       </c>
       <c r="J62" s="3">
+        <v>728700</v>
+      </c>
+      <c r="K62" s="3">
         <v>697800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>857500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>941300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3515500</v>
+      <c r="D66" s="3">
+        <v>3921300</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>3770300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3863300</v>
+        <v>3754500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4026600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>3666200</v>
+        <v>4126000</v>
       </c>
       <c r="J66" s="3">
+        <v>3915400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3742600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4040600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>4366800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>-483800</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>-312300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-125200</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-333600</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>-1551700</v>
+        <v>-133700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1657200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>39900</v>
+      <c r="D76" s="3">
+        <v>-325300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F76" s="3">
-        <v>125200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>300200</v>
+        <v>42600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>133700</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I76" s="3">
-        <v>201600</v>
+        <v>320600</v>
       </c>
       <c r="J76" s="3">
+        <v>215300</v>
+      </c>
+      <c r="K76" s="3">
         <v>368800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>769700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>690000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100800</v>
+      <c r="D81" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>94100</v>
+        <v>-107600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>-168400</v>
+        <v>100500</v>
       </c>
       <c r="J81" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-74200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-58300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3628,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>181600</v>
+      <c r="D83" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>175000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>138500</v>
+        <v>194000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>186900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>120700</v>
+        <v>147900</v>
       </c>
       <c r="J83" s="3">
+        <v>128900</v>
+      </c>
+      <c r="K83" s="3">
         <v>134000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>116700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>243700</v>
+      <c r="D89" s="3">
+        <v>-283900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>-202700</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>296800</v>
+        <v>260200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-216500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>-49800</v>
+        <v>317000</v>
       </c>
       <c r="J89" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K89" s="3">
         <v>272500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>259100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>193000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-29900</v>
+      <c r="D91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-42100</v>
+        <v>-31900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-33200</v>
+        <v>-45000</v>
       </c>
       <c r="J91" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-28800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-39300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-87500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-101900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-72000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-87500</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-84100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3948,16 +4182,19 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-28000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4322,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-155100</v>
+      <c r="D100" s="3">
+        <v>393900</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>54300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-108500</v>
+        <v>-165600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>58000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>2200</v>
+        <v>-115900</v>
       </c>
       <c r="J100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-298700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-58300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1100</v>
+      <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>15500</v>
+        <v>1200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>-14400</v>
+        <v>16600</v>
       </c>
       <c r="J101" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>4500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2200</v>
+      <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>-251400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>103000</v>
+        <v>2400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-268500</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>-134000</v>
+        <v>110000</v>
       </c>
       <c r="J102" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="K102" s="3">
         <v>150600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>55000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1695100</v>
+        <v>953400</v>
       </c>
       <c r="E8" s="3">
-        <v>874200</v>
+        <v>1714200</v>
       </c>
       <c r="F8" s="3">
-        <v>2408400</v>
+        <v>884000</v>
       </c>
       <c r="G8" s="3">
-        <v>2086600</v>
+        <v>2435500</v>
       </c>
       <c r="H8" s="3">
-        <v>1001900</v>
+        <v>2110100</v>
       </c>
       <c r="I8" s="3">
-        <v>2624900</v>
+        <v>1013200</v>
       </c>
       <c r="J8" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2098500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2386900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2424400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1246200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2715200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1416000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1565000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2084300</v>
+        <v>857700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1582600</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>1908000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2306700</v>
+        <v>2107700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1929500</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>2332600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1859500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2014700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2158700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>2209200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>130100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>324100</v>
+        <v>95700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>131600</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>178600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>318200</v>
+        <v>327800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>180600</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>321800</v>
+      </c>
+      <c r="K10" s="3">
         <v>238900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>506000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +895,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58000</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>63900</v>
+        <v>27500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>59100</v>
+        <v>64600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>71800</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J12" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K12" s="3">
         <v>79300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>68700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>92200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>104300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +987,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>159700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>95800</v>
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>161500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>120700</v>
+        <v>96900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K14" s="3">
         <v>48500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>52700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1950600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2447400</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1972500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2190700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2640200</v>
+        <v>2474900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2215400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>2669900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2206100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2279400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2445200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2608600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-255500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-39000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-258400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>-104100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-15400</v>
+        <v>-39500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-107600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>106600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,228 +1212,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-9500</v>
+      <c r="H20" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-9600</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-31400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-91100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>157300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>63900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>124200</v>
+        <v>159100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K21" s="3">
         <v>20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>231500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>191900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47300</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>43800</v>
+        <v>16700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>39000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>26000</v>
+        <v>44300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K22" s="3">
         <v>23700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>50500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-308700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-80400</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-312200</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-162100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-50900</v>
+        <v>-81300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-131300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-107600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>24700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-4700</v>
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>50900</v>
+        <v>-4800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>117400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>33700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-312300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-75700</v>
+        <v>183000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>-170300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-101700</v>
+        <v>-76600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-172300</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J26" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-143100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-107600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-312300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-76900</v>
+        <v>183000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>-169200</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-101700</v>
+        <v>-77800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J27" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-141900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-107600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,52 +1633,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-30800</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>202300</v>
+        <v>-31100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-37900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-26600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>136200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-49400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1774,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>5900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>9500</v>
+      <c r="H32" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>31400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-313500</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-107600</v>
+        <v>172300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-317000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-164400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100500</v>
+        <v>-108900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J33" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-179800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-74200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-58300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-313500</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-107600</v>
+        <v>172300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-317000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-164400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100500</v>
+        <v>-108900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J35" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-179800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-74200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-58300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,404 +2054,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>74500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>76900</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>76900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>344200</v>
+        <v>77800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>77800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3">
+        <v>348100</v>
+      </c>
+      <c r="K41" s="3">
         <v>233000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>353300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>407400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>486900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>18900</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>15400</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>16600</v>
+        <v>15600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>25800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>707400</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>735800</v>
+        <v>775100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>715300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>709700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>939200</v>
+        <v>744000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>717700</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3">
+        <v>949800</v>
+      </c>
+      <c r="K43" s="3">
         <v>800800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>798600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>943200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>892000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>233000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>287400</v>
+        <v>247600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>235700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>346600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>317000</v>
+        <v>290700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>350500</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K44" s="3">
         <v>286300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>263600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>256900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>245700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>273200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>217700</v>
+        <v>278700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>276300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>247200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>344200</v>
+        <v>220100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
+        <v>348100</v>
+      </c>
+      <c r="K45" s="3">
         <v>246000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>291300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>311800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>482500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1307100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1333100</v>
+        <v>1301500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1321800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>1398200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1961200</v>
+        <v>1348100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1413900</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3">
+        <v>1983300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1576800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1717900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1938000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2132900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>47300</v>
+        <v>70600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>37900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>30800</v>
+        <v>47800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K47" s="3">
         <v>40200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>67000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>80800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>492100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>563100</v>
+        <v>443800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>497600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>587900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>275600</v>
+        <v>569400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>594500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>278700</v>
+      </c>
+      <c r="K48" s="3">
         <v>263800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>269100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>314000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>325400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1637100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1754200</v>
+        <v>1583800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1655500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>1846500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1882000</v>
+        <v>1774000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1867300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
+        <v>1903200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1870200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1735600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1965400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1938800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2569,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88700</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>99400</v>
+        <v>96900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>289800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>296900</v>
+        <v>100500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>293100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K52" s="3">
         <v>379700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>346700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>525900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>578900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3596000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3797100</v>
+        <v>3847000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3636400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>4160300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4446500</v>
+        <v>3839800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4207000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3">
+        <v>4496500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4130700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4111400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4810300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>5056800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2750,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>802000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>975900</v>
+        <v>887600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>811000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>944000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1342600</v>
+        <v>986900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>954600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>1357700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1005500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1048900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1089200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>858300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1729400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>112400</v>
+        <v>96900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1748800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>215300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>23700</v>
+        <v>113600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>217700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>96500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>637600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>735800</v>
+        <v>647100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>644800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>708600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>890700</v>
+        <v>744000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>716500</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>900700</v>
+      </c>
+      <c r="K59" s="3">
         <v>868200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>777500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>937700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1147800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3169000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1824000</v>
+        <v>1629200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3204600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>1867800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2257000</v>
+        <v>1844500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1888800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3">
+        <v>2282300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1899700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1848600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2084000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2102600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>238900</v>
+        <v>1333800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>241600</v>
       </c>
       <c r="F61" s="3">
-        <v>1423000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1438400</v>
+        <v>1439000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1454600</v>
       </c>
       <c r="I61" s="3">
-        <v>1187600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1283400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1192900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1095800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1320600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>513400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>507500</v>
+        <v>521500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>519200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>720400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>680200</v>
+        <v>513200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>728500</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>687800</v>
+      </c>
+      <c r="K62" s="3">
         <v>728700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>697800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>857500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>941300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3171,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3921300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3754500</v>
+        <v>3486900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3965400</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>4026600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4126000</v>
+        <v>3796700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4071900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3">
+        <v>4172300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3915400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3742600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4040600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>4366800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3425,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-483800</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-489200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
-        <v>-333600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-133700</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-337300</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-325300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>42600</v>
+        <v>360100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>133700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>320600</v>
+        <v>43100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>135200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3">
+        <v>324200</v>
+      </c>
+      <c r="K76" s="3">
         <v>215300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>368800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>769700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>690000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-313500</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-107600</v>
+        <v>172300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-317000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-164400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100500</v>
+        <v>-108900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J81" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-179800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-74200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-58300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3827,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>194000</v>
+        <v>78900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>172300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>186900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>147900</v>
+        <v>196200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>189000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K83" s="3">
         <v>128900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>134000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>116700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-283900</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>260200</v>
+        <v>-14400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-287100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>-216500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>317000</v>
+        <v>263200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-53200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>272500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>259100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>193000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-31900</v>
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-45000</v>
+        <v>-32300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-39300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-93400</v>
+        <v>-27500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-108800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-107600</v>
+        <v>-94500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-76900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-84100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4185,16 +4419,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-28000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4568,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>393900</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-165600</v>
+        <v>267900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>398300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>58000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-115900</v>
+        <v>-167500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>58600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-298700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-58300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
         <v>1200</v>
       </c>
+      <c r="E101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>16600</v>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>4500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-268500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>110000</v>
+      <c r="H102" s="3">
+        <v>-271500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-143100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>150600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>55000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -742,25 +742,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>953400</v>
+        <v>937600</v>
       </c>
       <c r="E8" s="3">
-        <v>1714200</v>
+        <v>1685800</v>
       </c>
       <c r="F8" s="3">
-        <v>884000</v>
+        <v>869400</v>
       </c>
       <c r="G8" s="3">
-        <v>2435500</v>
+        <v>2395200</v>
       </c>
       <c r="H8" s="3">
-        <v>2110100</v>
+        <v>2075200</v>
       </c>
       <c r="I8" s="3">
-        <v>1013200</v>
+        <v>996400</v>
       </c>
       <c r="J8" s="3">
-        <v>2654400</v>
+        <v>2610400</v>
       </c>
       <c r="K8" s="3">
         <v>2098500</v>
@@ -789,25 +789,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>857700</v>
+        <v>843500</v>
       </c>
       <c r="E9" s="3">
-        <v>1582600</v>
+        <v>1556400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>2107700</v>
+        <v>2072800</v>
       </c>
       <c r="H9" s="3">
-        <v>1929500</v>
+        <v>1897500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>2332600</v>
+        <v>2294000</v>
       </c>
       <c r="K9" s="3">
         <v>1859500</v>
@@ -836,25 +836,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>95700</v>
+        <v>94100</v>
       </c>
       <c r="E10" s="3">
-        <v>131600</v>
+        <v>129400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>327800</v>
+        <v>322300</v>
       </c>
       <c r="H10" s="3">
-        <v>180600</v>
+        <v>177600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>321800</v>
+        <v>316500</v>
       </c>
       <c r="K10" s="3">
         <v>238900</v>
@@ -902,25 +902,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27500</v>
+        <v>27100</v>
       </c>
       <c r="E12" s="3">
-        <v>58600</v>
+        <v>57600</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>64600</v>
+        <v>63500</v>
       </c>
       <c r="H12" s="3">
-        <v>71800</v>
+        <v>70600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>59800</v>
+        <v>58800</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="E14" s="3">
-        <v>161500</v>
+        <v>158800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>96900</v>
+        <v>95300</v>
       </c>
       <c r="H14" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="K14" s="3">
         <v>48500</v>
@@ -1109,22 +1109,22 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1972500</v>
+        <v>1939900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2474900</v>
+        <v>2434000</v>
       </c>
       <c r="H17" s="3">
-        <v>2215400</v>
+        <v>2178700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>2669900</v>
+        <v>2625700</v>
       </c>
       <c r="K17" s="3">
         <v>2206100</v>
@@ -1156,22 +1156,22 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-258400</v>
+        <v>-254100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H18" s="3">
-        <v>-105300</v>
+        <v>-103500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="K18" s="3">
         <v>-107600</v>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
@@ -1231,13 +1231,13 @@
         <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-19100</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1269,22 +1269,22 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>-92100</v>
+        <v>-90600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>159100</v>
+        <v>156500</v>
       </c>
       <c r="H21" s="3">
-        <v>64600</v>
+        <v>63500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="K21" s="3">
         <v>20100</v>
@@ -1313,25 +1313,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E22" s="3">
-        <v>47800</v>
+        <v>47100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>44300</v>
+        <v>43500</v>
       </c>
       <c r="H22" s="3">
-        <v>39500</v>
+        <v>38800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
@@ -1363,22 +1363,22 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>-312200</v>
+        <v>-307000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-81300</v>
+        <v>-80000</v>
       </c>
       <c r="H23" s="3">
-        <v>-163900</v>
+        <v>-161200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>-51400</v>
+        <v>-50600</v>
       </c>
       <c r="K23" s="3">
         <v>-131300</v>
@@ -1410,22 +1410,22 @@
         <v>2400</v>
       </c>
       <c r="E24" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="H24" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>51400</v>
+        <v>50600</v>
       </c>
       <c r="K24" s="3">
         <v>11800</v>
@@ -1501,25 +1501,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>183000</v>
+        <v>180000</v>
       </c>
       <c r="E26" s="3">
-        <v>-315800</v>
+        <v>-310600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>-76600</v>
+        <v>-75300</v>
       </c>
       <c r="H26" s="3">
-        <v>-172300</v>
+        <v>-169400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>-102900</v>
+        <v>-101200</v>
       </c>
       <c r="K26" s="3">
         <v>-143100</v>
@@ -1548,25 +1548,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>183000</v>
+        <v>180000</v>
       </c>
       <c r="E27" s="3">
-        <v>-315800</v>
+        <v>-310600</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>-77800</v>
+        <v>-76500</v>
       </c>
       <c r="H27" s="3">
-        <v>-171100</v>
+        <v>-168200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
-        <v>-102900</v>
+        <v>-101200</v>
       </c>
       <c r="K27" s="3">
         <v>-141900</v>
@@ -1642,7 +1642,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="E29" s="3">
         <v>-1200</v>
@@ -1651,16 +1651,16 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-31100</v>
+        <v>-30600</v>
       </c>
       <c r="H29" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>204600</v>
+        <v>201200</v>
       </c>
       <c r="K29" s="3">
         <v>-37900</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
@@ -1795,13 +1795,13 @@
         <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1830,25 +1830,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172300</v>
+        <v>169400</v>
       </c>
       <c r="E33" s="3">
-        <v>-317000</v>
+        <v>-311700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-108900</v>
+        <v>-107100</v>
       </c>
       <c r="H33" s="3">
-        <v>-166300</v>
+        <v>-163500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>101700</v>
+        <v>100000</v>
       </c>
       <c r="K33" s="3">
         <v>-179800</v>
@@ -1924,25 +1924,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172300</v>
+        <v>169400</v>
       </c>
       <c r="E35" s="3">
-        <v>-317000</v>
+        <v>-311700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-108900</v>
+        <v>-107100</v>
       </c>
       <c r="H35" s="3">
-        <v>-166300</v>
+        <v>-163500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
-        <v>101700</v>
+        <v>100000</v>
       </c>
       <c r="K35" s="3">
         <v>-179800</v>
@@ -2064,22 +2064,22 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>75400</v>
+        <v>74100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="H41" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3">
-        <v>348100</v>
+        <v>342300</v>
       </c>
       <c r="K41" s="3">
         <v>233000</v>
@@ -2111,22 +2111,22 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="H42" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="K42" s="3">
         <v>10600</v>
@@ -2155,25 +2155,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>775100</v>
+        <v>762300</v>
       </c>
       <c r="E43" s="3">
-        <v>715300</v>
+        <v>703500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>744000</v>
+        <v>731700</v>
       </c>
       <c r="H43" s="3">
-        <v>717700</v>
+        <v>705800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3">
-        <v>949800</v>
+        <v>934100</v>
       </c>
       <c r="K43" s="3">
         <v>800800</v>
@@ -2202,25 +2202,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>247600</v>
+        <v>243500</v>
       </c>
       <c r="E44" s="3">
-        <v>235700</v>
+        <v>231800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>290700</v>
+        <v>285900</v>
       </c>
       <c r="H44" s="3">
-        <v>350500</v>
+        <v>344700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J44" s="3">
-        <v>320600</v>
+        <v>315300</v>
       </c>
       <c r="K44" s="3">
         <v>286300</v>
@@ -2249,25 +2249,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>278700</v>
+        <v>274100</v>
       </c>
       <c r="E45" s="3">
-        <v>276300</v>
+        <v>271700</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>220100</v>
+        <v>216500</v>
       </c>
       <c r="H45" s="3">
-        <v>250000</v>
+        <v>245900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="3">
-        <v>348100</v>
+        <v>342300</v>
       </c>
       <c r="K45" s="3">
         <v>246000</v>
@@ -2296,25 +2296,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1301500</v>
+        <v>1279900</v>
       </c>
       <c r="E46" s="3">
-        <v>1321800</v>
+        <v>1299900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>1348100</v>
+        <v>1325800</v>
       </c>
       <c r="H46" s="3">
-        <v>1413900</v>
+        <v>1390500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="3">
-        <v>1983300</v>
+        <v>1950500</v>
       </c>
       <c r="K46" s="3">
         <v>1576800</v>
@@ -2343,25 +2343,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E47" s="3">
         <v>70600</v>
       </c>
-      <c r="E47" s="3">
-        <v>71800</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>47800</v>
+        <v>47100</v>
       </c>
       <c r="H47" s="3">
-        <v>38300</v>
+        <v>37600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>31100</v>
+        <v>30600</v>
       </c>
       <c r="K47" s="3">
         <v>40200</v>
@@ -2390,25 +2390,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>443800</v>
+        <v>436400</v>
       </c>
       <c r="E48" s="3">
-        <v>497600</v>
+        <v>489400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>569400</v>
+        <v>560000</v>
       </c>
       <c r="H48" s="3">
-        <v>594500</v>
+        <v>584700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3">
-        <v>278700</v>
+        <v>274100</v>
       </c>
       <c r="K48" s="3">
         <v>263800</v>
@@ -2437,25 +2437,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1583800</v>
+        <v>1557600</v>
       </c>
       <c r="E49" s="3">
-        <v>1655500</v>
+        <v>1628100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>1774000</v>
+        <v>1744600</v>
       </c>
       <c r="H49" s="3">
-        <v>1867300</v>
+        <v>1836400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <v>1903200</v>
+        <v>1871700</v>
       </c>
       <c r="K49" s="3">
         <v>1870200</v>
@@ -2578,25 +2578,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96900</v>
+        <v>95300</v>
       </c>
       <c r="E52" s="3">
-        <v>89700</v>
+        <v>88200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>100500</v>
+        <v>98800</v>
       </c>
       <c r="H52" s="3">
-        <v>293100</v>
+        <v>288200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3">
-        <v>300200</v>
+        <v>295300</v>
       </c>
       <c r="K52" s="3">
         <v>379700</v>
@@ -2672,25 +2672,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3847000</v>
+        <v>3783300</v>
       </c>
       <c r="E54" s="3">
-        <v>3636400</v>
+        <v>3576300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>3839800</v>
+        <v>3776200</v>
       </c>
       <c r="H54" s="3">
-        <v>4207000</v>
+        <v>4137400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="3">
-        <v>4496500</v>
+        <v>4422100</v>
       </c>
       <c r="K54" s="3">
         <v>4130700</v>
@@ -2757,25 +2757,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>887600</v>
+        <v>872900</v>
       </c>
       <c r="E57" s="3">
-        <v>811000</v>
+        <v>797600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>986900</v>
+        <v>970500</v>
       </c>
       <c r="H57" s="3">
-        <v>954600</v>
+        <v>938800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>1357700</v>
+        <v>1335200</v>
       </c>
       <c r="K57" s="3">
         <v>1005500</v>
@@ -2804,25 +2804,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>96900</v>
+        <v>95300</v>
       </c>
       <c r="E58" s="3">
-        <v>1748800</v>
+        <v>1719900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>113600</v>
+        <v>111800</v>
       </c>
       <c r="H58" s="3">
-        <v>217700</v>
+        <v>214100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="K58" s="3">
         <v>26000</v>
@@ -2851,25 +2851,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>647100</v>
+        <v>636400</v>
       </c>
       <c r="E59" s="3">
-        <v>644800</v>
+        <v>634100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>744000</v>
+        <v>731700</v>
       </c>
       <c r="H59" s="3">
-        <v>716500</v>
+        <v>704700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3">
-        <v>900700</v>
+        <v>885800</v>
       </c>
       <c r="K59" s="3">
         <v>868200</v>
@@ -2898,25 +2898,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1629200</v>
+        <v>1602300</v>
       </c>
       <c r="E60" s="3">
-        <v>3204600</v>
+        <v>3151600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>1844500</v>
+        <v>1814000</v>
       </c>
       <c r="H60" s="3">
-        <v>1888800</v>
+        <v>1857500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J60" s="3">
-        <v>2282300</v>
+        <v>2244600</v>
       </c>
       <c r="K60" s="3">
         <v>1899700</v>
@@ -2945,25 +2945,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1333800</v>
+        <v>1311700</v>
       </c>
       <c r="E61" s="3">
-        <v>241600</v>
+        <v>237600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1439000</v>
+        <v>1415200</v>
       </c>
       <c r="H61" s="3">
-        <v>1454600</v>
+        <v>1430500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1201000</v>
+        <v>1181100</v>
       </c>
       <c r="K61" s="3">
         <v>1283400</v>
@@ -2992,25 +2992,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>521500</v>
+        <v>512900</v>
       </c>
       <c r="E62" s="3">
-        <v>519200</v>
+        <v>510600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>513200</v>
+        <v>504700</v>
       </c>
       <c r="H62" s="3">
-        <v>728500</v>
+        <v>716400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>687800</v>
+        <v>676400</v>
       </c>
       <c r="K62" s="3">
         <v>728700</v>
@@ -3180,25 +3180,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3486900</v>
+        <v>3429200</v>
       </c>
       <c r="E66" s="3">
-        <v>3965400</v>
+        <v>3899800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>3796700</v>
+        <v>3733900</v>
       </c>
       <c r="H66" s="3">
-        <v>4071900</v>
+        <v>4004500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3">
-        <v>4172300</v>
+        <v>4103300</v>
       </c>
       <c r="K66" s="3">
         <v>3915400</v>
@@ -3437,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>-489200</v>
+        <v>-481100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
@@ -3446,13 +3446,13 @@
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-337300</v>
+        <v>-331700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>-135200</v>
+        <v>-132900</v>
       </c>
       <c r="K72" s="3">
         <v>-1657200</v>
@@ -3622,25 +3622,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>360100</v>
+        <v>354100</v>
       </c>
       <c r="E76" s="3">
-        <v>-329000</v>
+        <v>-323500</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>43100</v>
+        <v>42400</v>
       </c>
       <c r="H76" s="3">
-        <v>135200</v>
+        <v>132900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="3">
-        <v>324200</v>
+        <v>318800</v>
       </c>
       <c r="K76" s="3">
         <v>215300</v>
@@ -3768,25 +3768,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172300</v>
+        <v>169400</v>
       </c>
       <c r="E81" s="3">
-        <v>-317000</v>
+        <v>-311700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-108900</v>
+        <v>-107100</v>
       </c>
       <c r="H81" s="3">
-        <v>-166300</v>
+        <v>-163500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
-        <v>101700</v>
+        <v>100000</v>
       </c>
       <c r="K81" s="3">
         <v>-179800</v>
@@ -3834,25 +3834,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78900</v>
+        <v>77600</v>
       </c>
       <c r="E83" s="3">
-        <v>172300</v>
+        <v>169400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>196200</v>
+        <v>192900</v>
       </c>
       <c r="H83" s="3">
-        <v>189000</v>
+        <v>185900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>149500</v>
+        <v>147100</v>
       </c>
       <c r="K83" s="3">
         <v>128900</v>
@@ -4116,25 +4116,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14400</v>
+        <v>-14100</v>
       </c>
       <c r="E89" s="3">
-        <v>-287100</v>
+        <v>-282300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>263200</v>
+        <v>258800</v>
       </c>
       <c r="H89" s="3">
-        <v>-218900</v>
+        <v>-215300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
-        <v>320600</v>
+        <v>315300</v>
       </c>
       <c r="K89" s="3">
         <v>-53200</v>
@@ -4182,25 +4182,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="E91" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-32300</v>
+        <v>-31800</v>
       </c>
       <c r="H91" s="3">
-        <v>-51400</v>
+        <v>-50600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-45500</v>
+        <v>-44700</v>
       </c>
       <c r="K91" s="3">
         <v>-35500</v>
@@ -4323,25 +4323,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27500</v>
+        <v>-27100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100500</v>
+        <v>-98800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-94500</v>
+        <v>-92900</v>
       </c>
       <c r="H94" s="3">
-        <v>-110100</v>
+        <v>-108200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
-        <v>-108900</v>
+        <v>-107100</v>
       </c>
       <c r="K94" s="3">
         <v>-76900</v>
@@ -4577,25 +4577,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="E100" s="3">
-        <v>398300</v>
+        <v>391700</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-167500</v>
+        <v>-164700</v>
       </c>
       <c r="H100" s="3">
-        <v>58600</v>
+        <v>57600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
-        <v>-117200</v>
+        <v>-115300</v>
       </c>
       <c r="K100" s="3">
         <v>2400</v>
@@ -4627,7 +4627,7 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-13200</v>
+        <v>-12900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
@@ -4642,7 +4642,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="K101" s="3">
         <v>-15400</v>
@@ -4683,13 +4683,13 @@
         <v>2400</v>
       </c>
       <c r="H102" s="3">
-        <v>-271500</v>
+        <v>-267000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
-        <v>111200</v>
+        <v>109400</v>
       </c>
       <c r="K102" s="3">
         <v>-143100</v>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,245 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>937600</v>
+        <v>871000</v>
       </c>
       <c r="E8" s="3">
-        <v>1685800</v>
+        <v>1926900</v>
       </c>
       <c r="F8" s="3">
-        <v>869400</v>
+        <v>976300</v>
       </c>
       <c r="G8" s="3">
-        <v>2395200</v>
+        <v>1755400</v>
       </c>
       <c r="H8" s="3">
-        <v>2075200</v>
+        <v>905300</v>
       </c>
       <c r="I8" s="3">
+        <v>2494100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2160900</v>
+      </c>
+      <c r="K8" s="3">
         <v>996400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2610400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2098500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2386900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2424400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1246200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2715200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1416000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>843500</v>
+        <v>780300</v>
       </c>
       <c r="E9" s="3">
-        <v>1556400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>1717400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>878300</v>
       </c>
       <c r="G9" s="3">
-        <v>2072800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1897500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+        <v>1620700</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2158400</v>
       </c>
       <c r="J9" s="3">
+        <v>1975900</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>2294000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1859500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2014700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2158700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2209200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>94100</v>
+        <v>90600</v>
       </c>
       <c r="E10" s="3">
-        <v>129400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
+        <v>209500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>98000</v>
       </c>
       <c r="G10" s="3">
-        <v>322300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>177600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+        <v>134700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>335600</v>
       </c>
       <c r="J10" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>316500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>238900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>372200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>265700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>506000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27100</v>
+        <v>28200</v>
       </c>
       <c r="E12" s="3">
-        <v>57600</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
+        <v>55100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28200</v>
       </c>
       <c r="G12" s="3">
-        <v>63500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>70600</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
+        <v>60000</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>66100</v>
       </c>
       <c r="J12" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>58800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>79300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>68700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>92200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>104300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15300</v>
+        <v>18400</v>
       </c>
       <c r="E14" s="3">
-        <v>158800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>49000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15900</v>
       </c>
       <c r="G14" s="3">
-        <v>95300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>15300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>165400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>99200</v>
       </c>
       <c r="J14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>120000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>48500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>28800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>52700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>902800</v>
       </c>
       <c r="E17" s="3">
-        <v>1939900</v>
+        <v>1985700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2434000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2178700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
+        <v>2020000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2534500</v>
       </c>
       <c r="J17" s="3">
+        <v>2268700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2625700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2206100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2279400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2445200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2608600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-31800</v>
       </c>
       <c r="E18" s="3">
-        <v>-254100</v>
+        <v>-58800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>-38800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-103500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
+        <v>-264600</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-40400</v>
       </c>
       <c r="J18" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-107600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>107400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-20900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>106600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,243 +1278,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>200900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-42800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-31400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>31800</v>
       </c>
       <c r="E21" s="3">
-        <v>-90600</v>
+        <v>287900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>156500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>63500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+        <v>-94300</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>162900</v>
       </c>
       <c r="J21" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>123500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>231500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>67000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>191900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16500</v>
+        <v>38000</v>
       </c>
       <c r="E22" s="3">
-        <v>47100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
+        <v>51400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>17100</v>
       </c>
       <c r="G22" s="3">
-        <v>43500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+        <v>49000</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45300</v>
       </c>
       <c r="J22" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>25900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>43900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>50500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-71000</v>
       </c>
       <c r="E23" s="3">
-        <v>-307000</v>
+        <v>90600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-80000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-161200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
+        <v>-319700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-83300</v>
       </c>
       <c r="J23" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-50600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-131300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>69800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-107600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>24700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3">
+        <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+        <v>3700</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-4900</v>
       </c>
       <c r="J24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>50600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>117400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>33700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>180000</v>
+        <v>-69800</v>
       </c>
       <c r="E26" s="3">
-        <v>-310600</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
+        <v>88200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>187400</v>
       </c>
       <c r="G26" s="3">
-        <v>-75300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-169400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
+        <v>-323400</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-78400</v>
       </c>
       <c r="J26" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-101200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-143100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-47600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-107600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>180000</v>
+        <v>-72300</v>
       </c>
       <c r="E27" s="3">
-        <v>-310600</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
+        <v>88200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>187400</v>
       </c>
       <c r="G27" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-168200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
+        <v>-323400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-79600</v>
       </c>
       <c r="J27" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-101200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-141900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-47600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-107600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,55 +1751,67 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-10600</v>
+        <v>-2400</v>
       </c>
       <c r="E29" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1200</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-31800</v>
       </c>
       <c r="J29" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>201200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-37900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-26600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>136200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-49400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>-200900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>42800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>31400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169400</v>
+        <v>-74700</v>
       </c>
       <c r="E33" s="3">
-        <v>-311700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
+        <v>71000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>176400</v>
       </c>
       <c r="G33" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-163500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
+        <v>-324600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-111500</v>
       </c>
       <c r="J33" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>100000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-179800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-74200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>28500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-58300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169400</v>
+        <v>-74700</v>
       </c>
       <c r="E35" s="3">
-        <v>-311700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
+        <v>71000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>176400</v>
       </c>
       <c r="G35" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-163500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
+        <v>-324600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-111500</v>
       </c>
       <c r="J35" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>100000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-179800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-74200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>28500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-58300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,431 +2226,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>124900</v>
       </c>
       <c r="E41" s="3">
-        <v>74100</v>
+        <v>404200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>76500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>76500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>77200</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>79600</v>
       </c>
       <c r="J41" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>342300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>233000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>353300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>407400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>486900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>24500</v>
       </c>
       <c r="E42" s="3">
-        <v>18800</v>
+        <v>20800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>19600</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15900</v>
       </c>
       <c r="J42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>16500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>10600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>18700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>25800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>762300</v>
+        <v>693300</v>
       </c>
       <c r="E43" s="3">
-        <v>703500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+        <v>614900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>793800</v>
       </c>
       <c r="G43" s="3">
-        <v>731700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>705800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>732500</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>761900</v>
       </c>
       <c r="J43" s="3">
+        <v>735000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>934100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>798600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>943200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>892000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>243500</v>
+        <v>245000</v>
       </c>
       <c r="E44" s="3">
-        <v>231800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
+        <v>238900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>253600</v>
       </c>
       <c r="G44" s="3">
-        <v>285900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>344700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>241300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>297700</v>
       </c>
       <c r="J44" s="3">
+        <v>358900</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>315300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>286300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>263600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>256900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>245700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>274100</v>
+        <v>362600</v>
       </c>
       <c r="E45" s="3">
-        <v>271700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>367500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>285400</v>
       </c>
       <c r="G45" s="3">
-        <v>216500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>245900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>283000</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>225400</v>
       </c>
       <c r="J45" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>342300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>246000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>291300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>311800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>482500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1279900</v>
+        <v>1450400</v>
       </c>
       <c r="E46" s="3">
-        <v>1299900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
+        <v>1646400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1332800</v>
       </c>
       <c r="G46" s="3">
-        <v>1325800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1390500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>1353600</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1380600</v>
       </c>
       <c r="J46" s="3">
+        <v>1447900</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1950500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1576800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1717900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1938000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2132900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69400</v>
+        <v>56300</v>
       </c>
       <c r="E47" s="3">
-        <v>70600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>75900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>72300</v>
       </c>
       <c r="G47" s="3">
-        <v>47100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>37600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>73500</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>49000</v>
       </c>
       <c r="J47" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>30600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>40200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>42100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>67000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>80800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>436400</v>
+        <v>341800</v>
       </c>
       <c r="E48" s="3">
-        <v>489400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>352800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>454500</v>
       </c>
       <c r="G48" s="3">
-        <v>560000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>584700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>509600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>583100</v>
       </c>
       <c r="J48" s="3">
+        <v>608800</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>274100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>263800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>269100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>314000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>325400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1557600</v>
+        <v>1583900</v>
       </c>
       <c r="E49" s="3">
-        <v>1628100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>1532500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1621900</v>
       </c>
       <c r="G49" s="3">
-        <v>1744600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1836400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>1695400</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1816700</v>
       </c>
       <c r="J49" s="3">
+        <v>1912200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>1871700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1870200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1735600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1965400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1938800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95300</v>
+        <v>113900</v>
       </c>
       <c r="E52" s="3">
-        <v>88200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>89400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>99200</v>
       </c>
       <c r="G52" s="3">
-        <v>98800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>288200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>91900</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>102900</v>
       </c>
       <c r="J52" s="3">
+        <v>300100</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>295300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>379700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>346700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>525900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>578900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3783300</v>
+        <v>3546300</v>
       </c>
       <c r="E54" s="3">
-        <v>3576300</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
+        <v>3697000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3939600</v>
       </c>
       <c r="G54" s="3">
-        <v>3776200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4137400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>3724000</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3932200</v>
       </c>
       <c r="J54" s="3">
+        <v>4308300</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>4422100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4130700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4111400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4810300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5056800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,290 +3010,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>872900</v>
+        <v>700700</v>
       </c>
       <c r="E57" s="3">
-        <v>797600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>869700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>908900</v>
       </c>
       <c r="G57" s="3">
-        <v>970500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>938800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>830500</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1010600</v>
       </c>
       <c r="J57" s="3">
+        <v>977500</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1335200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1005500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1048900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1089200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>858300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95300</v>
+        <v>115100</v>
       </c>
       <c r="E58" s="3">
-        <v>1719900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>68600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>99200</v>
       </c>
       <c r="G58" s="3">
-        <v>111800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>214100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>1781100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>116400</v>
       </c>
       <c r="J58" s="3">
+        <v>222900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>23500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>22200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>57100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>96500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>636400</v>
+        <v>724000</v>
       </c>
       <c r="E59" s="3">
-        <v>634100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>750900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>662700</v>
       </c>
       <c r="G59" s="3">
-        <v>731700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>704700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>670100</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>761900</v>
       </c>
       <c r="J59" s="3">
+        <v>733800</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>885800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>868200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>777500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>937700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1147800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1602300</v>
+        <v>1539800</v>
       </c>
       <c r="E60" s="3">
-        <v>3151600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
+        <v>1689300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1668400</v>
       </c>
       <c r="G60" s="3">
-        <v>1814000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1857500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>3281700</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1888900</v>
       </c>
       <c r="J60" s="3">
+        <v>1934300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2244600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1899700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1848600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2084000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2102600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1311700</v>
+        <v>1325400</v>
       </c>
       <c r="E61" s="3">
-        <v>237600</v>
+        <v>1310700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1365900</v>
       </c>
       <c r="G61" s="3">
-        <v>1415200</v>
+        <v>247400</v>
       </c>
       <c r="H61" s="3">
-        <v>1430500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1473700</v>
       </c>
       <c r="J61" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1181100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1283400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1192900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1095800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1320600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>512900</v>
+        <v>471600</v>
       </c>
       <c r="E62" s="3">
-        <v>510600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+        <v>485100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>534100</v>
       </c>
       <c r="G62" s="3">
-        <v>504700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>716400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>531600</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>525500</v>
       </c>
       <c r="J62" s="3">
+        <v>746000</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>676400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>728700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>697800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>857500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>941300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3429200</v>
+        <v>3336900</v>
       </c>
       <c r="E66" s="3">
-        <v>3899800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+        <v>3485100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3570800</v>
       </c>
       <c r="G66" s="3">
-        <v>3733900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4004500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>4060800</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3888100</v>
       </c>
       <c r="J66" s="3">
+        <v>4169900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>4103300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3915400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3742600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4040600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4366800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,8 +3769,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3437,46 +3784,52 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>-481100</v>
+        <v>-634500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-331700</v>
+      <c r="G72" s="3">
+        <v>-501000</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
+        <v>-345400</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-132900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>354100</v>
+        <v>209500</v>
       </c>
       <c r="E76" s="3">
-        <v>-323500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
+        <v>211900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>368700</v>
       </c>
       <c r="G76" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>132900</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>-336900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>44100</v>
       </c>
       <c r="J76" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>318800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>215300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>368800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>769700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>690000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169400</v>
+        <v>-74700</v>
       </c>
       <c r="E81" s="3">
-        <v>-311700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
+        <v>71000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>176400</v>
       </c>
       <c r="G81" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-163500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
+        <v>-324600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-111500</v>
       </c>
       <c r="J81" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>100000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-179800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-74200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>28500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-58300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>77600</v>
+        <v>64900</v>
       </c>
       <c r="E83" s="3">
-        <v>169400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>145800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>80800</v>
       </c>
       <c r="G83" s="3">
-        <v>192900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>185900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+        <v>176400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200900</v>
       </c>
       <c r="J83" s="3">
+        <v>193500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>147100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>128900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>134000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>139400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>116700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14100</v>
+        <v>-267000</v>
       </c>
       <c r="E89" s="3">
-        <v>-282300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+        <v>166600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-14700</v>
       </c>
       <c r="G89" s="3">
-        <v>258800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-215300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+        <v>-294000</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>269500</v>
       </c>
       <c r="J89" s="3">
+        <v>-224200</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>315300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-53200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>272500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>259100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>193000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9400</v>
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>-19600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9800</v>
       </c>
       <c r="G91" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+        <v>-20800</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-33100</v>
       </c>
       <c r="J91" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-44700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-35500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-28800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-36200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-39300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27100</v>
+        <v>-29400</v>
       </c>
       <c r="E94" s="3">
-        <v>-98800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>-66100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-28200</v>
       </c>
       <c r="G94" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-108200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+        <v>-102900</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-96800</v>
       </c>
       <c r="J94" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-107100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-76900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-87500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-45000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-84100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4422,16 +4889,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-28000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>263500</v>
+        <v>13500</v>
       </c>
       <c r="E100" s="3">
-        <v>391700</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>231500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>274400</v>
       </c>
       <c r="G100" s="3">
-        <v>-164700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>57600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+        <v>407900</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-171500</v>
       </c>
       <c r="J100" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-115300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-298700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-58300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>16500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-15400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-18800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>24200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>4500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-279300</v>
       </c>
       <c r="E102" s="3">
+        <v>325800</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-267000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3">
+        <v>-278100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>109400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-143100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>150600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-69200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>55000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>871000</v>
+        <v>1586500</v>
       </c>
       <c r="E8" s="3">
-        <v>1926900</v>
+        <v>830000</v>
       </c>
       <c r="F8" s="3">
-        <v>976300</v>
+        <v>1836300</v>
       </c>
       <c r="G8" s="3">
-        <v>1755400</v>
+        <v>930400</v>
       </c>
       <c r="H8" s="3">
-        <v>905300</v>
+        <v>1672900</v>
       </c>
       <c r="I8" s="3">
-        <v>2494100</v>
+        <v>862700</v>
       </c>
       <c r="J8" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2160900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>996400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2610400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2098500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2386900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2424400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1246200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2715200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1416000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>780300</v>
+        <v>1390400</v>
       </c>
       <c r="E9" s="3">
-        <v>1717400</v>
+        <v>743600</v>
       </c>
       <c r="F9" s="3">
-        <v>878300</v>
+        <v>1636700</v>
       </c>
       <c r="G9" s="3">
-        <v>1620700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2158400</v>
+        <v>837000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1544500</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>2057000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1975900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2294000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1859500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2014700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2158700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>2209200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>90600</v>
+        <v>196100</v>
       </c>
       <c r="E10" s="3">
-        <v>209500</v>
+        <v>86400</v>
       </c>
       <c r="F10" s="3">
-        <v>98000</v>
+        <v>199600</v>
       </c>
       <c r="G10" s="3">
-        <v>134700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>335600</v>
+        <v>93400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>128400</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K10" s="3">
         <v>185000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>316500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>238900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>372200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>506000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28200</v>
+        <v>50200</v>
       </c>
       <c r="E12" s="3">
-        <v>55100</v>
+        <v>26900</v>
       </c>
       <c r="F12" s="3">
-        <v>28200</v>
+        <v>52500</v>
       </c>
       <c r="G12" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>66100</v>
+        <v>26900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>57200</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J12" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K12" s="3">
         <v>73500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>58800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>79300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>68700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>92200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>104300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18400</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
-        <v>49000</v>
+        <v>17500</v>
       </c>
       <c r="F14" s="3">
+        <v>46700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>157600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K14" s="3">
         <v>15900</v>
       </c>
-      <c r="G14" s="3">
-        <v>165400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>99200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>120000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>48500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>52700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>902800</v>
+        <v>1592300</v>
       </c>
       <c r="E17" s="3">
-        <v>1985700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2020000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2534500</v>
+        <v>860400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1892400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1925100</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>2415400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2268700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2625700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2206100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2279400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2445200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2608600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31800</v>
+        <v>-5800</v>
       </c>
       <c r="E18" s="3">
-        <v>-58800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-264600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-40400</v>
+        <v>-30400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-107800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>-15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-107600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>107400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>106600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>200900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2400</v>
+      <c r="F20" s="3">
+        <v>191500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-14400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-31400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31800</v>
+        <v>120200</v>
       </c>
       <c r="E21" s="3">
-        <v>287900</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-94300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>162900</v>
+        <v>30400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>274300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K21" s="3">
         <v>66100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>123500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>231500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>191900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38000</v>
+        <v>71200</v>
       </c>
       <c r="E22" s="3">
-        <v>51400</v>
+        <v>36200</v>
       </c>
       <c r="F22" s="3">
-        <v>17100</v>
+        <v>49000</v>
       </c>
       <c r="G22" s="3">
-        <v>49000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45300</v>
+        <v>16300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K22" s="3">
         <v>40400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>25900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>50500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71000</v>
+        <v>-77000</v>
       </c>
       <c r="E23" s="3">
-        <v>90600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-319700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-83300</v>
+        <v>-67700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>86400</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-304700</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-167800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-50600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-131300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-107600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>24700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
-        <v>2400</v>
-      </c>
       <c r="F24" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4900</v>
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>50600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>33700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-69800</v>
+        <v>-89900</v>
       </c>
       <c r="E26" s="3">
-        <v>88200</v>
+        <v>-66500</v>
       </c>
       <c r="F26" s="3">
-        <v>187400</v>
+        <v>84100</v>
       </c>
       <c r="G26" s="3">
-        <v>-323400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-78400</v>
+        <v>178600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-308200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J26" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-176400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-101200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-143100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-107600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72300</v>
+        <v>-91100</v>
       </c>
       <c r="E27" s="3">
-        <v>88200</v>
+        <v>-68900</v>
       </c>
       <c r="F27" s="3">
-        <v>187400</v>
+        <v>84100</v>
       </c>
       <c r="G27" s="3">
-        <v>-323400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-79600</v>
+        <v>178600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-308200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J27" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-175200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-101200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-141900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-107600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,61 +1815,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2400</v>
+        <v>-1200</v>
       </c>
       <c r="E29" s="3">
-        <v>-17100</v>
+        <v>-2300</v>
       </c>
       <c r="F29" s="3">
-        <v>-11000</v>
+        <v>-16300</v>
       </c>
       <c r="G29" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-31800</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K29" s="3">
         <v>4900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>201200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-37900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-26600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>136200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-49400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-200900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2400</v>
+      <c r="F32" s="3">
+        <v>-191500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>19600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>14400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>31400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74700</v>
+        <v>-92200</v>
       </c>
       <c r="E33" s="3">
-        <v>71000</v>
+        <v>-71200</v>
       </c>
       <c r="F33" s="3">
-        <v>176400</v>
+        <v>67700</v>
       </c>
       <c r="G33" s="3">
-        <v>-324600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-111500</v>
+        <v>168100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-309400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J33" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-170300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>100000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-179800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-74200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>-58300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74700</v>
+        <v>-92200</v>
       </c>
       <c r="E35" s="3">
-        <v>71000</v>
+        <v>-71200</v>
       </c>
       <c r="F35" s="3">
-        <v>176400</v>
+        <v>67700</v>
       </c>
       <c r="G35" s="3">
-        <v>-324600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-111500</v>
+        <v>168100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-309400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J35" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-170300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>100000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-179800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-74200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>-58300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2314,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124900</v>
+        <v>115600</v>
       </c>
       <c r="E41" s="3">
-        <v>404200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>77200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+        <v>119100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>385200</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K41" s="3">
         <v>79600</v>
       </c>
-      <c r="J41" s="3">
-        <v>79600</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>342300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>233000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>353300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>407400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>486900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24500</v>
+        <v>28000</v>
       </c>
       <c r="E42" s="3">
-        <v>20800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>19600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>15900</v>
+        <v>23300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K42" s="3">
         <v>18400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>16500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>25800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>693300</v>
+        <v>519500</v>
       </c>
       <c r="E43" s="3">
-        <v>614900</v>
+        <v>660800</v>
       </c>
       <c r="F43" s="3">
-        <v>793800</v>
+        <v>586000</v>
       </c>
       <c r="G43" s="3">
-        <v>732500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>761900</v>
+        <v>756500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>698100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K43" s="3">
         <v>735000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>934100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>798600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>943200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>892000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>245000</v>
+        <v>196100</v>
       </c>
       <c r="E44" s="3">
-        <v>238900</v>
+        <v>233500</v>
       </c>
       <c r="F44" s="3">
-        <v>253600</v>
+        <v>227600</v>
       </c>
       <c r="G44" s="3">
-        <v>241300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>297700</v>
+        <v>241700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>230000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K44" s="3">
         <v>358900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>315300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>286300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>263600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>256900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>245700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>362600</v>
+        <v>265000</v>
       </c>
       <c r="E45" s="3">
-        <v>367500</v>
+        <v>345600</v>
       </c>
       <c r="F45" s="3">
-        <v>285400</v>
+        <v>350200</v>
       </c>
       <c r="G45" s="3">
-        <v>283000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>225400</v>
+        <v>272000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>269700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K45" s="3">
         <v>256000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>342300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>246000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>291300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>311800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>482500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1450400</v>
+        <v>1124200</v>
       </c>
       <c r="E46" s="3">
-        <v>1646400</v>
+        <v>1382200</v>
       </c>
       <c r="F46" s="3">
-        <v>1332800</v>
+        <v>1569000</v>
       </c>
       <c r="G46" s="3">
-        <v>1353600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1380600</v>
+        <v>1270100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3">
+        <v>1315700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1447900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1950500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1576800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1717900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1938000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2132900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56300</v>
+        <v>61900</v>
       </c>
       <c r="E47" s="3">
-        <v>75900</v>
+        <v>53700</v>
       </c>
       <c r="F47" s="3">
-        <v>72300</v>
+        <v>72400</v>
       </c>
       <c r="G47" s="3">
-        <v>73500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>49000</v>
+        <v>68900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K47" s="3">
         <v>39200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>30600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>67000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>80800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>341800</v>
+        <v>316400</v>
       </c>
       <c r="E48" s="3">
-        <v>352800</v>
+        <v>325700</v>
       </c>
       <c r="F48" s="3">
-        <v>454500</v>
+        <v>336200</v>
       </c>
       <c r="G48" s="3">
-        <v>509600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>583100</v>
+        <v>433100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>485600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>555700</v>
+      </c>
+      <c r="K48" s="3">
         <v>608800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>274100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>263800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>269100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>314000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>325400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1583900</v>
+        <v>1474400</v>
       </c>
       <c r="E49" s="3">
-        <v>1532500</v>
+        <v>1509500</v>
       </c>
       <c r="F49" s="3">
-        <v>1621900</v>
+        <v>1460400</v>
       </c>
       <c r="G49" s="3">
-        <v>1695400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1816700</v>
+        <v>1545700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
+        <v>1731300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1912200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1871700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1870200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1735600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1965400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>1938800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113900</v>
+        <v>92200</v>
       </c>
       <c r="E52" s="3">
-        <v>89400</v>
+        <v>108600</v>
       </c>
       <c r="F52" s="3">
-        <v>99200</v>
+        <v>85200</v>
       </c>
       <c r="G52" s="3">
-        <v>91900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>102900</v>
+        <v>94600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>87600</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K52" s="3">
         <v>300100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>295300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>379700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>346700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>525900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>578900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3546300</v>
+        <v>3069100</v>
       </c>
       <c r="E54" s="3">
-        <v>3697000</v>
+        <v>3379700</v>
       </c>
       <c r="F54" s="3">
-        <v>3939600</v>
+        <v>3523200</v>
       </c>
       <c r="G54" s="3">
-        <v>3724000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3932200</v>
+        <v>3754400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3548900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3">
+        <v>3747400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4308300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>4422100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4130700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4111400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4810300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>5056800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700700</v>
+        <v>531200</v>
       </c>
       <c r="E57" s="3">
-        <v>869700</v>
+        <v>667800</v>
       </c>
       <c r="F57" s="3">
-        <v>908900</v>
+        <v>828900</v>
       </c>
       <c r="G57" s="3">
-        <v>830500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1010600</v>
+        <v>866200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>791500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>963100</v>
+      </c>
+      <c r="K57" s="3">
         <v>977500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1335200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1005500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1048900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1089200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>858300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>115100</v>
+        <v>74700</v>
       </c>
       <c r="E58" s="3">
-        <v>68600</v>
+        <v>109700</v>
       </c>
       <c r="F58" s="3">
-        <v>99200</v>
+        <v>65400</v>
       </c>
       <c r="G58" s="3">
-        <v>1781100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>116400</v>
+        <v>94600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1697400</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K58" s="3">
         <v>222900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>23500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>57100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>96500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>724000</v>
+        <v>616400</v>
       </c>
       <c r="E59" s="3">
-        <v>750900</v>
+        <v>689900</v>
       </c>
       <c r="F59" s="3">
-        <v>662700</v>
+        <v>715600</v>
       </c>
       <c r="G59" s="3">
-        <v>670100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>761900</v>
+        <v>631600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>638600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K59" s="3">
         <v>733800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>885800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>868200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>777500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>937700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>1147800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1539800</v>
+        <v>1222300</v>
       </c>
       <c r="E60" s="3">
-        <v>1689300</v>
+        <v>1467400</v>
       </c>
       <c r="F60" s="3">
-        <v>1668400</v>
+        <v>1609900</v>
       </c>
       <c r="G60" s="3">
-        <v>3281700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1888900</v>
+        <v>1590000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3127500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3">
+        <v>1800100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1934300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2244600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1899700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1848600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2084000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>2102600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1325400</v>
+        <v>1260800</v>
       </c>
       <c r="E61" s="3">
-        <v>1310700</v>
+        <v>1263100</v>
       </c>
       <c r="F61" s="3">
-        <v>1365900</v>
+        <v>1249100</v>
       </c>
       <c r="G61" s="3">
-        <v>247400</v>
+        <v>1301700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>235800</v>
       </c>
       <c r="I61" s="3">
-        <v>1473700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>1404400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1489600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1181100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1283400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1192900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1095800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1320600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>471600</v>
+        <v>414400</v>
       </c>
       <c r="E62" s="3">
-        <v>485100</v>
+        <v>449500</v>
       </c>
       <c r="F62" s="3">
-        <v>534100</v>
+        <v>462300</v>
       </c>
       <c r="G62" s="3">
-        <v>531600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>525500</v>
+        <v>509000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>506700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K62" s="3">
         <v>746000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>676400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>728700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>697800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>857500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>941300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3336900</v>
+        <v>2897500</v>
       </c>
       <c r="E66" s="3">
-        <v>3485100</v>
+        <v>3180000</v>
       </c>
       <c r="F66" s="3">
-        <v>3570800</v>
+        <v>3321300</v>
       </c>
       <c r="G66" s="3">
-        <v>4060800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3888100</v>
+        <v>3403000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3870000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3">
+        <v>3705400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4169900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>4103300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3915400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3742600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4040600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>4366800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-634500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-501000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>-652600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-604700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-477500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-345400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-132900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209500</v>
+        <v>171600</v>
       </c>
       <c r="E76" s="3">
-        <v>211900</v>
+        <v>199600</v>
       </c>
       <c r="F76" s="3">
-        <v>368700</v>
+        <v>202000</v>
       </c>
       <c r="G76" s="3">
-        <v>-336900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>44100</v>
+        <v>351400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K76" s="3">
         <v>138400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>318800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>215300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>368800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>769700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>690000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74700</v>
+        <v>-92200</v>
       </c>
       <c r="E81" s="3">
-        <v>71000</v>
+        <v>-71200</v>
       </c>
       <c r="F81" s="3">
-        <v>176400</v>
+        <v>67700</v>
       </c>
       <c r="G81" s="3">
-        <v>-324600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-111500</v>
+        <v>168100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-309400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J81" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-170300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>100000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-179800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-74200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>-58300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64900</v>
+        <v>126100</v>
       </c>
       <c r="E83" s="3">
-        <v>145800</v>
+        <v>61900</v>
       </c>
       <c r="F83" s="3">
-        <v>80800</v>
+        <v>138900</v>
       </c>
       <c r="G83" s="3">
-        <v>176400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200900</v>
+        <v>77000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>168100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K83" s="3">
         <v>193500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>147100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>134000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>116700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-267000</v>
+        <v>-262700</v>
       </c>
       <c r="E89" s="3">
-        <v>166600</v>
+        <v>-254500</v>
       </c>
       <c r="F89" s="3">
-        <v>-14700</v>
+        <v>158800</v>
       </c>
       <c r="G89" s="3">
-        <v>-294000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>269500</v>
+        <v>-14000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-280200</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-224200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>315300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-53200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>272500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>259100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>193000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13500</v>
+        <v>-23300</v>
       </c>
       <c r="E91" s="3">
-        <v>-19600</v>
+        <v>-12800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9800</v>
+        <v>-18700</v>
       </c>
       <c r="G91" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-33100</v>
+        <v>-9300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-44700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-39300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29400</v>
+        <v>-11700</v>
       </c>
       <c r="E94" s="3">
-        <v>-66100</v>
+        <v>-28000</v>
       </c>
       <c r="F94" s="3">
-        <v>-28200</v>
+        <v>-63000</v>
       </c>
       <c r="G94" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-96800</v>
+        <v>-26900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-107100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-84100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4895,16 +5129,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-28000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13500</v>
+        <v>-4700</v>
       </c>
       <c r="E100" s="3">
-        <v>231500</v>
+        <v>12800</v>
       </c>
       <c r="F100" s="3">
-        <v>274400</v>
+        <v>220600</v>
       </c>
       <c r="G100" s="3">
-        <v>407900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-171500</v>
+        <v>261500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>388700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-163400</v>
+      </c>
+      <c r="K100" s="3">
         <v>60000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-115300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-298700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-58300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="H101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>16500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>4500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-279300</v>
+        <v>-269700</v>
       </c>
       <c r="E102" s="3">
-        <v>325800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2400</v>
+        <v>-266200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>310500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-278100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>109400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-143100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>150600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-69200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>55000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1586500</v>
+        <v>780200</v>
       </c>
       <c r="E8" s="3">
-        <v>830000</v>
+        <v>1534400</v>
       </c>
       <c r="F8" s="3">
-        <v>1836300</v>
+        <v>802800</v>
       </c>
       <c r="G8" s="3">
-        <v>930400</v>
+        <v>1776100</v>
       </c>
       <c r="H8" s="3">
-        <v>1672900</v>
+        <v>899900</v>
       </c>
       <c r="I8" s="3">
-        <v>862700</v>
+        <v>1618000</v>
       </c>
       <c r="J8" s="3">
+        <v>834400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2376800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2160900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>996400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2610400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2098500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2386900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2424400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1246200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2715200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1416000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1390400</v>
+        <v>663900</v>
       </c>
       <c r="E9" s="3">
-        <v>743600</v>
+        <v>1344800</v>
       </c>
       <c r="F9" s="3">
-        <v>1636700</v>
+        <v>719200</v>
       </c>
       <c r="G9" s="3">
-        <v>837000</v>
+        <v>1583000</v>
       </c>
       <c r="H9" s="3">
-        <v>1544500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+        <v>809600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1493800</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>2057000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1975900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>2294000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1859500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2014700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2158700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>2209200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>196100</v>
+        <v>116300</v>
       </c>
       <c r="E10" s="3">
-        <v>86400</v>
+        <v>189700</v>
       </c>
       <c r="F10" s="3">
-        <v>199600</v>
+        <v>83600</v>
       </c>
       <c r="G10" s="3">
-        <v>93400</v>
+        <v>193100</v>
       </c>
       <c r="H10" s="3">
-        <v>128400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+        <v>90300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>124200</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>319900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>316500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>238900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>372200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>506000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,64 +950,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>50200</v>
+        <v>22600</v>
       </c>
       <c r="E12" s="3">
-        <v>26900</v>
+        <v>48600</v>
       </c>
       <c r="F12" s="3">
-        <v>52500</v>
+        <v>26000</v>
       </c>
       <c r="G12" s="3">
-        <v>26900</v>
+        <v>50800</v>
       </c>
       <c r="H12" s="3">
-        <v>57200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>63000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>73500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>58800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>79300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>68700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>92200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>104300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,64 +1066,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3">
-        <v>17500</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
-        <v>46700</v>
+        <v>16900</v>
       </c>
       <c r="G14" s="3">
-        <v>15200</v>
+        <v>45200</v>
       </c>
       <c r="H14" s="3">
-        <v>157600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>152400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>94600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>120000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>48500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>52700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1592300</v>
+        <v>767800</v>
       </c>
       <c r="E17" s="3">
-        <v>860400</v>
+        <v>1540100</v>
       </c>
       <c r="F17" s="3">
-        <v>1892400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1925100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+        <v>832100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1830300</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1861900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2415400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2268700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2625700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2206100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2279400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2445200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2608600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5800</v>
+        <v>12400</v>
       </c>
       <c r="E18" s="3">
-        <v>-30400</v>
+        <v>-5600</v>
       </c>
       <c r="F18" s="3">
-        <v>-56000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-252200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-243900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-38500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-107800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-107600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>107400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>106600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1347,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>191500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>185200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-9400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-14400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-31400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>120200</v>
+        <v>79000</v>
       </c>
       <c r="E21" s="3">
-        <v>30400</v>
+        <v>115200</v>
       </c>
       <c r="F21" s="3">
-        <v>274300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-89900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>265300</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>155300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>123500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>231500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>191900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>71200</v>
+        <v>36100</v>
       </c>
       <c r="E22" s="3">
-        <v>36200</v>
+        <v>68900</v>
       </c>
       <c r="F22" s="3">
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="G22" s="3">
-        <v>16300</v>
+        <v>47400</v>
       </c>
       <c r="H22" s="3">
-        <v>46700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>43200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>25900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>50500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77000</v>
+        <v>-22600</v>
       </c>
       <c r="E23" s="3">
-        <v>-67700</v>
+        <v>-75600</v>
       </c>
       <c r="F23" s="3">
-        <v>86400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-304700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>83600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-294700</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-79400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-167800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-50600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-131300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>24700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12800</v>
+        <v>9000</v>
       </c>
       <c r="E24" s="3">
-        <v>-1200</v>
+        <v>12400</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>-1100</v>
       </c>
       <c r="G24" s="3">
         <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>50600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>117400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>33700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89900</v>
+        <v>-31600</v>
       </c>
       <c r="E26" s="3">
-        <v>-66500</v>
+        <v>-88100</v>
       </c>
       <c r="F26" s="3">
-        <v>84100</v>
+        <v>-64400</v>
       </c>
       <c r="G26" s="3">
-        <v>178600</v>
+        <v>81300</v>
       </c>
       <c r="H26" s="3">
-        <v>-308200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+        <v>172800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-298100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-74700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-176400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-101200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-143100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91100</v>
+        <v>-30500</v>
       </c>
       <c r="E27" s="3">
-        <v>-68900</v>
+        <v>-88100</v>
       </c>
       <c r="F27" s="3">
-        <v>84100</v>
+        <v>-66600</v>
       </c>
       <c r="G27" s="3">
-        <v>178600</v>
+        <v>81300</v>
       </c>
       <c r="H27" s="3">
-        <v>-308200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+        <v>172800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-298100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-175200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-101200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-141900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-47600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,64 +1876,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2300</v>
       </c>
-      <c r="F29" s="3">
-        <v>-16300</v>
-      </c>
       <c r="G29" s="3">
-        <v>-10500</v>
+        <v>-15800</v>
       </c>
       <c r="H29" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-30400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>201200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-37900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-26600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>136200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-49400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-191500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>9400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>14400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>31400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92200</v>
+        <v>-30500</v>
       </c>
       <c r="E33" s="3">
-        <v>-71200</v>
+        <v>-89200</v>
       </c>
       <c r="F33" s="3">
-        <v>67700</v>
+        <v>-68900</v>
       </c>
       <c r="G33" s="3">
-        <v>168100</v>
+        <v>65500</v>
       </c>
       <c r="H33" s="3">
-        <v>-309400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+        <v>162600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-299200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-106200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-170300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>100000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-179800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-74200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>-58300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92200</v>
+        <v>-30500</v>
       </c>
       <c r="E35" s="3">
-        <v>-71200</v>
+        <v>-89200</v>
       </c>
       <c r="F35" s="3">
-        <v>67700</v>
+        <v>-68900</v>
       </c>
       <c r="G35" s="3">
-        <v>168100</v>
+        <v>65500</v>
       </c>
       <c r="H35" s="3">
-        <v>-309400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+        <v>162600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-299200</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-106200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-170300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>100000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-179800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-74200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>-58300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,512 +2401,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115600</v>
+        <v>55300</v>
       </c>
       <c r="E41" s="3">
-        <v>119100</v>
+        <v>111800</v>
       </c>
       <c r="F41" s="3">
-        <v>385200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>73500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>115200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>372600</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>71100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>75900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>342300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>233000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>353300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>407400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>486900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28000</v>
+        <v>29400</v>
       </c>
       <c r="E42" s="3">
-        <v>23300</v>
+        <v>27100</v>
       </c>
       <c r="F42" s="3">
-        <v>19800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="O42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P42" s="3">
+        <v>11100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>18700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>18400</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
-        <v>16500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>10600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>11100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>18700</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>25800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>519500</v>
+        <v>642500</v>
       </c>
       <c r="E43" s="3">
-        <v>660800</v>
+        <v>502400</v>
       </c>
       <c r="F43" s="3">
-        <v>586000</v>
+        <v>639100</v>
       </c>
       <c r="G43" s="3">
-        <v>756500</v>
+        <v>566800</v>
       </c>
       <c r="H43" s="3">
-        <v>698100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+        <v>731700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>675200</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>726100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>735000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>934100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>798600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>943200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>892000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>196100</v>
+        <v>317300</v>
       </c>
       <c r="E44" s="3">
-        <v>233500</v>
+        <v>189700</v>
       </c>
       <c r="F44" s="3">
-        <v>227600</v>
+        <v>225800</v>
       </c>
       <c r="G44" s="3">
-        <v>241700</v>
+        <v>220200</v>
       </c>
       <c r="H44" s="3">
-        <v>230000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+        <v>233700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>222400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>283700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>358900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>315300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>286300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>263600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>256900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>245700</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>265000</v>
+        <v>267600</v>
       </c>
       <c r="E45" s="3">
-        <v>345600</v>
+        <v>256300</v>
       </c>
       <c r="F45" s="3">
-        <v>350200</v>
+        <v>334200</v>
       </c>
       <c r="G45" s="3">
-        <v>272000</v>
+        <v>338700</v>
       </c>
       <c r="H45" s="3">
-        <v>269700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+        <v>263100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>260800</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>214800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>256000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>342300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>246000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>291300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>311800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>482500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1124200</v>
+        <v>1312000</v>
       </c>
       <c r="E46" s="3">
-        <v>1382200</v>
+        <v>1087300</v>
       </c>
       <c r="F46" s="3">
-        <v>1569000</v>
+        <v>1336900</v>
       </c>
       <c r="G46" s="3">
-        <v>1270100</v>
+        <v>1517500</v>
       </c>
       <c r="H46" s="3">
-        <v>1290000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+        <v>1228500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1247700</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1315700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1447900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1950500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1576800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1717900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2132900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61900</v>
+        <v>64400</v>
       </c>
       <c r="E47" s="3">
-        <v>53700</v>
+        <v>59800</v>
       </c>
       <c r="F47" s="3">
-        <v>72400</v>
+        <v>51900</v>
       </c>
       <c r="G47" s="3">
-        <v>68900</v>
+        <v>70000</v>
       </c>
       <c r="H47" s="3">
-        <v>70000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+        <v>66600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>67700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>46700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>30600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>67000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>80800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>316400</v>
+        <v>330800</v>
       </c>
       <c r="E48" s="3">
-        <v>325700</v>
+        <v>306000</v>
       </c>
       <c r="F48" s="3">
-        <v>336200</v>
+        <v>315000</v>
       </c>
       <c r="G48" s="3">
-        <v>433100</v>
+        <v>325200</v>
       </c>
       <c r="H48" s="3">
-        <v>485600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+        <v>418900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>469700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>555700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>608800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>274100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>263800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>269100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>325400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1474400</v>
+        <v>1436200</v>
       </c>
       <c r="E49" s="3">
-        <v>1509500</v>
+        <v>1426100</v>
       </c>
       <c r="F49" s="3">
-        <v>1460400</v>
+        <v>1459900</v>
       </c>
       <c r="G49" s="3">
-        <v>1545700</v>
+        <v>1412500</v>
       </c>
       <c r="H49" s="3">
-        <v>1615700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+        <v>1494900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1731300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1912200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>1871700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1870200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1735600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1965400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1938800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92200</v>
+        <v>91500</v>
       </c>
       <c r="E52" s="3">
-        <v>108600</v>
+        <v>89200</v>
       </c>
       <c r="F52" s="3">
-        <v>85200</v>
+        <v>105000</v>
       </c>
       <c r="G52" s="3">
-        <v>94600</v>
+        <v>82400</v>
       </c>
       <c r="H52" s="3">
-        <v>87600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+        <v>91500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>84700</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>98100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>295300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>379700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>346700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>525900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>578900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3069100</v>
+        <v>3234900</v>
       </c>
       <c r="E54" s="3">
-        <v>3379700</v>
+        <v>2968400</v>
       </c>
       <c r="F54" s="3">
-        <v>3523200</v>
+        <v>3268700</v>
       </c>
       <c r="G54" s="3">
-        <v>3754400</v>
+        <v>3407600</v>
       </c>
       <c r="H54" s="3">
-        <v>3548900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+        <v>3631200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>3747400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4308300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>4422100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4130700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4111400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4810300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>5056800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>531200</v>
+        <v>640200</v>
       </c>
       <c r="E57" s="3">
-        <v>667800</v>
+        <v>513700</v>
       </c>
       <c r="F57" s="3">
-        <v>828900</v>
+        <v>645800</v>
       </c>
       <c r="G57" s="3">
-        <v>866200</v>
+        <v>801700</v>
       </c>
       <c r="H57" s="3">
-        <v>791500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+        <v>837800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>765500</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>963100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>977500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1335200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1005500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1048900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1089200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>858300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>74700</v>
+        <v>117400</v>
       </c>
       <c r="E58" s="3">
-        <v>109700</v>
+        <v>72300</v>
       </c>
       <c r="F58" s="3">
-        <v>65400</v>
+        <v>106100</v>
       </c>
       <c r="G58" s="3">
-        <v>94600</v>
+        <v>63200</v>
       </c>
       <c r="H58" s="3">
-        <v>1697400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+        <v>91500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1641700</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>110900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>222900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>23500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>96500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>616400</v>
+        <v>651500</v>
       </c>
       <c r="E59" s="3">
-        <v>689900</v>
+        <v>596200</v>
       </c>
       <c r="F59" s="3">
-        <v>715600</v>
+        <v>667300</v>
       </c>
       <c r="G59" s="3">
-        <v>631600</v>
+        <v>692100</v>
       </c>
       <c r="H59" s="3">
-        <v>638600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+        <v>610800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>617600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>726100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>733800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>885800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>868200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>777500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>937700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>1147800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1222300</v>
+        <v>1409100</v>
       </c>
       <c r="E60" s="3">
-        <v>1467400</v>
+        <v>1182200</v>
       </c>
       <c r="F60" s="3">
-        <v>1609900</v>
+        <v>1419300</v>
       </c>
       <c r="G60" s="3">
-        <v>1590000</v>
+        <v>1557000</v>
       </c>
       <c r="H60" s="3">
-        <v>3127500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+        <v>1537800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3024900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1800100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1934300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2244600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1899700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1848600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2084000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2102600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1260800</v>
+        <v>1272500</v>
       </c>
       <c r="E61" s="3">
-        <v>1263100</v>
+        <v>1219400</v>
       </c>
       <c r="F61" s="3">
-        <v>1249100</v>
+        <v>1221700</v>
       </c>
       <c r="G61" s="3">
-        <v>1301700</v>
+        <v>1208100</v>
       </c>
       <c r="H61" s="3">
-        <v>235800</v>
+        <v>1258900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>228100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1404400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1489600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1181100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1283400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1192900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1095800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1320600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>414400</v>
+        <v>395200</v>
       </c>
       <c r="E62" s="3">
-        <v>449500</v>
+        <v>400800</v>
       </c>
       <c r="F62" s="3">
-        <v>462300</v>
+        <v>434700</v>
       </c>
       <c r="G62" s="3">
-        <v>509000</v>
+        <v>447100</v>
       </c>
       <c r="H62" s="3">
-        <v>506700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+        <v>492300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>490000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>500800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>746000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>676400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>728700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>697800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>857500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>941300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2897500</v>
+        <v>3076800</v>
       </c>
       <c r="E66" s="3">
-        <v>3180000</v>
+        <v>2802400</v>
       </c>
       <c r="F66" s="3">
-        <v>3321300</v>
+        <v>3075700</v>
       </c>
       <c r="G66" s="3">
-        <v>3403000</v>
+        <v>3212300</v>
       </c>
       <c r="H66" s="3">
-        <v>3870000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+        <v>3291300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3743000</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>3705400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4169900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>4103300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3915400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3742600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4040600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>4366800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-652600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-604700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-477500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-631200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-584900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-461800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-345400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-132900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>171600</v>
+        <v>158100</v>
       </c>
       <c r="E76" s="3">
-        <v>199600</v>
+        <v>166000</v>
       </c>
       <c r="F76" s="3">
-        <v>202000</v>
+        <v>193100</v>
       </c>
       <c r="G76" s="3">
-        <v>351400</v>
+        <v>195300</v>
       </c>
       <c r="H76" s="3">
-        <v>-321000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+        <v>339900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-310500</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>42000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>138400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>318800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>215300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>368800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>769700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>690000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92200</v>
+        <v>-30500</v>
       </c>
       <c r="E81" s="3">
-        <v>-71200</v>
+        <v>-89200</v>
       </c>
       <c r="F81" s="3">
-        <v>67700</v>
+        <v>-68900</v>
       </c>
       <c r="G81" s="3">
-        <v>168100</v>
+        <v>65500</v>
       </c>
       <c r="H81" s="3">
-        <v>-309400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+        <v>162600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-299200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-106200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-170300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>100000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-179800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-74200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>-58300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126100</v>
+        <v>65500</v>
       </c>
       <c r="E83" s="3">
-        <v>61900</v>
+        <v>121900</v>
       </c>
       <c r="F83" s="3">
-        <v>138900</v>
+        <v>59800</v>
       </c>
       <c r="G83" s="3">
-        <v>77000</v>
+        <v>134400</v>
       </c>
       <c r="H83" s="3">
-        <v>168100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+        <v>74500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>162600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>191500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>147100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>128900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>134000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>116700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-262700</v>
+        <v>-10200</v>
       </c>
       <c r="E89" s="3">
-        <v>-254500</v>
+        <v>-254000</v>
       </c>
       <c r="F89" s="3">
-        <v>158800</v>
+        <v>-246100</v>
       </c>
       <c r="G89" s="3">
-        <v>-14000</v>
+        <v>153600</v>
       </c>
       <c r="H89" s="3">
-        <v>-280200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>256800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-224200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>315300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-53200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>272500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>259100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>193000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23300</v>
+        <v>-9000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12800</v>
+        <v>-22600</v>
       </c>
       <c r="F91" s="3">
-        <v>-18700</v>
+        <v>-12400</v>
       </c>
       <c r="G91" s="3">
-        <v>-9300</v>
+        <v>-18100</v>
       </c>
       <c r="H91" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-44700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-39300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11700</v>
+        <v>-31600</v>
       </c>
       <c r="E94" s="3">
-        <v>-28000</v>
+        <v>-11300</v>
       </c>
       <c r="F94" s="3">
-        <v>-63000</v>
+        <v>-27100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26900</v>
+        <v>-61000</v>
       </c>
       <c r="H94" s="3">
-        <v>-98100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-92200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-107100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-84100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5132,16 +5366,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-28000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4700</v>
+        <v>-18100</v>
       </c>
       <c r="E100" s="3">
-        <v>12800</v>
+        <v>-4500</v>
       </c>
       <c r="F100" s="3">
-        <v>220600</v>
+        <v>12400</v>
       </c>
       <c r="G100" s="3">
-        <v>261500</v>
+        <v>213400</v>
       </c>
       <c r="H100" s="3">
-        <v>388700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+        <v>252900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>376000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-163400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-115300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-298700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-58300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5800</v>
+        <v>3400</v>
       </c>
       <c r="G101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>16500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>4500</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-269700</v>
+        <v>-57600</v>
       </c>
       <c r="E102" s="3">
-        <v>-266200</v>
+        <v>-260800</v>
       </c>
       <c r="F102" s="3">
-        <v>310500</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-278100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>109400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-143100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>150600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>55000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -757,25 +757,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>780200</v>
+        <v>753800</v>
       </c>
       <c r="E8" s="3">
-        <v>1534400</v>
+        <v>1482500</v>
       </c>
       <c r="F8" s="3">
-        <v>802800</v>
+        <v>775600</v>
       </c>
       <c r="G8" s="3">
-        <v>1776100</v>
+        <v>1716000</v>
       </c>
       <c r="H8" s="3">
-        <v>899900</v>
+        <v>869500</v>
       </c>
       <c r="I8" s="3">
-        <v>1618000</v>
+        <v>1563300</v>
       </c>
       <c r="J8" s="3">
-        <v>834400</v>
+        <v>806200</v>
       </c>
       <c r="K8" s="3">
         <v>2376800</v>
@@ -816,22 +816,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>663900</v>
+        <v>641500</v>
       </c>
       <c r="E9" s="3">
-        <v>1344800</v>
+        <v>1299300</v>
       </c>
       <c r="F9" s="3">
-        <v>719200</v>
+        <v>694900</v>
       </c>
       <c r="G9" s="3">
-        <v>1583000</v>
+        <v>1529500</v>
       </c>
       <c r="H9" s="3">
-        <v>809600</v>
+        <v>782200</v>
       </c>
       <c r="I9" s="3">
-        <v>1493800</v>
+        <v>1443300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -875,22 +875,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116300</v>
+        <v>112400</v>
       </c>
       <c r="E10" s="3">
-        <v>189700</v>
+        <v>183300</v>
       </c>
       <c r="F10" s="3">
-        <v>83600</v>
+        <v>80700</v>
       </c>
       <c r="G10" s="3">
-        <v>193100</v>
+        <v>186500</v>
       </c>
       <c r="H10" s="3">
-        <v>90300</v>
+        <v>87300</v>
       </c>
       <c r="I10" s="3">
-        <v>124200</v>
+        <v>120000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -957,22 +957,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="E12" s="3">
-        <v>48600</v>
+        <v>46900</v>
       </c>
       <c r="F12" s="3">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="G12" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="H12" s="3">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="I12" s="3">
-        <v>55300</v>
+        <v>53500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -1075,22 +1075,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F14" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="G14" s="3">
-        <v>45200</v>
+        <v>43600</v>
       </c>
       <c r="H14" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="I14" s="3">
-        <v>152400</v>
+        <v>147300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1213,22 +1213,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>767800</v>
+        <v>741800</v>
       </c>
       <c r="E17" s="3">
-        <v>1540100</v>
+        <v>1488000</v>
       </c>
       <c r="F17" s="3">
-        <v>832100</v>
+        <v>804000</v>
       </c>
       <c r="G17" s="3">
-        <v>1830300</v>
+        <v>1768400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1861900</v>
+        <v>1798900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1272,22 +1272,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F18" s="3">
-        <v>-29400</v>
+        <v>-28400</v>
       </c>
       <c r="G18" s="3">
-        <v>-54200</v>
+        <v>-52400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>-243900</v>
+        <v>-235600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1363,13 +1363,13 @@
         <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>185200</v>
+        <v>178900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1413,22 +1413,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79000</v>
+        <v>76400</v>
       </c>
       <c r="E21" s="3">
-        <v>115200</v>
+        <v>111300</v>
       </c>
       <c r="F21" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G21" s="3">
-        <v>265300</v>
+        <v>256400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>-86900</v>
+        <v>-84000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1472,22 +1472,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="E22" s="3">
-        <v>68900</v>
+        <v>66500</v>
       </c>
       <c r="F22" s="3">
-        <v>35000</v>
+        <v>33800</v>
       </c>
       <c r="G22" s="3">
-        <v>47400</v>
+        <v>45800</v>
       </c>
       <c r="H22" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="I22" s="3">
-        <v>45200</v>
+        <v>43600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1531,22 +1531,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22600</v>
+        <v>-21800</v>
       </c>
       <c r="E23" s="3">
-        <v>-75600</v>
+        <v>-73100</v>
       </c>
       <c r="F23" s="3">
-        <v>-65500</v>
+        <v>-63300</v>
       </c>
       <c r="G23" s="3">
-        <v>83600</v>
+        <v>80700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>-294700</v>
+        <v>-284700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1590,22 +1590,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="F24" s="3">
         <v>-1100</v>
       </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I24" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1708,22 +1708,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31600</v>
+        <v>-30500</v>
       </c>
       <c r="E26" s="3">
-        <v>-88100</v>
+        <v>-85100</v>
       </c>
       <c r="F26" s="3">
-        <v>-64400</v>
+        <v>-62200</v>
       </c>
       <c r="G26" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="H26" s="3">
-        <v>172800</v>
+        <v>166900</v>
       </c>
       <c r="I26" s="3">
-        <v>-298100</v>
+        <v>-288000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1767,22 +1767,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="E27" s="3">
-        <v>-88100</v>
+        <v>-85100</v>
       </c>
       <c r="F27" s="3">
-        <v>-66600</v>
+        <v>-64400</v>
       </c>
       <c r="G27" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="H27" s="3">
-        <v>172800</v>
+        <v>166900</v>
       </c>
       <c r="I27" s="3">
-        <v>-298100</v>
+        <v>-288000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -1891,13 +1891,13 @@
         <v>-1100</v>
       </c>
       <c r="F29" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G29" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="H29" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="I29" s="3">
         <v>-1100</v>
@@ -2071,13 +2071,13 @@
         <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-185200</v>
+        <v>-178900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -2121,22 +2121,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="E33" s="3">
-        <v>-89200</v>
+        <v>-86200</v>
       </c>
       <c r="F33" s="3">
-        <v>-68900</v>
+        <v>-66500</v>
       </c>
       <c r="G33" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="H33" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="I33" s="3">
-        <v>-299200</v>
+        <v>-289100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -2239,22 +2239,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="E35" s="3">
-        <v>-89200</v>
+        <v>-86200</v>
       </c>
       <c r="F35" s="3">
-        <v>-68900</v>
+        <v>-66500</v>
       </c>
       <c r="G35" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="H35" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="I35" s="3">
-        <v>-299200</v>
+        <v>-289100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -2408,25 +2408,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55300</v>
+        <v>53500</v>
       </c>
       <c r="E41" s="3">
-        <v>111800</v>
+        <v>108000</v>
       </c>
       <c r="F41" s="3">
-        <v>115200</v>
+        <v>111300</v>
       </c>
       <c r="G41" s="3">
-        <v>372600</v>
+        <v>360000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>71100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
+        <v>68700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>70900</v>
       </c>
       <c r="K41" s="3">
         <v>75900</v>
@@ -2467,25 +2467,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="E42" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F42" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="G42" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>18100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+        <v>17500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14200</v>
       </c>
       <c r="K42" s="3">
         <v>15200</v>
@@ -2526,25 +2526,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>642500</v>
+        <v>620700</v>
       </c>
       <c r="E43" s="3">
-        <v>502400</v>
+        <v>485500</v>
       </c>
       <c r="F43" s="3">
-        <v>639100</v>
+        <v>617500</v>
       </c>
       <c r="G43" s="3">
-        <v>566800</v>
+        <v>547600</v>
       </c>
       <c r="H43" s="3">
-        <v>731700</v>
+        <v>706900</v>
       </c>
       <c r="I43" s="3">
-        <v>675200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
+        <v>652400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>678500</v>
       </c>
       <c r="K43" s="3">
         <v>726100</v>
@@ -2585,25 +2585,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>317300</v>
+        <v>306500</v>
       </c>
       <c r="E44" s="3">
-        <v>189700</v>
+        <v>183300</v>
       </c>
       <c r="F44" s="3">
+        <v>218200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>212700</v>
+      </c>
+      <c r="H44" s="3">
         <v>225800</v>
       </c>
-      <c r="G44" s="3">
-        <v>220200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>233700</v>
-      </c>
       <c r="I44" s="3">
-        <v>222400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
+        <v>214900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>265100</v>
       </c>
       <c r="K44" s="3">
         <v>283700</v>
@@ -2644,25 +2644,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>267600</v>
+        <v>258500</v>
       </c>
       <c r="E45" s="3">
-        <v>256300</v>
+        <v>247600</v>
       </c>
       <c r="F45" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="G45" s="3">
-        <v>338700</v>
+        <v>327300</v>
       </c>
       <c r="H45" s="3">
-        <v>263100</v>
+        <v>254200</v>
       </c>
       <c r="I45" s="3">
-        <v>260800</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
+        <v>252000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200700</v>
       </c>
       <c r="K45" s="3">
         <v>214800</v>
@@ -2703,25 +2703,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1312000</v>
+        <v>1267600</v>
       </c>
       <c r="E46" s="3">
-        <v>1087300</v>
+        <v>1050500</v>
       </c>
       <c r="F46" s="3">
-        <v>1336900</v>
+        <v>1291600</v>
       </c>
       <c r="G46" s="3">
-        <v>1517500</v>
+        <v>1466200</v>
       </c>
       <c r="H46" s="3">
-        <v>1228500</v>
+        <v>1186900</v>
       </c>
       <c r="I46" s="3">
-        <v>1247700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
+        <v>1205500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1229500</v>
       </c>
       <c r="K46" s="3">
         <v>1315700</v>
@@ -2762,25 +2762,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>50200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>67600</v>
+      </c>
+      <c r="H47" s="3">
         <v>64400</v>
       </c>
-      <c r="E47" s="3">
-        <v>59800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>51900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>66600</v>
-      </c>
       <c r="I47" s="3">
-        <v>67700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+        <v>65500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>43600</v>
       </c>
       <c r="K47" s="3">
         <v>46700</v>
@@ -2821,25 +2821,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>330800</v>
+        <v>319600</v>
       </c>
       <c r="E48" s="3">
-        <v>306000</v>
+        <v>295600</v>
       </c>
       <c r="F48" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="G48" s="3">
-        <v>325200</v>
+        <v>314200</v>
       </c>
       <c r="H48" s="3">
-        <v>418900</v>
+        <v>404700</v>
       </c>
       <c r="I48" s="3">
-        <v>469700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+        <v>453800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>519300</v>
       </c>
       <c r="K48" s="3">
         <v>555700</v>
@@ -2880,25 +2880,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1436200</v>
+        <v>1387600</v>
       </c>
       <c r="E49" s="3">
-        <v>1426100</v>
+        <v>1377800</v>
       </c>
       <c r="F49" s="3">
-        <v>1459900</v>
+        <v>1410500</v>
       </c>
       <c r="G49" s="3">
-        <v>1412500</v>
+        <v>1354900</v>
       </c>
       <c r="H49" s="3">
-        <v>1494900</v>
+        <v>1444400</v>
       </c>
       <c r="I49" s="3">
-        <v>1562700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+        <v>1509800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1617800</v>
       </c>
       <c r="K49" s="3">
         <v>1731300</v>
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91500</v>
+        <v>88400</v>
       </c>
       <c r="E52" s="3">
-        <v>89200</v>
+        <v>86200</v>
       </c>
       <c r="F52" s="3">
-        <v>105000</v>
+        <v>101500</v>
       </c>
       <c r="G52" s="3">
-        <v>82400</v>
+        <v>79600</v>
       </c>
       <c r="H52" s="3">
-        <v>91500</v>
+        <v>88400</v>
       </c>
       <c r="I52" s="3">
-        <v>84700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>81800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>91600</v>
       </c>
       <c r="K52" s="3">
         <v>98100</v>
@@ -3175,25 +3175,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3234900</v>
+        <v>3125500</v>
       </c>
       <c r="E54" s="3">
-        <v>2968400</v>
+        <v>2868000</v>
       </c>
       <c r="F54" s="3">
-        <v>3268700</v>
+        <v>3158200</v>
       </c>
       <c r="G54" s="3">
-        <v>3407600</v>
+        <v>3282500</v>
       </c>
       <c r="H54" s="3">
-        <v>3631200</v>
+        <v>3508400</v>
       </c>
       <c r="I54" s="3">
-        <v>3432500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
+        <v>3316400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3501800</v>
       </c>
       <c r="K54" s="3">
         <v>3747400</v>
@@ -3280,25 +3280,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>640200</v>
+        <v>618500</v>
       </c>
       <c r="E57" s="3">
-        <v>513700</v>
+        <v>496400</v>
       </c>
       <c r="F57" s="3">
-        <v>645800</v>
+        <v>624000</v>
       </c>
       <c r="G57" s="3">
-        <v>801700</v>
+        <v>774500</v>
       </c>
       <c r="H57" s="3">
-        <v>837800</v>
+        <v>809500</v>
       </c>
       <c r="I57" s="3">
-        <v>765500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+        <v>739600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>900000</v>
       </c>
       <c r="K57" s="3">
         <v>963100</v>
@@ -3339,25 +3339,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>117400</v>
+        <v>113500</v>
       </c>
       <c r="E58" s="3">
-        <v>72300</v>
+        <v>69800</v>
       </c>
       <c r="F58" s="3">
-        <v>106100</v>
+        <v>102500</v>
       </c>
       <c r="G58" s="3">
-        <v>63200</v>
+        <v>78500</v>
       </c>
       <c r="H58" s="3">
-        <v>91500</v>
+        <v>88400</v>
       </c>
       <c r="I58" s="3">
-        <v>1641700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>1586200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>103600</v>
       </c>
       <c r="K58" s="3">
         <v>110900</v>
@@ -3398,25 +3398,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>651500</v>
+        <v>629500</v>
       </c>
       <c r="E59" s="3">
-        <v>596200</v>
+        <v>576000</v>
       </c>
       <c r="F59" s="3">
-        <v>667300</v>
+        <v>644700</v>
       </c>
       <c r="G59" s="3">
-        <v>692100</v>
+        <v>668700</v>
       </c>
       <c r="H59" s="3">
-        <v>610800</v>
+        <v>590200</v>
       </c>
       <c r="I59" s="3">
-        <v>617600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+        <v>596700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>678500</v>
       </c>
       <c r="K59" s="3">
         <v>726100</v>
@@ -3457,25 +3457,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1409100</v>
+        <v>1361500</v>
       </c>
       <c r="E60" s="3">
-        <v>1182200</v>
+        <v>1142200</v>
       </c>
       <c r="F60" s="3">
-        <v>1419300</v>
+        <v>1371300</v>
       </c>
       <c r="G60" s="3">
-        <v>1557000</v>
+        <v>1504400</v>
       </c>
       <c r="H60" s="3">
-        <v>1537800</v>
+        <v>1485800</v>
       </c>
       <c r="I60" s="3">
-        <v>3024900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
+        <v>2922500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1682200</v>
       </c>
       <c r="K60" s="3">
         <v>1800100</v>
@@ -3516,25 +3516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1272500</v>
+        <v>1229500</v>
       </c>
       <c r="E61" s="3">
-        <v>1219400</v>
+        <v>1178200</v>
       </c>
       <c r="F61" s="3">
-        <v>1221700</v>
+        <v>1180400</v>
       </c>
       <c r="G61" s="3">
-        <v>1208100</v>
+        <v>1167300</v>
       </c>
       <c r="H61" s="3">
-        <v>1258900</v>
+        <v>1216400</v>
       </c>
       <c r="I61" s="3">
-        <v>228100</v>
+        <v>220400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1312400</v>
       </c>
       <c r="K61" s="3">
         <v>1404400</v>
@@ -3575,25 +3575,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>395200</v>
+        <v>381800</v>
       </c>
       <c r="E62" s="3">
-        <v>400800</v>
+        <v>387300</v>
       </c>
       <c r="F62" s="3">
-        <v>434700</v>
+        <v>420000</v>
       </c>
       <c r="G62" s="3">
-        <v>447100</v>
+        <v>430900</v>
       </c>
       <c r="H62" s="3">
-        <v>492300</v>
+        <v>475600</v>
       </c>
       <c r="I62" s="3">
-        <v>490000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+        <v>473500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>468000</v>
       </c>
       <c r="K62" s="3">
         <v>500800</v>
@@ -3811,25 +3811,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3076800</v>
+        <v>2972700</v>
       </c>
       <c r="E66" s="3">
-        <v>2802400</v>
+        <v>2707600</v>
       </c>
       <c r="F66" s="3">
-        <v>3075700</v>
+        <v>2971600</v>
       </c>
       <c r="G66" s="3">
-        <v>3212300</v>
+        <v>3102500</v>
       </c>
       <c r="H66" s="3">
-        <v>3291300</v>
+        <v>3180000</v>
       </c>
       <c r="I66" s="3">
-        <v>3743000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
+        <v>3616400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3462500</v>
       </c>
       <c r="K66" s="3">
         <v>3705400</v>
@@ -4132,19 +4132,19 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>-631200</v>
+        <v>-609800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>-584900</v>
+        <v>-565100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
-        <v>-461800</v>
+        <v>-446200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4365,25 +4365,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="E76" s="3">
-        <v>166000</v>
+        <v>160400</v>
       </c>
       <c r="F76" s="3">
-        <v>193100</v>
+        <v>186500</v>
       </c>
       <c r="G76" s="3">
-        <v>195300</v>
+        <v>180000</v>
       </c>
       <c r="H76" s="3">
-        <v>339900</v>
+        <v>328400</v>
       </c>
       <c r="I76" s="3">
-        <v>-310500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
+        <v>-300000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>39300</v>
       </c>
       <c r="K76" s="3">
         <v>42000</v>
@@ -4547,22 +4547,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="E81" s="3">
-        <v>-89200</v>
+        <v>-86200</v>
       </c>
       <c r="F81" s="3">
-        <v>-68900</v>
+        <v>-66500</v>
       </c>
       <c r="G81" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="H81" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="I81" s="3">
-        <v>-299200</v>
+        <v>-289100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -4629,22 +4629,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="E83" s="3">
-        <v>121900</v>
+        <v>117800</v>
       </c>
       <c r="F83" s="3">
-        <v>59800</v>
+        <v>57800</v>
       </c>
       <c r="G83" s="3">
-        <v>134400</v>
+        <v>129800</v>
       </c>
       <c r="H83" s="3">
-        <v>74500</v>
+        <v>72000</v>
       </c>
       <c r="I83" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -4983,22 +4983,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="E89" s="3">
-        <v>-254000</v>
+        <v>-245500</v>
       </c>
       <c r="F89" s="3">
-        <v>-246100</v>
+        <v>-237800</v>
       </c>
       <c r="G89" s="3">
-        <v>153600</v>
+        <v>148400</v>
       </c>
       <c r="H89" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="I89" s="3">
-        <v>-271000</v>
+        <v>-261800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -5065,22 +5065,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="E91" s="3">
-        <v>-22600</v>
+        <v>-21800</v>
       </c>
       <c r="F91" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="G91" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="I91" s="3">
-        <v>-19200</v>
+        <v>-18500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -5242,22 +5242,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31600</v>
+        <v>-30500</v>
       </c>
       <c r="E94" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="F94" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="G94" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="H94" s="3">
-        <v>-26000</v>
+        <v>-25100</v>
       </c>
       <c r="I94" s="3">
-        <v>-94800</v>
+        <v>-91600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -5560,22 +5560,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="F100" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="G100" s="3">
-        <v>213400</v>
+        <v>206200</v>
       </c>
       <c r="H100" s="3">
-        <v>252900</v>
+        <v>244400</v>
       </c>
       <c r="I100" s="3">
-        <v>376000</v>
+        <v>363300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -5619,22 +5619,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G101" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="H101" s="3">
         <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -5678,22 +5678,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57600</v>
+        <v>-55600</v>
       </c>
       <c r="E102" s="3">
-        <v>-260800</v>
+        <v>-252000</v>
       </c>
       <c r="F102" s="3">
-        <v>-257400</v>
+        <v>-248700</v>
       </c>
       <c r="G102" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,296 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>753800</v>
+        <v>784700</v>
       </c>
       <c r="E8" s="3">
-        <v>1482500</v>
+        <v>1597300</v>
       </c>
       <c r="F8" s="3">
-        <v>775600</v>
+        <v>717200</v>
       </c>
       <c r="G8" s="3">
-        <v>1716000</v>
+        <v>1410500</v>
       </c>
       <c r="H8" s="3">
-        <v>869500</v>
+        <v>737900</v>
       </c>
       <c r="I8" s="3">
+        <v>1632600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>827200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1563300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>806200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2376800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2160900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>996400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2610400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2098500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2386900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2424400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1246200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2715200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1416000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>641500</v>
+        <v>690200</v>
       </c>
       <c r="E9" s="3">
-        <v>1299300</v>
+        <v>1352400</v>
       </c>
       <c r="F9" s="3">
-        <v>694900</v>
+        <v>610300</v>
       </c>
       <c r="G9" s="3">
-        <v>1529500</v>
+        <v>1236100</v>
       </c>
       <c r="H9" s="3">
-        <v>782200</v>
+        <v>661100</v>
       </c>
       <c r="I9" s="3">
+        <v>1455100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>744200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1443300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2057000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1975900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>2294000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1859500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2014700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2158700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>2209200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>112400</v>
+        <v>94400</v>
       </c>
       <c r="E10" s="3">
-        <v>183300</v>
+        <v>244900</v>
       </c>
       <c r="F10" s="3">
-        <v>80700</v>
+        <v>106900</v>
       </c>
       <c r="G10" s="3">
-        <v>186500</v>
+        <v>174400</v>
       </c>
       <c r="H10" s="3">
-        <v>87300</v>
+        <v>76800</v>
       </c>
       <c r="I10" s="3">
+        <v>177500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K10" s="3">
         <v>120000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>319900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>185000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>316500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>238900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>372200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>265700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>506000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,67 +976,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="E12" s="3">
-        <v>46900</v>
+        <v>42600</v>
       </c>
       <c r="F12" s="3">
-        <v>25100</v>
+        <v>20800</v>
       </c>
       <c r="G12" s="3">
-        <v>49100</v>
+        <v>44600</v>
       </c>
       <c r="H12" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="I12" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K12" s="3">
         <v>53500</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>63000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>73500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>58800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>79300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>68700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>92200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
         <v>104300</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,67 +1102,79 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>147300</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>94600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>120000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>48500</v>
+      </c>
+      <c r="R14" s="3">
+        <v>28800</v>
+      </c>
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>43600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>147300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>94600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>15900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>120000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>48500</v>
-      </c>
-      <c r="P14" s="3">
-        <v>28800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>52700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>741800</v>
+        <v>785700</v>
       </c>
       <c r="E17" s="3">
-        <v>1488000</v>
+        <v>1562000</v>
       </c>
       <c r="F17" s="3">
-        <v>804000</v>
+        <v>705800</v>
       </c>
       <c r="G17" s="3">
-        <v>1768400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+        <v>1415700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>764900</v>
       </c>
       <c r="I17" s="3">
+        <v>1682400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1798900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2415400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2268700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2625700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2206100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2279400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2445200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2608600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12000</v>
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
-        <v>-5500</v>
+        <v>35300</v>
       </c>
       <c r="F18" s="3">
-        <v>-28400</v>
+        <v>11400</v>
       </c>
       <c r="G18" s="3">
-        <v>-52400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+        <v>-5200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-27000</v>
       </c>
       <c r="I18" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-235600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>-38500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-107800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>-15300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-107600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>107400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-20900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>106600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,303 +1413,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1100</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
-        <v>178900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+        <v>-1000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1000</v>
       </c>
       <c r="I20" s="3">
+        <v>170200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-19600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-9400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-42800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-31400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>76400</v>
+        <v>48800</v>
       </c>
       <c r="E21" s="3">
-        <v>111300</v>
+        <v>154600</v>
       </c>
       <c r="F21" s="3">
-        <v>28400</v>
+        <v>72700</v>
       </c>
       <c r="G21" s="3">
-        <v>256400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+        <v>105900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>27000</v>
       </c>
       <c r="I21" s="3">
+        <v>243900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>-84000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>155300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>66100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>123500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>231500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>67000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>191900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34900</v>
+        <v>35300</v>
       </c>
       <c r="E22" s="3">
-        <v>66500</v>
+        <v>67500</v>
       </c>
       <c r="F22" s="3">
-        <v>33800</v>
+        <v>33200</v>
       </c>
       <c r="G22" s="3">
-        <v>45800</v>
+        <v>63300</v>
       </c>
       <c r="H22" s="3">
-        <v>15300</v>
+        <v>32200</v>
       </c>
       <c r="I22" s="3">
         <v>43600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3">
+        <v>14500</v>
       </c>
       <c r="K22" s="3">
+        <v>43600</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>43200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>40400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>25900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>23700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>43900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>50500</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21800</v>
+        <v>-36300</v>
       </c>
       <c r="E23" s="3">
-        <v>-73100</v>
+        <v>-31100</v>
       </c>
       <c r="F23" s="3">
-        <v>-63300</v>
+        <v>-20800</v>
       </c>
       <c r="G23" s="3">
-        <v>80700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+        <v>-69500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-60200</v>
       </c>
       <c r="I23" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-284700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-79400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-167800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>-50600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-131300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>69800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-107600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>24700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8700</v>
+        <v>7300</v>
       </c>
       <c r="E24" s="3">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>-1100</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
+        <v>11400</v>
       </c>
       <c r="H24" s="3">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>50600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>117400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>33700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30500</v>
+        <v>-43600</v>
       </c>
       <c r="E26" s="3">
-        <v>-85100</v>
+        <v>-44600</v>
       </c>
       <c r="F26" s="3">
-        <v>-62200</v>
+        <v>-29100</v>
       </c>
       <c r="G26" s="3">
-        <v>78500</v>
+        <v>-81000</v>
       </c>
       <c r="H26" s="3">
-        <v>166900</v>
+        <v>-61200</v>
       </c>
       <c r="I26" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-288000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-74700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-176400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>-101200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-143100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-107600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>-9000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29500</v>
+        <v>-42600</v>
       </c>
       <c r="E27" s="3">
-        <v>-85100</v>
+        <v>-44600</v>
       </c>
       <c r="F27" s="3">
-        <v>-64400</v>
+        <v>-28000</v>
       </c>
       <c r="G27" s="3">
-        <v>78500</v>
+        <v>-81000</v>
       </c>
       <c r="H27" s="3">
-        <v>166900</v>
+        <v>-61200</v>
       </c>
       <c r="I27" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-288000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-75900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-175200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>-101200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-141900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-107600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>-9000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,67 +1994,79 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E29" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-30400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>4900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>201200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-37900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>136200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-49400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>1100</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
-        <v>-178900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1000</v>
       </c>
       <c r="I32" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>5500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>19600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>9400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>14400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>42800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>31400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29500</v>
+        <v>-40500</v>
       </c>
       <c r="E33" s="3">
-        <v>-86200</v>
+        <v>-63300</v>
       </c>
       <c r="F33" s="3">
-        <v>-66500</v>
+        <v>-28000</v>
       </c>
       <c r="G33" s="3">
-        <v>63300</v>
+        <v>-82000</v>
       </c>
       <c r="H33" s="3">
-        <v>157100</v>
+        <v>-63300</v>
       </c>
       <c r="I33" s="3">
+        <v>60200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-289100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-106200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-170300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>100000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-179800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>28500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>-58300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29500</v>
+        <v>-40500</v>
       </c>
       <c r="E35" s="3">
-        <v>-86200</v>
+        <v>-63300</v>
       </c>
       <c r="F35" s="3">
-        <v>-66500</v>
+        <v>-28000</v>
       </c>
       <c r="G35" s="3">
-        <v>63300</v>
+        <v>-82000</v>
       </c>
       <c r="H35" s="3">
-        <v>157100</v>
+        <v>-63300</v>
       </c>
       <c r="I35" s="3">
+        <v>60200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-289100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-106200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-170300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>100000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-179800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>28500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>-58300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,539 +2573,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53500</v>
+        <v>39400</v>
       </c>
       <c r="E41" s="3">
-        <v>108000</v>
+        <v>203400</v>
       </c>
       <c r="F41" s="3">
-        <v>111300</v>
+        <v>50900</v>
       </c>
       <c r="G41" s="3">
-        <v>360000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
+        <v>102800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>105900</v>
       </c>
       <c r="I41" s="3">
+        <v>342500</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>68700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>70900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>75900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>342300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>233000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>353300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>407400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>486900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28400</v>
+        <v>36300</v>
       </c>
       <c r="E42" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="F42" s="3">
-        <v>21800</v>
+        <v>27000</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+        <v>24900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>20800</v>
       </c>
       <c r="I42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>17500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>18400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>16500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>18700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>25800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>620700</v>
+        <v>523100</v>
       </c>
       <c r="E43" s="3">
-        <v>485500</v>
+        <v>483700</v>
       </c>
       <c r="F43" s="3">
-        <v>617500</v>
+        <v>590600</v>
       </c>
       <c r="G43" s="3">
-        <v>547600</v>
+        <v>461900</v>
       </c>
       <c r="H43" s="3">
-        <v>706900</v>
+        <v>587500</v>
       </c>
       <c r="I43" s="3">
+        <v>521000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>672600</v>
+      </c>
+      <c r="K43" s="3">
         <v>652400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>678500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>726100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>735000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>934100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>798600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>943200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>892000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>306500</v>
+        <v>395400</v>
       </c>
       <c r="E44" s="3">
-        <v>183300</v>
+        <v>347700</v>
       </c>
       <c r="F44" s="3">
-        <v>218200</v>
+        <v>291600</v>
       </c>
       <c r="G44" s="3">
-        <v>212700</v>
+        <v>174400</v>
       </c>
       <c r="H44" s="3">
-        <v>225800</v>
+        <v>207600</v>
       </c>
       <c r="I44" s="3">
+        <v>202400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K44" s="3">
         <v>214900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>265100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>283700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>358900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>315300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>286300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>263600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>256900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>245700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258500</v>
+        <v>348700</v>
       </c>
       <c r="E45" s="3">
-        <v>247600</v>
+        <v>254300</v>
       </c>
       <c r="F45" s="3">
-        <v>322900</v>
+        <v>246000</v>
       </c>
       <c r="G45" s="3">
-        <v>327300</v>
+        <v>235600</v>
       </c>
       <c r="H45" s="3">
-        <v>254200</v>
+        <v>307200</v>
       </c>
       <c r="I45" s="3">
+        <v>311400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K45" s="3">
         <v>252000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>214800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>256000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>342300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>246000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>291300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>311800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>482500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1267600</v>
+        <v>1343000</v>
       </c>
       <c r="E46" s="3">
-        <v>1050500</v>
+        <v>1316100</v>
       </c>
       <c r="F46" s="3">
-        <v>1291600</v>
+        <v>1206000</v>
       </c>
       <c r="G46" s="3">
-        <v>1466200</v>
+        <v>999500</v>
       </c>
       <c r="H46" s="3">
-        <v>1186900</v>
+        <v>1228900</v>
       </c>
       <c r="I46" s="3">
+        <v>1394900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1129200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1205500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1229500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1315700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1447900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>1950500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1576800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1717900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1938000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2132900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="E47" s="3">
-        <v>57800</v>
+        <v>61200</v>
       </c>
       <c r="F47" s="3">
-        <v>50200</v>
+        <v>59200</v>
       </c>
       <c r="G47" s="3">
-        <v>67600</v>
+        <v>55000</v>
       </c>
       <c r="H47" s="3">
-        <v>64400</v>
+        <v>47700</v>
       </c>
       <c r="I47" s="3">
+        <v>64300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K47" s="3">
         <v>65500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>43600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>46700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>39200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>30600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>40200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>42100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>67000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>80800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>319600</v>
+        <v>314500</v>
       </c>
       <c r="E48" s="3">
-        <v>295600</v>
+        <v>316600</v>
       </c>
       <c r="F48" s="3">
-        <v>304400</v>
+        <v>304100</v>
       </c>
       <c r="G48" s="3">
-        <v>314200</v>
+        <v>281300</v>
       </c>
       <c r="H48" s="3">
-        <v>404700</v>
+        <v>289600</v>
       </c>
       <c r="I48" s="3">
+        <v>298900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>385100</v>
+      </c>
+      <c r="K48" s="3">
         <v>453800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>519300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>555700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>608800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>274100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>263800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>269100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>314000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>325400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1387600</v>
+        <v>1319200</v>
       </c>
       <c r="E49" s="3">
-        <v>1377800</v>
+        <v>1331600</v>
       </c>
       <c r="F49" s="3">
-        <v>1410500</v>
+        <v>1320200</v>
       </c>
       <c r="G49" s="3">
-        <v>1354900</v>
+        <v>1310900</v>
       </c>
       <c r="H49" s="3">
-        <v>1444400</v>
+        <v>1342000</v>
       </c>
       <c r="I49" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1374200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1509800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1617800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1731300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1912200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>1871700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1870200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1735600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1965400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>1938800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3284,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88400</v>
+        <v>89300</v>
       </c>
       <c r="E52" s="3">
-        <v>86200</v>
+        <v>87200</v>
       </c>
       <c r="F52" s="3">
-        <v>101500</v>
+        <v>84100</v>
       </c>
       <c r="G52" s="3">
-        <v>79600</v>
+        <v>82000</v>
       </c>
       <c r="H52" s="3">
-        <v>88400</v>
+        <v>96500</v>
       </c>
       <c r="I52" s="3">
+        <v>75800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K52" s="3">
         <v>81800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>91600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>98100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>295300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>379700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>346700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>525900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>578900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3125500</v>
+        <v>3125100</v>
       </c>
       <c r="E54" s="3">
-        <v>2868000</v>
+        <v>3112700</v>
       </c>
       <c r="F54" s="3">
-        <v>3158200</v>
+        <v>2973600</v>
       </c>
       <c r="G54" s="3">
-        <v>3282500</v>
+        <v>2728600</v>
       </c>
       <c r="H54" s="3">
-        <v>3508400</v>
+        <v>3004700</v>
       </c>
       <c r="I54" s="3">
+        <v>3123000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3337900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3316400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3501800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3747400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4308300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>4422100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4130700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4111400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4810300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>5056800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3533,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>618500</v>
+        <v>692300</v>
       </c>
       <c r="E57" s="3">
-        <v>496400</v>
+        <v>696400</v>
       </c>
       <c r="F57" s="3">
-        <v>624000</v>
+        <v>588500</v>
       </c>
       <c r="G57" s="3">
-        <v>774500</v>
+        <v>472200</v>
       </c>
       <c r="H57" s="3">
-        <v>809500</v>
+        <v>593700</v>
       </c>
       <c r="I57" s="3">
+        <v>736900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>770100</v>
+      </c>
+      <c r="K57" s="3">
         <v>739600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>963100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>977500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1335200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1005500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1048900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1089200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>858300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>113500</v>
+        <v>84100</v>
       </c>
       <c r="E58" s="3">
-        <v>69800</v>
+        <v>67500</v>
       </c>
       <c r="F58" s="3">
-        <v>102500</v>
+        <v>107900</v>
       </c>
       <c r="G58" s="3">
-        <v>78500</v>
+        <v>66400</v>
       </c>
       <c r="H58" s="3">
-        <v>88400</v>
+        <v>97600</v>
       </c>
       <c r="I58" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1586200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>103600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>110900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>222900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>23500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>26000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>22200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>57100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>96500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>629500</v>
+        <v>646600</v>
       </c>
       <c r="E59" s="3">
-        <v>576000</v>
+        <v>647600</v>
       </c>
       <c r="F59" s="3">
-        <v>644700</v>
+        <v>598900</v>
       </c>
       <c r="G59" s="3">
-        <v>668700</v>
+        <v>548000</v>
       </c>
       <c r="H59" s="3">
-        <v>590200</v>
+        <v>613400</v>
       </c>
       <c r="I59" s="3">
+        <v>636200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>561500</v>
+      </c>
+      <c r="K59" s="3">
         <v>596700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>678500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>726100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>733800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>885800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>868200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>777500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>937700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>1147800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1361500</v>
+        <v>1423000</v>
       </c>
       <c r="E60" s="3">
-        <v>1142200</v>
+        <v>1411500</v>
       </c>
       <c r="F60" s="3">
-        <v>1371300</v>
+        <v>1295300</v>
       </c>
       <c r="G60" s="3">
-        <v>1504400</v>
+        <v>1086700</v>
       </c>
       <c r="H60" s="3">
-        <v>1485800</v>
+        <v>1304600</v>
       </c>
       <c r="I60" s="3">
+        <v>1431300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1413600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2922500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1682200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1934300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2244600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1899700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1848600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2084000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2102600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1229500</v>
+        <v>1232000</v>
       </c>
       <c r="E61" s="3">
-        <v>1178200</v>
+        <v>1214300</v>
       </c>
       <c r="F61" s="3">
-        <v>1180400</v>
+        <v>1169700</v>
       </c>
       <c r="G61" s="3">
-        <v>1167300</v>
+        <v>1120900</v>
       </c>
       <c r="H61" s="3">
-        <v>1216400</v>
+        <v>1123000</v>
       </c>
       <c r="I61" s="3">
+        <v>1110600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1157300</v>
+      </c>
+      <c r="K61" s="3">
         <v>220400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1312400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1404400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1489600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1181100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1283400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1192900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1095800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1320600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>381800</v>
+        <v>322800</v>
       </c>
       <c r="E62" s="3">
-        <v>387300</v>
+        <v>347700</v>
       </c>
       <c r="F62" s="3">
-        <v>420000</v>
+        <v>363300</v>
       </c>
       <c r="G62" s="3">
-        <v>430900</v>
+        <v>368500</v>
       </c>
       <c r="H62" s="3">
-        <v>475600</v>
+        <v>399600</v>
       </c>
       <c r="I62" s="3">
+        <v>410000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>452500</v>
+      </c>
+      <c r="K62" s="3">
         <v>473500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>468000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>500800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>746000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>676400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>728700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>697800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>857500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>941300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2972700</v>
+        <v>2977700</v>
       </c>
       <c r="E66" s="3">
-        <v>2707600</v>
+        <v>2973600</v>
       </c>
       <c r="F66" s="3">
-        <v>2971600</v>
+        <v>2828300</v>
       </c>
       <c r="G66" s="3">
-        <v>3102500</v>
+        <v>2576100</v>
       </c>
       <c r="H66" s="3">
-        <v>3180000</v>
+        <v>2827200</v>
       </c>
       <c r="I66" s="3">
+        <v>2951800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3025500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3616400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3462500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3705400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4169900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>4103300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3915400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3742600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4040600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>4366800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,8 +4464,14 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4132,58 +4479,64 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>-609800</v>
+        <v>-636200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>-565100</v>
+        <v>-580200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>-537600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-446200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-345400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-132900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>152700</v>
+        <v>147400</v>
       </c>
       <c r="E76" s="3">
-        <v>160400</v>
+        <v>139100</v>
       </c>
       <c r="F76" s="3">
-        <v>186500</v>
+        <v>145300</v>
       </c>
       <c r="G76" s="3">
-        <v>180000</v>
+        <v>152600</v>
       </c>
       <c r="H76" s="3">
-        <v>328400</v>
+        <v>177500</v>
       </c>
       <c r="I76" s="3">
+        <v>171300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>42000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>138400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>318800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>215300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>368800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>769700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>690000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29500</v>
+        <v>-40500</v>
       </c>
       <c r="E81" s="3">
-        <v>-86200</v>
+        <v>-63300</v>
       </c>
       <c r="F81" s="3">
-        <v>-66500</v>
+        <v>-28000</v>
       </c>
       <c r="G81" s="3">
-        <v>63300</v>
+        <v>-82000</v>
       </c>
       <c r="H81" s="3">
-        <v>157100</v>
+        <v>-63300</v>
       </c>
       <c r="I81" s="3">
+        <v>60200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-289100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-106200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-170300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>100000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-179800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>28500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>-58300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +5018,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63300</v>
+        <v>49800</v>
       </c>
       <c r="E83" s="3">
-        <v>117800</v>
+        <v>118300</v>
       </c>
       <c r="F83" s="3">
-        <v>57800</v>
+        <v>60200</v>
       </c>
       <c r="G83" s="3">
-        <v>129800</v>
+        <v>112100</v>
       </c>
       <c r="H83" s="3">
-        <v>72000</v>
+        <v>55000</v>
       </c>
       <c r="I83" s="3">
+        <v>123500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K83" s="3">
         <v>157100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>191500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>193500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>147100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>128900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>134000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>139400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>116700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9800</v>
+        <v>-137000</v>
       </c>
       <c r="E89" s="3">
-        <v>-245500</v>
+        <v>218000</v>
       </c>
       <c r="F89" s="3">
-        <v>-237800</v>
+        <v>-9300</v>
       </c>
       <c r="G89" s="3">
-        <v>148400</v>
+        <v>-233500</v>
       </c>
       <c r="H89" s="3">
-        <v>-13100</v>
+        <v>-226300</v>
       </c>
       <c r="I89" s="3">
+        <v>141200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-261800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>256800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-224200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>315300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-53200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>272500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>259100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>193000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8700</v>
+        <v>-14500</v>
       </c>
       <c r="E91" s="3">
-        <v>-21800</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12000</v>
+        <v>-8300</v>
       </c>
       <c r="G91" s="3">
-        <v>-17500</v>
+        <v>-20800</v>
       </c>
       <c r="H91" s="3">
-        <v>-8700</v>
+        <v>-11400</v>
       </c>
       <c r="I91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-31500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-52700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-44700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-35500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-36200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-39300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30500</v>
+        <v>-39400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10900</v>
+        <v>-59200</v>
       </c>
       <c r="F94" s="3">
-        <v>-26200</v>
+        <v>-29100</v>
       </c>
       <c r="G94" s="3">
-        <v>-58900</v>
+        <v>-10400</v>
       </c>
       <c r="H94" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="I94" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-91600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-92200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-112700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-107100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-76900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-45000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-84100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5369,16 +5836,22 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-28000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +6039,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17500</v>
+        <v>11400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4400</v>
+        <v>-66400</v>
       </c>
       <c r="F100" s="3">
-        <v>12000</v>
+        <v>-16600</v>
       </c>
       <c r="G100" s="3">
-        <v>206200</v>
+        <v>-4200</v>
       </c>
       <c r="H100" s="3">
-        <v>244400</v>
+        <v>11400</v>
       </c>
       <c r="I100" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>232500</v>
+      </c>
+      <c r="K100" s="3">
         <v>363300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-163400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>60000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-115300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-298700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-58300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F101" s="3">
-        <v>3300</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>-5500</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="I101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>16500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-15400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>24200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>4500</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55600</v>
+        <v>-164000</v>
       </c>
       <c r="E102" s="3">
-        <v>-252000</v>
+        <v>100700</v>
       </c>
       <c r="F102" s="3">
-        <v>-248700</v>
+        <v>-52900</v>
       </c>
       <c r="G102" s="3">
-        <v>290200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+        <v>-239800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-236600</v>
       </c>
       <c r="I102" s="3">
+        <v>276100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-278100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>109400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-143100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>150600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-69200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>55000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42460</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>784700</v>
+        <v>1596800</v>
       </c>
       <c r="E8" s="3">
-        <v>1597300</v>
+        <v>754000</v>
       </c>
       <c r="F8" s="3">
-        <v>717200</v>
+        <v>1535000</v>
       </c>
       <c r="G8" s="3">
-        <v>1410500</v>
+        <v>689200</v>
       </c>
       <c r="H8" s="3">
-        <v>737900</v>
+        <v>1348500</v>
       </c>
       <c r="I8" s="3">
-        <v>1632600</v>
+        <v>709200</v>
       </c>
       <c r="J8" s="3">
+        <v>1568900</v>
+      </c>
+      <c r="K8" s="3">
         <v>827200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1563300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>806200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2376800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2160900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>996400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2610400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2098500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2386900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2424400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1246200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2715200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1416000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2384000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>690200</v>
+        <v>1396400</v>
       </c>
       <c r="E9" s="3">
-        <v>1352400</v>
+        <v>663300</v>
       </c>
       <c r="F9" s="3">
-        <v>610300</v>
+        <v>1299600</v>
       </c>
       <c r="G9" s="3">
-        <v>1236100</v>
+        <v>586500</v>
       </c>
       <c r="H9" s="3">
-        <v>661100</v>
+        <v>1187900</v>
       </c>
       <c r="I9" s="3">
-        <v>1455100</v>
+        <v>635300</v>
       </c>
       <c r="J9" s="3">
+        <v>1398400</v>
+      </c>
+      <c r="K9" s="3">
         <v>744200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1443300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>2057000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1975900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2294000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1859500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2014700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2158700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>2209200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>1873400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>94400</v>
+        <v>200500</v>
       </c>
       <c r="E10" s="3">
-        <v>244900</v>
+        <v>90800</v>
       </c>
       <c r="F10" s="3">
-        <v>106900</v>
+        <v>235400</v>
       </c>
       <c r="G10" s="3">
-        <v>174400</v>
+        <v>102700</v>
       </c>
       <c r="H10" s="3">
-        <v>76800</v>
+        <v>160600</v>
       </c>
       <c r="I10" s="3">
-        <v>177500</v>
+        <v>73800</v>
       </c>
       <c r="J10" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K10" s="3">
         <v>83000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>319900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>316500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>238900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>372200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>506000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>510600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22800</v>
+        <v>41900</v>
       </c>
       <c r="E12" s="3">
-        <v>42600</v>
+        <v>21900</v>
       </c>
       <c r="F12" s="3">
-        <v>20800</v>
+        <v>40900</v>
       </c>
       <c r="G12" s="3">
-        <v>44600</v>
+        <v>19900</v>
       </c>
       <c r="H12" s="3">
+        <v>42900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
-        <v>46700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>23900</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>53500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>63000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>73500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>58800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>79300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>68700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>92200</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
         <v>104300</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,73 +1125,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>19900</v>
       </c>
       <c r="E14" s="3">
-        <v>27000</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>5200</v>
+        <v>25900</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="3">
-        <v>15600</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="3">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="J14" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K14" s="3">
         <v>13500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>147300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>94600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>120000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>48500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>52700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>785700</v>
+        <v>1588900</v>
       </c>
       <c r="E17" s="3">
-        <v>1562000</v>
+        <v>755000</v>
       </c>
       <c r="F17" s="3">
-        <v>705800</v>
+        <v>1501100</v>
       </c>
       <c r="G17" s="3">
-        <v>1415700</v>
+        <v>678200</v>
       </c>
       <c r="H17" s="3">
-        <v>764900</v>
+        <v>1359500</v>
       </c>
       <c r="I17" s="3">
-        <v>1682400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+        <v>735100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1616800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1798900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2415400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2268700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2625700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2206100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2279400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2445200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>2608600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
-        <v>35300</v>
-      </c>
       <c r="F18" s="3">
-        <v>11400</v>
+        <v>33900</v>
       </c>
       <c r="G18" s="3">
-        <v>-5200</v>
+        <v>11000</v>
       </c>
       <c r="H18" s="3">
-        <v>-27000</v>
+        <v>-11000</v>
       </c>
       <c r="I18" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-235600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-38500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-107800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-107600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>107400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>106600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1448,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>170200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>163600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-14400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-31400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>48800</v>
+        <v>116700</v>
       </c>
       <c r="E21" s="3">
-        <v>154600</v>
+        <v>46900</v>
       </c>
       <c r="F21" s="3">
-        <v>72700</v>
+        <v>149600</v>
       </c>
       <c r="G21" s="3">
-        <v>105900</v>
+        <v>70800</v>
       </c>
       <c r="H21" s="3">
-        <v>27000</v>
+        <v>93800</v>
       </c>
       <c r="I21" s="3">
-        <v>243900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>234400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>-84000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>155300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>123500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>231500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>67000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>191900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35300</v>
+        <v>70800</v>
       </c>
       <c r="E22" s="3">
-        <v>67500</v>
+        <v>33900</v>
       </c>
       <c r="F22" s="3">
-        <v>33200</v>
+        <v>64800</v>
       </c>
       <c r="G22" s="3">
-        <v>63300</v>
+        <v>31900</v>
       </c>
       <c r="H22" s="3">
-        <v>32200</v>
+        <v>60800</v>
       </c>
       <c r="I22" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L22" s="3">
         <v>43600</v>
       </c>
-      <c r="J22" s="3">
-        <v>14500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>43600</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>43200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>25900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>50500</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-36300</v>
+        <v>-56900</v>
       </c>
       <c r="E23" s="3">
-        <v>-31100</v>
+        <v>-34900</v>
       </c>
       <c r="F23" s="3">
-        <v>-20800</v>
+        <v>-29900</v>
       </c>
       <c r="G23" s="3">
-        <v>-69500</v>
+        <v>-19900</v>
       </c>
       <c r="H23" s="3">
-        <v>-60200</v>
+        <v>-73800</v>
       </c>
       <c r="I23" s="3">
-        <v>76800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-284700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-79400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-167800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-131300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-107600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>24700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7300</v>
+        <v>19000</v>
       </c>
       <c r="E24" s="3">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
-        <v>8300</v>
+        <v>13000</v>
       </c>
       <c r="G24" s="3">
-        <v>11400</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>50600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>117400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>33700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43600</v>
+        <v>-75800</v>
       </c>
       <c r="E26" s="3">
-        <v>-44600</v>
+        <v>-41900</v>
       </c>
       <c r="F26" s="3">
-        <v>-29100</v>
+        <v>-42900</v>
       </c>
       <c r="G26" s="3">
-        <v>-81000</v>
+        <v>-27900</v>
       </c>
       <c r="H26" s="3">
-        <v>-61200</v>
+        <v>-83800</v>
       </c>
       <c r="I26" s="3">
-        <v>74700</v>
+        <v>-58800</v>
       </c>
       <c r="J26" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K26" s="3">
         <v>158800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-288000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-74700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-176400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-101200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-143100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-47600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-107600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>-9000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42600</v>
+        <v>-76800</v>
       </c>
       <c r="E27" s="3">
-        <v>-44600</v>
+        <v>-40900</v>
       </c>
       <c r="F27" s="3">
-        <v>-28000</v>
+        <v>-42900</v>
       </c>
       <c r="G27" s="3">
-        <v>-81000</v>
+        <v>-26900</v>
       </c>
       <c r="H27" s="3">
-        <v>-61200</v>
+        <v>-83800</v>
       </c>
       <c r="I27" s="3">
-        <v>74700</v>
+        <v>-58800</v>
       </c>
       <c r="J27" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K27" s="3">
         <v>158800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-288000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-75900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-175200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-101200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-141900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-47600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-107600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>-9000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,73 +2058,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2100</v>
+        <v>62800</v>
       </c>
       <c r="E29" s="3">
-        <v>-18700</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="G29" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-2100</v>
+        <v>5000</v>
       </c>
       <c r="I29" s="3">
-        <v>-14500</v>
+        <v>-2000</v>
       </c>
       <c r="J29" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-30400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>4900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>201200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-37900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-26600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>136200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-49400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-36400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-170200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>5500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>9400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>14400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>31400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40500</v>
+        <v>-14000</v>
       </c>
       <c r="E33" s="3">
-        <v>-63300</v>
+        <v>-38900</v>
       </c>
       <c r="F33" s="3">
-        <v>-28000</v>
+        <v>-60800</v>
       </c>
       <c r="G33" s="3">
-        <v>-82000</v>
+        <v>-26900</v>
       </c>
       <c r="H33" s="3">
-        <v>-63300</v>
+        <v>-78800</v>
       </c>
       <c r="I33" s="3">
-        <v>60200</v>
+        <v>-60800</v>
       </c>
       <c r="J33" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K33" s="3">
         <v>149500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-289100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-106200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-170300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-179800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-74200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>-58300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40500</v>
+        <v>-14000</v>
       </c>
       <c r="E35" s="3">
-        <v>-63300</v>
+        <v>-38900</v>
       </c>
       <c r="F35" s="3">
-        <v>-28000</v>
+        <v>-60800</v>
       </c>
       <c r="G35" s="3">
-        <v>-82000</v>
+        <v>-26900</v>
       </c>
       <c r="H35" s="3">
-        <v>-63300</v>
+        <v>-78800</v>
       </c>
       <c r="I35" s="3">
-        <v>60200</v>
+        <v>-60800</v>
       </c>
       <c r="J35" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K35" s="3">
         <v>149500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-289100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-106200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-170300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-179800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-74200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>-58300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42460</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2661,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39400</v>
+        <v>167600</v>
       </c>
       <c r="E41" s="3">
-        <v>203400</v>
+        <v>37900</v>
       </c>
       <c r="F41" s="3">
-        <v>50900</v>
+        <v>195500</v>
       </c>
       <c r="G41" s="3">
-        <v>102800</v>
+        <v>48900</v>
       </c>
       <c r="H41" s="3">
-        <v>105900</v>
+        <v>98700</v>
       </c>
       <c r="I41" s="3">
-        <v>342500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+        <v>101700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>68700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>342300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>233000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>353300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>407400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>486900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>903800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36300</v>
+        <v>33900</v>
       </c>
       <c r="E42" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="N42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S42" s="3">
+        <v>11100</v>
+      </c>
+      <c r="T42" s="3">
+        <v>18700</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>27000</v>
       </c>
-      <c r="F42" s="3">
-        <v>27000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>20800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>17500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>14200</v>
-      </c>
-      <c r="M42" s="3">
-        <v>15200</v>
-      </c>
-      <c r="N42" s="3">
-        <v>18400</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
-        <v>16500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>10600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>11100</v>
-      </c>
-      <c r="S42" s="3">
-        <v>18700</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
-        <v>25800</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>523100</v>
+        <v>509700</v>
       </c>
       <c r="E43" s="3">
-        <v>483700</v>
+        <v>502700</v>
       </c>
       <c r="F43" s="3">
-        <v>590600</v>
+        <v>464800</v>
       </c>
       <c r="G43" s="3">
-        <v>461900</v>
+        <v>567500</v>
       </c>
       <c r="H43" s="3">
-        <v>587500</v>
+        <v>443800</v>
       </c>
       <c r="I43" s="3">
-        <v>521000</v>
+        <v>564500</v>
       </c>
       <c r="J43" s="3">
+        <v>500700</v>
+      </c>
+      <c r="K43" s="3">
         <v>672600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>652400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>678500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>726100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>735000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>934100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>798600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>943200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>892000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>905000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>395400</v>
+        <v>437900</v>
       </c>
       <c r="E44" s="3">
-        <v>347700</v>
+        <v>380000</v>
       </c>
       <c r="F44" s="3">
-        <v>291600</v>
+        <v>334100</v>
       </c>
       <c r="G44" s="3">
-        <v>174400</v>
+        <v>280300</v>
       </c>
       <c r="H44" s="3">
-        <v>207600</v>
+        <v>167600</v>
       </c>
       <c r="I44" s="3">
-        <v>202400</v>
+        <v>199500</v>
       </c>
       <c r="J44" s="3">
+        <v>194500</v>
+      </c>
+      <c r="K44" s="3">
         <v>214800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>214900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>265100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>283700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>358900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>315300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>286300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>263600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>256900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>245700</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>348600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>348700</v>
+        <v>315200</v>
       </c>
       <c r="E45" s="3">
-        <v>254300</v>
+        <v>335100</v>
       </c>
       <c r="F45" s="3">
+        <v>244400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>236400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>226400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>295200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>241800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>252000</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>214800</v>
+      </c>
+      <c r="O45" s="3">
+        <v>256000</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>342300</v>
+      </c>
+      <c r="R45" s="3">
         <v>246000</v>
       </c>
-      <c r="G45" s="3">
-        <v>235600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>307200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>311400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>241800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>252000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>214800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>256000</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>342300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>246000</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>291300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>311800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>482500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1343000</v>
+        <v>1464200</v>
       </c>
       <c r="E46" s="3">
-        <v>1316100</v>
+        <v>1290600</v>
       </c>
       <c r="F46" s="3">
-        <v>1206000</v>
+        <v>1264700</v>
       </c>
       <c r="G46" s="3">
-        <v>999500</v>
+        <v>1159000</v>
       </c>
       <c r="H46" s="3">
-        <v>1228900</v>
+        <v>960500</v>
       </c>
       <c r="I46" s="3">
-        <v>1394900</v>
+        <v>1180900</v>
       </c>
       <c r="J46" s="3">
+        <v>1340500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1129200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1205500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1229500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1315700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1447900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1950500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1576800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1717900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1938000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2132900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>2110500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59200</v>
+        <v>66800</v>
       </c>
       <c r="E47" s="3">
+        <v>56900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>56900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>52900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K47" s="3">
         <v>61200</v>
       </c>
-      <c r="F47" s="3">
-        <v>59200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>47700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>64300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>61200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>30600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>67000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>80800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>92700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>314500</v>
+        <v>330100</v>
       </c>
       <c r="E48" s="3">
-        <v>316600</v>
+        <v>302200</v>
       </c>
       <c r="F48" s="3">
-        <v>304100</v>
+        <v>304200</v>
       </c>
       <c r="G48" s="3">
-        <v>281300</v>
+        <v>292200</v>
       </c>
       <c r="H48" s="3">
-        <v>289600</v>
+        <v>270300</v>
       </c>
       <c r="I48" s="3">
-        <v>298900</v>
+        <v>278300</v>
       </c>
       <c r="J48" s="3">
+        <v>287300</v>
+      </c>
+      <c r="K48" s="3">
         <v>385100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>453800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>519300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>555700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>608800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>274100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>263800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>269100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>325400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>356800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1319200</v>
+        <v>1322600</v>
       </c>
       <c r="E49" s="3">
-        <v>1331600</v>
+        <v>1267700</v>
       </c>
       <c r="F49" s="3">
-        <v>1320200</v>
+        <v>1279700</v>
       </c>
       <c r="G49" s="3">
-        <v>1310900</v>
+        <v>1268700</v>
       </c>
       <c r="H49" s="3">
-        <v>1342000</v>
+        <v>1259700</v>
       </c>
       <c r="I49" s="3">
-        <v>1289100</v>
+        <v>1289600</v>
       </c>
       <c r="J49" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1374200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1509800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1617800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1731300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1912200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1871700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1870200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1735600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1965400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>1938800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3015500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89300</v>
+        <v>74800</v>
       </c>
       <c r="E52" s="3">
-        <v>87200</v>
+        <v>85800</v>
       </c>
       <c r="F52" s="3">
+        <v>83800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>80800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>78800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>92800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K52" s="3">
         <v>84100</v>
       </c>
-      <c r="G52" s="3">
-        <v>82000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>96500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>75800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>84100</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>295300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>379700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>346700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>525900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>578900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>780600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3125100</v>
+        <v>3258500</v>
       </c>
       <c r="E54" s="3">
-        <v>3112700</v>
+        <v>3003200</v>
       </c>
       <c r="F54" s="3">
-        <v>2973600</v>
+        <v>2991200</v>
       </c>
       <c r="G54" s="3">
-        <v>2728600</v>
+        <v>2857600</v>
       </c>
       <c r="H54" s="3">
-        <v>3004700</v>
+        <v>2622200</v>
       </c>
       <c r="I54" s="3">
-        <v>3123000</v>
+        <v>2887500</v>
       </c>
       <c r="J54" s="3">
+        <v>3001200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3337900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3316400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3501800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3747400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4308300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4422100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4130700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4111400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4810300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>5056800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>5323200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>692300</v>
+        <v>798900</v>
       </c>
       <c r="E57" s="3">
-        <v>696400</v>
+        <v>665300</v>
       </c>
       <c r="F57" s="3">
-        <v>588500</v>
+        <v>669300</v>
       </c>
       <c r="G57" s="3">
-        <v>472200</v>
+        <v>565500</v>
       </c>
       <c r="H57" s="3">
-        <v>593700</v>
+        <v>453800</v>
       </c>
       <c r="I57" s="3">
-        <v>736900</v>
+        <v>570500</v>
       </c>
       <c r="J57" s="3">
+        <v>708200</v>
+      </c>
+      <c r="K57" s="3">
         <v>770100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>739600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>963100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>977500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1335200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1005500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1048900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1089200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>858300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>874500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>64800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>103700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>63800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>93800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K58" s="3">
         <v>84100</v>
       </c>
-      <c r="E58" s="3">
-        <v>67500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>107900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>66400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>97600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>74700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>84100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1586200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>110900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>222900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>23500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>57100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>96500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>100900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>646600</v>
+        <v>627400</v>
       </c>
       <c r="E59" s="3">
-        <v>647600</v>
+        <v>621400</v>
       </c>
       <c r="F59" s="3">
-        <v>598900</v>
+        <v>622400</v>
       </c>
       <c r="G59" s="3">
-        <v>548000</v>
+        <v>575500</v>
       </c>
       <c r="H59" s="3">
-        <v>613400</v>
+        <v>526600</v>
       </c>
       <c r="I59" s="3">
-        <v>636200</v>
+        <v>589500</v>
       </c>
       <c r="J59" s="3">
+        <v>611400</v>
+      </c>
+      <c r="K59" s="3">
         <v>561500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>596700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>678500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>726100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>733800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>885800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>868200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>777500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>937700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>1147800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>1237200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1423000</v>
+        <v>1500100</v>
       </c>
       <c r="E60" s="3">
-        <v>1411500</v>
+        <v>1367400</v>
       </c>
       <c r="F60" s="3">
-        <v>1295300</v>
+        <v>1356500</v>
       </c>
       <c r="G60" s="3">
-        <v>1086700</v>
+        <v>1244800</v>
       </c>
       <c r="H60" s="3">
-        <v>1304600</v>
+        <v>1044300</v>
       </c>
       <c r="I60" s="3">
-        <v>1431300</v>
+        <v>1253700</v>
       </c>
       <c r="J60" s="3">
+        <v>1375400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1413600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2922500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1682200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1934300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2244600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1899700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1848600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2084000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>2102600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1232000</v>
+        <v>1231800</v>
       </c>
       <c r="E61" s="3">
-        <v>1214300</v>
+        <v>1183900</v>
       </c>
       <c r="F61" s="3">
-        <v>1169700</v>
+        <v>1167000</v>
       </c>
       <c r="G61" s="3">
-        <v>1120900</v>
+        <v>1124100</v>
       </c>
       <c r="H61" s="3">
-        <v>1123000</v>
+        <v>1077200</v>
       </c>
       <c r="I61" s="3">
-        <v>1110600</v>
+        <v>1079200</v>
       </c>
       <c r="J61" s="3">
+        <v>1067200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1157300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>220400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1312400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1404400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1489600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1181100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1283400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1192900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1095800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1320600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1416800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>322800</v>
+        <v>264300</v>
       </c>
       <c r="E62" s="3">
-        <v>347700</v>
+        <v>310200</v>
       </c>
       <c r="F62" s="3">
-        <v>363300</v>
+        <v>334100</v>
       </c>
       <c r="G62" s="3">
-        <v>368500</v>
+        <v>349100</v>
       </c>
       <c r="H62" s="3">
-        <v>399600</v>
+        <v>354100</v>
       </c>
       <c r="I62" s="3">
-        <v>410000</v>
+        <v>384000</v>
       </c>
       <c r="J62" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K62" s="3">
         <v>452500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>473500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>468000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>746000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>676400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>728700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>697800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>857500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>941300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>935500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2977700</v>
+        <v>2996200</v>
       </c>
       <c r="E66" s="3">
-        <v>2973600</v>
+        <v>2861500</v>
       </c>
       <c r="F66" s="3">
-        <v>2828300</v>
+        <v>2857600</v>
       </c>
       <c r="G66" s="3">
-        <v>2576100</v>
+        <v>2717900</v>
       </c>
       <c r="H66" s="3">
-        <v>2827200</v>
+        <v>2475500</v>
       </c>
       <c r="I66" s="3">
-        <v>2951800</v>
+        <v>2716900</v>
       </c>
       <c r="J66" s="3">
+        <v>2836600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3025500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3616400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3462500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3705400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4169900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4103300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3915400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3742600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4040600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>4366800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>4462800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-636200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-580200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-537600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-561500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-611400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-557500</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-516700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-446200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-345400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-132900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1657200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1383400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1139700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1240900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-1142100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>147400</v>
+        <v>262300</v>
       </c>
       <c r="E76" s="3">
-        <v>139100</v>
+        <v>141600</v>
       </c>
       <c r="F76" s="3">
-        <v>145300</v>
+        <v>133700</v>
       </c>
       <c r="G76" s="3">
-        <v>152600</v>
+        <v>139600</v>
       </c>
       <c r="H76" s="3">
-        <v>177500</v>
+        <v>146600</v>
       </c>
       <c r="I76" s="3">
-        <v>171300</v>
+        <v>170600</v>
       </c>
       <c r="J76" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K76" s="3">
         <v>312400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>138400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>318800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>215300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>368800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>769700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>690000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42460</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40500</v>
+        <v>-14000</v>
       </c>
       <c r="E81" s="3">
-        <v>-63300</v>
+        <v>-38900</v>
       </c>
       <c r="F81" s="3">
-        <v>-28000</v>
+        <v>-60800</v>
       </c>
       <c r="G81" s="3">
-        <v>-82000</v>
+        <v>-26900</v>
       </c>
       <c r="H81" s="3">
-        <v>-63300</v>
+        <v>-78800</v>
       </c>
       <c r="I81" s="3">
-        <v>60200</v>
+        <v>-60800</v>
       </c>
       <c r="J81" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K81" s="3">
         <v>149500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-289100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-106200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-170300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-179800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-74200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>-58300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49800</v>
+        <v>102700</v>
       </c>
       <c r="E83" s="3">
-        <v>118300</v>
+        <v>47900</v>
       </c>
       <c r="F83" s="3">
-        <v>60200</v>
+        <v>113700</v>
       </c>
       <c r="G83" s="3">
-        <v>112100</v>
+        <v>57800</v>
       </c>
       <c r="H83" s="3">
-        <v>55000</v>
+        <v>107700</v>
       </c>
       <c r="I83" s="3">
-        <v>123500</v>
+        <v>52900</v>
       </c>
       <c r="J83" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K83" s="3">
         <v>68500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>191500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>147100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>128900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>134000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>116700</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-137000</v>
+        <v>57800</v>
       </c>
       <c r="E89" s="3">
-        <v>218000</v>
+        <v>-131700</v>
       </c>
       <c r="F89" s="3">
-        <v>-9300</v>
+        <v>209500</v>
       </c>
       <c r="G89" s="3">
-        <v>-233500</v>
+        <v>-9000</v>
       </c>
       <c r="H89" s="3">
-        <v>-226300</v>
+        <v>-224400</v>
       </c>
       <c r="I89" s="3">
-        <v>141200</v>
+        <v>-217400</v>
       </c>
       <c r="J89" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-12500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-261800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>256800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-224200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>315300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-53200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>272500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>259100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>193000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>237100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14500</v>
+        <v>-22900</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-14000</v>
       </c>
       <c r="F91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-31500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-39300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39400</v>
+        <v>-60800</v>
       </c>
       <c r="E94" s="3">
-        <v>-59200</v>
+        <v>-37900</v>
       </c>
       <c r="F94" s="3">
-        <v>-29100</v>
+        <v>-58800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10400</v>
+        <v>-29900</v>
       </c>
       <c r="H94" s="3">
-        <v>-24900</v>
+        <v>-8000</v>
       </c>
       <c r="I94" s="3">
-        <v>-56000</v>
+        <v>-23900</v>
       </c>
       <c r="J94" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-92200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-112700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-107100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-84100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-851000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5842,16 +6076,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-28000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11400</v>
+        <v>-27900</v>
       </c>
       <c r="E100" s="3">
-        <v>-66400</v>
+        <v>11000</v>
       </c>
       <c r="F100" s="3">
-        <v>-16600</v>
+        <v>-63800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4200</v>
+        <v>-16000</v>
       </c>
       <c r="H100" s="3">
-        <v>11400</v>
+        <v>-4000</v>
       </c>
       <c r="I100" s="3">
-        <v>196200</v>
+        <v>11000</v>
       </c>
       <c r="J100" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K100" s="3">
         <v>232500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>363300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-163400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-115300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-298700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-58300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>636200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>8300</v>
-      </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>3100</v>
+        <v>8000</v>
       </c>
       <c r="I101" s="3">
-        <v>-5200</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>16500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>4500</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-164000</v>
+        <v>-27900</v>
       </c>
       <c r="E102" s="3">
-        <v>100700</v>
+        <v>-157600</v>
       </c>
       <c r="F102" s="3">
-        <v>-52900</v>
+        <v>95800</v>
       </c>
       <c r="G102" s="3">
-        <v>-239800</v>
+        <v>-51900</v>
       </c>
       <c r="H102" s="3">
-        <v>-236600</v>
+        <v>-229400</v>
       </c>
       <c r="I102" s="3">
-        <v>276100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-278100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>109400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-143100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>150600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>55000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -768,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1596800</v>
+        <v>1634300</v>
       </c>
       <c r="E8" s="3">
-        <v>754000</v>
+        <v>771700</v>
       </c>
       <c r="F8" s="3">
-        <v>1535000</v>
+        <v>1571000</v>
       </c>
       <c r="G8" s="3">
-        <v>689200</v>
+        <v>705400</v>
       </c>
       <c r="H8" s="3">
-        <v>1348500</v>
+        <v>1380100</v>
       </c>
       <c r="I8" s="3">
-        <v>709200</v>
+        <v>725800</v>
       </c>
       <c r="J8" s="3">
-        <v>1568900</v>
+        <v>1605700</v>
       </c>
       <c r="K8" s="3">
         <v>827200</v>
@@ -836,25 +836,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="E9" s="3">
-        <v>663300</v>
+        <v>678800</v>
       </c>
       <c r="F9" s="3">
-        <v>1299600</v>
+        <v>1330100</v>
       </c>
       <c r="G9" s="3">
-        <v>586500</v>
+        <v>600200</v>
       </c>
       <c r="H9" s="3">
-        <v>1187900</v>
+        <v>1215800</v>
       </c>
       <c r="I9" s="3">
-        <v>635300</v>
+        <v>650200</v>
       </c>
       <c r="J9" s="3">
-        <v>1398400</v>
+        <v>1431200</v>
       </c>
       <c r="K9" s="3">
         <v>744200</v>
@@ -904,25 +904,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200500</v>
+        <v>205200</v>
       </c>
       <c r="E10" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="F10" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="G10" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="H10" s="3">
-        <v>160600</v>
+        <v>164300</v>
       </c>
       <c r="I10" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="J10" s="3">
-        <v>170600</v>
+        <v>174600</v>
       </c>
       <c r="K10" s="3">
         <v>83000</v>
@@ -998,25 +998,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F12" s="3">
         <v>41900</v>
       </c>
-      <c r="E12" s="3">
-        <v>21900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>40900</v>
-      </c>
       <c r="G12" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="H12" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="I12" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="J12" s="3">
-        <v>44900</v>
+        <v>45900</v>
       </c>
       <c r="K12" s="3">
         <v>23900</v>
@@ -1134,25 +1134,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="J14" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="K14" s="3">
         <v>13500</v>
@@ -1293,25 +1293,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1588900</v>
+        <v>1626100</v>
       </c>
       <c r="E17" s="3">
-        <v>755000</v>
+        <v>772700</v>
       </c>
       <c r="F17" s="3">
-        <v>1501100</v>
+        <v>1536300</v>
       </c>
       <c r="G17" s="3">
-        <v>678200</v>
+        <v>694100</v>
       </c>
       <c r="H17" s="3">
-        <v>1359500</v>
+        <v>1391400</v>
       </c>
       <c r="I17" s="3">
-        <v>735100</v>
+        <v>752300</v>
       </c>
       <c r="J17" s="3">
-        <v>1616800</v>
+        <v>1654700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1361,25 +1361,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E18" s="3">
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="G18" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H18" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="I18" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="J18" s="3">
-        <v>-47900</v>
+        <v>-49000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>-1000</v>
       </c>
       <c r="J20" s="3">
-        <v>163600</v>
+        <v>167400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1523,25 +1523,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>116700</v>
+        <v>119400</v>
       </c>
       <c r="E21" s="3">
-        <v>46900</v>
+        <v>48000</v>
       </c>
       <c r="F21" s="3">
-        <v>149600</v>
+        <v>153100</v>
       </c>
       <c r="G21" s="3">
-        <v>70800</v>
+        <v>72500</v>
       </c>
       <c r="H21" s="3">
-        <v>93800</v>
+        <v>96000</v>
       </c>
       <c r="I21" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="J21" s="3">
-        <v>234400</v>
+        <v>239900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70800</v>
+        <v>72500</v>
       </c>
       <c r="E22" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="F22" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="G22" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="H22" s="3">
-        <v>60800</v>
+        <v>62300</v>
       </c>
       <c r="I22" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="J22" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="K22" s="3">
         <v>14500</v>
@@ -1659,25 +1659,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56900</v>
+        <v>-58200</v>
       </c>
       <c r="E23" s="3">
-        <v>-34900</v>
+        <v>-35700</v>
       </c>
       <c r="F23" s="3">
-        <v>-29900</v>
+        <v>-30600</v>
       </c>
       <c r="G23" s="3">
-        <v>-19900</v>
+        <v>-20400</v>
       </c>
       <c r="H23" s="3">
-        <v>-73800</v>
+        <v>-75500</v>
       </c>
       <c r="I23" s="3">
-        <v>-57800</v>
+        <v>-59200</v>
       </c>
       <c r="J23" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1727,19 +1727,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="H24" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="I24" s="3">
         <v>1000</v>
@@ -1863,25 +1863,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-75800</v>
+        <v>-77600</v>
       </c>
       <c r="E26" s="3">
-        <v>-41900</v>
+        <v>-42900</v>
       </c>
       <c r="F26" s="3">
-        <v>-42900</v>
+        <v>-43900</v>
       </c>
       <c r="G26" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="H26" s="3">
-        <v>-83800</v>
+        <v>-85700</v>
       </c>
       <c r="I26" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="J26" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="K26" s="3">
         <v>158800</v>
@@ -1931,25 +1931,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-76800</v>
+        <v>-78600</v>
       </c>
       <c r="E27" s="3">
-        <v>-40900</v>
+        <v>-41900</v>
       </c>
       <c r="F27" s="3">
-        <v>-42900</v>
+        <v>-43900</v>
       </c>
       <c r="G27" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H27" s="3">
-        <v>-83800</v>
+        <v>-85700</v>
       </c>
       <c r="I27" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="J27" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="K27" s="3">
         <v>158800</v>
@@ -2067,25 +2067,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="E29" s="3">
         <v>2000</v>
       </c>
       <c r="F29" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I29" s="3">
         <v>-2000</v>
       </c>
       <c r="J29" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="K29" s="3">
         <v>-9300</v>
@@ -2271,7 +2271,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-163600</v>
+        <v>-167400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2339,25 +2339,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="E33" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="F33" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="G33" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H33" s="3">
-        <v>-78800</v>
+        <v>-80600</v>
       </c>
       <c r="I33" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="J33" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="K33" s="3">
         <v>149500</v>
@@ -2475,25 +2475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="E35" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="F35" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="G35" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H35" s="3">
-        <v>-78800</v>
+        <v>-80600</v>
       </c>
       <c r="I35" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="J35" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="K35" s="3">
         <v>149500</v>
@@ -2668,25 +2668,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167600</v>
+        <v>171500</v>
       </c>
       <c r="E41" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="F41" s="3">
-        <v>195500</v>
+        <v>200100</v>
       </c>
       <c r="G41" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="H41" s="3">
-        <v>98700</v>
+        <v>101100</v>
       </c>
       <c r="I41" s="3">
-        <v>101700</v>
+        <v>104100</v>
       </c>
       <c r="J41" s="3">
-        <v>329100</v>
+        <v>336900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -2736,25 +2736,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="E42" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="F42" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="G42" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="H42" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="I42" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="J42" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2804,25 +2804,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>509700</v>
+        <v>521600</v>
       </c>
       <c r="E43" s="3">
-        <v>502700</v>
+        <v>514500</v>
       </c>
       <c r="F43" s="3">
-        <v>464800</v>
+        <v>475700</v>
       </c>
       <c r="G43" s="3">
-        <v>567500</v>
+        <v>580800</v>
       </c>
       <c r="H43" s="3">
-        <v>443800</v>
+        <v>454300</v>
       </c>
       <c r="I43" s="3">
-        <v>564500</v>
+        <v>577800</v>
       </c>
       <c r="J43" s="3">
-        <v>500700</v>
+        <v>512400</v>
       </c>
       <c r="K43" s="3">
         <v>672600</v>
@@ -2872,25 +2872,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437900</v>
+        <v>448100</v>
       </c>
       <c r="E44" s="3">
-        <v>380000</v>
+        <v>388900</v>
       </c>
       <c r="F44" s="3">
-        <v>334100</v>
+        <v>342000</v>
       </c>
       <c r="G44" s="3">
-        <v>280300</v>
+        <v>286800</v>
       </c>
       <c r="H44" s="3">
-        <v>167600</v>
+        <v>171500</v>
       </c>
       <c r="I44" s="3">
-        <v>199500</v>
+        <v>204200</v>
       </c>
       <c r="J44" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="K44" s="3">
         <v>214800</v>
@@ -2940,25 +2940,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>315200</v>
+        <v>322600</v>
       </c>
       <c r="E45" s="3">
-        <v>335100</v>
+        <v>343000</v>
       </c>
       <c r="F45" s="3">
-        <v>244400</v>
+        <v>250100</v>
       </c>
       <c r="G45" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="H45" s="3">
-        <v>226400</v>
+        <v>231700</v>
       </c>
       <c r="I45" s="3">
-        <v>295200</v>
+        <v>302200</v>
       </c>
       <c r="J45" s="3">
-        <v>299200</v>
+        <v>306200</v>
       </c>
       <c r="K45" s="3">
         <v>241800</v>
@@ -3008,25 +3008,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1464200</v>
+        <v>1498500</v>
       </c>
       <c r="E46" s="3">
-        <v>1290600</v>
+        <v>1320900</v>
       </c>
       <c r="F46" s="3">
-        <v>1264700</v>
+        <v>1294400</v>
       </c>
       <c r="G46" s="3">
-        <v>1159000</v>
+        <v>1186200</v>
       </c>
       <c r="H46" s="3">
-        <v>960500</v>
+        <v>983000</v>
       </c>
       <c r="I46" s="3">
-        <v>1180900</v>
+        <v>1208600</v>
       </c>
       <c r="J46" s="3">
-        <v>1340500</v>
+        <v>1372000</v>
       </c>
       <c r="K46" s="3">
         <v>1129200</v>
@@ -3076,25 +3076,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="E47" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="F47" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G47" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="H47" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="I47" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J47" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="K47" s="3">
         <v>61200</v>
@@ -3144,25 +3144,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>330100</v>
+        <v>337900</v>
       </c>
       <c r="E48" s="3">
-        <v>302200</v>
+        <v>309300</v>
       </c>
       <c r="F48" s="3">
-        <v>304200</v>
+        <v>311300</v>
       </c>
       <c r="G48" s="3">
-        <v>292200</v>
+        <v>299100</v>
       </c>
       <c r="H48" s="3">
-        <v>270300</v>
+        <v>276600</v>
       </c>
       <c r="I48" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J48" s="3">
-        <v>287300</v>
+        <v>294000</v>
       </c>
       <c r="K48" s="3">
         <v>385100</v>
@@ -3212,25 +3212,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1322600</v>
+        <v>1353600</v>
       </c>
       <c r="E49" s="3">
-        <v>1267700</v>
+        <v>1297400</v>
       </c>
       <c r="F49" s="3">
-        <v>1279700</v>
+        <v>1309700</v>
       </c>
       <c r="G49" s="3">
-        <v>1268700</v>
+        <v>1298500</v>
       </c>
       <c r="H49" s="3">
-        <v>1259700</v>
+        <v>1289300</v>
       </c>
       <c r="I49" s="3">
-        <v>1289600</v>
+        <v>1319900</v>
       </c>
       <c r="J49" s="3">
-        <v>1238800</v>
+        <v>1267800</v>
       </c>
       <c r="K49" s="3">
         <v>1374200</v>
@@ -3416,25 +3416,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="E52" s="3">
-        <v>85800</v>
+        <v>87800</v>
       </c>
       <c r="F52" s="3">
-        <v>83800</v>
+        <v>85700</v>
       </c>
       <c r="G52" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="H52" s="3">
-        <v>78800</v>
+        <v>80600</v>
       </c>
       <c r="I52" s="3">
-        <v>92800</v>
+        <v>94900</v>
       </c>
       <c r="J52" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="K52" s="3">
         <v>84100</v>
@@ -3552,25 +3552,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3258500</v>
+        <v>3335000</v>
       </c>
       <c r="E54" s="3">
-        <v>3003200</v>
+        <v>3073600</v>
       </c>
       <c r="F54" s="3">
-        <v>2991200</v>
+        <v>3061400</v>
       </c>
       <c r="G54" s="3">
-        <v>2857600</v>
+        <v>2924600</v>
       </c>
       <c r="H54" s="3">
-        <v>2622200</v>
+        <v>2683700</v>
       </c>
       <c r="I54" s="3">
-        <v>2887500</v>
+        <v>2955200</v>
       </c>
       <c r="J54" s="3">
-        <v>3001200</v>
+        <v>3071600</v>
       </c>
       <c r="K54" s="3">
         <v>3337900</v>
@@ -3672,25 +3672,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>798900</v>
+        <v>817700</v>
       </c>
       <c r="E57" s="3">
-        <v>665300</v>
+        <v>680900</v>
       </c>
       <c r="F57" s="3">
-        <v>669300</v>
+        <v>685000</v>
       </c>
       <c r="G57" s="3">
-        <v>565500</v>
+        <v>578800</v>
       </c>
       <c r="H57" s="3">
-        <v>453800</v>
+        <v>464500</v>
       </c>
       <c r="I57" s="3">
-        <v>570500</v>
+        <v>583900</v>
       </c>
       <c r="J57" s="3">
-        <v>708200</v>
+        <v>724800</v>
       </c>
       <c r="K57" s="3">
         <v>770100</v>
@@ -3740,25 +3740,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="E58" s="3">
-        <v>80800</v>
+        <v>82700</v>
       </c>
       <c r="F58" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="G58" s="3">
-        <v>103700</v>
+        <v>106200</v>
       </c>
       <c r="H58" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="I58" s="3">
-        <v>93800</v>
+        <v>96000</v>
       </c>
       <c r="J58" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="K58" s="3">
         <v>84100</v>
@@ -3808,25 +3808,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>627400</v>
+        <v>642100</v>
       </c>
       <c r="E59" s="3">
-        <v>621400</v>
+        <v>636000</v>
       </c>
       <c r="F59" s="3">
-        <v>622400</v>
+        <v>637000</v>
       </c>
       <c r="G59" s="3">
-        <v>575500</v>
+        <v>589000</v>
       </c>
       <c r="H59" s="3">
-        <v>526600</v>
+        <v>539000</v>
       </c>
       <c r="I59" s="3">
-        <v>589500</v>
+        <v>603300</v>
       </c>
       <c r="J59" s="3">
-        <v>611400</v>
+        <v>625800</v>
       </c>
       <c r="K59" s="3">
         <v>561500</v>
@@ -3876,25 +3876,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500100</v>
+        <v>1535300</v>
       </c>
       <c r="E60" s="3">
-        <v>1367400</v>
+        <v>1399500</v>
       </c>
       <c r="F60" s="3">
-        <v>1356500</v>
+        <v>1388300</v>
       </c>
       <c r="G60" s="3">
-        <v>1244800</v>
+        <v>1274000</v>
       </c>
       <c r="H60" s="3">
-        <v>1044300</v>
+        <v>1068800</v>
       </c>
       <c r="I60" s="3">
-        <v>1253700</v>
+        <v>1283100</v>
       </c>
       <c r="J60" s="3">
-        <v>1375400</v>
+        <v>1407700</v>
       </c>
       <c r="K60" s="3">
         <v>1413600</v>
@@ -3944,25 +3944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1231800</v>
+        <v>1260700</v>
       </c>
       <c r="E61" s="3">
-        <v>1183900</v>
+        <v>1211700</v>
       </c>
       <c r="F61" s="3">
-        <v>1167000</v>
+        <v>1194300</v>
       </c>
       <c r="G61" s="3">
-        <v>1124100</v>
+        <v>1150400</v>
       </c>
       <c r="H61" s="3">
-        <v>1077200</v>
+        <v>1102500</v>
       </c>
       <c r="I61" s="3">
-        <v>1079200</v>
+        <v>1104500</v>
       </c>
       <c r="J61" s="3">
-        <v>1067200</v>
+        <v>1092300</v>
       </c>
       <c r="K61" s="3">
         <v>1157300</v>
@@ -4012,25 +4012,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>264300</v>
+        <v>270500</v>
       </c>
       <c r="E62" s="3">
-        <v>310200</v>
+        <v>317500</v>
       </c>
       <c r="F62" s="3">
-        <v>334100</v>
+        <v>342000</v>
       </c>
       <c r="G62" s="3">
-        <v>349100</v>
+        <v>357300</v>
       </c>
       <c r="H62" s="3">
-        <v>354100</v>
+        <v>362400</v>
       </c>
       <c r="I62" s="3">
-        <v>384000</v>
+        <v>393000</v>
       </c>
       <c r="J62" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="K62" s="3">
         <v>452500</v>
@@ -4284,25 +4284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2996200</v>
+        <v>3066500</v>
       </c>
       <c r="E66" s="3">
-        <v>2861500</v>
+        <v>2928700</v>
       </c>
       <c r="F66" s="3">
-        <v>2857600</v>
+        <v>2924600</v>
       </c>
       <c r="G66" s="3">
-        <v>2717900</v>
+        <v>2781700</v>
       </c>
       <c r="H66" s="3">
-        <v>2475500</v>
+        <v>2533600</v>
       </c>
       <c r="I66" s="3">
-        <v>2716900</v>
+        <v>2780700</v>
       </c>
       <c r="J66" s="3">
-        <v>2836600</v>
+        <v>2903200</v>
       </c>
       <c r="K66" s="3">
         <v>3025500</v>
@@ -4650,25 +4650,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-561500</v>
+        <v>-574700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-611400</v>
+        <v>-625800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-557500</v>
+        <v>-570600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>-516700</v>
+        <v>-528800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -4922,25 +4922,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>262300</v>
+        <v>268500</v>
       </c>
       <c r="E76" s="3">
-        <v>141600</v>
+        <v>145000</v>
       </c>
       <c r="F76" s="3">
-        <v>133700</v>
+        <v>136800</v>
       </c>
       <c r="G76" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="H76" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="I76" s="3">
-        <v>170600</v>
+        <v>174600</v>
       </c>
       <c r="J76" s="3">
-        <v>164600</v>
+        <v>168400</v>
       </c>
       <c r="K76" s="3">
         <v>312400</v>
@@ -5131,25 +5131,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="E81" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="F81" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="G81" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H81" s="3">
-        <v>-78800</v>
+        <v>-80600</v>
       </c>
       <c r="I81" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="J81" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="K81" s="3">
         <v>149500</v>
@@ -5225,25 +5225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="E83" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="F83" s="3">
-        <v>113700</v>
+        <v>116400</v>
       </c>
       <c r="G83" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="H83" s="3">
-        <v>107700</v>
+        <v>110200</v>
       </c>
       <c r="I83" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="J83" s="3">
-        <v>118700</v>
+        <v>121500</v>
       </c>
       <c r="K83" s="3">
         <v>68500</v>
@@ -5633,25 +5633,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="E89" s="3">
-        <v>-131700</v>
+        <v>-134700</v>
       </c>
       <c r="F89" s="3">
-        <v>209500</v>
+        <v>214400</v>
       </c>
       <c r="G89" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="H89" s="3">
-        <v>-224400</v>
+        <v>-229700</v>
       </c>
       <c r="I89" s="3">
-        <v>-217400</v>
+        <v>-222500</v>
       </c>
       <c r="J89" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="K89" s="3">
         <v>-12500</v>
@@ -5727,25 +5727,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22900</v>
+        <v>-23500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
-        <v>-24900</v>
+        <v>-25500</v>
       </c>
       <c r="G91" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="H91" s="3">
-        <v>-19900</v>
+        <v>-20400</v>
       </c>
       <c r="I91" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="J91" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="K91" s="3">
         <v>-8300</v>
@@ -5931,25 +5931,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="E94" s="3">
-        <v>-37900</v>
+        <v>-38800</v>
       </c>
       <c r="F94" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="G94" s="3">
-        <v>-29900</v>
+        <v>-30600</v>
       </c>
       <c r="H94" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I94" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="J94" s="3">
-        <v>-53900</v>
+        <v>-55100</v>
       </c>
       <c r="K94" s="3">
         <v>-23900</v>
@@ -6297,25 +6297,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="E100" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="F100" s="3">
-        <v>-63800</v>
+        <v>-65300</v>
       </c>
       <c r="G100" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I100" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J100" s="3">
-        <v>188500</v>
+        <v>192900</v>
       </c>
       <c r="K100" s="3">
         <v>232500</v>
@@ -6365,25 +6365,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
       </c>
       <c r="F101" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
@@ -6433,25 +6433,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="E102" s="3">
-        <v>-157600</v>
+        <v>-161300</v>
       </c>
       <c r="F102" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="G102" s="3">
-        <v>-51900</v>
+        <v>-53100</v>
       </c>
       <c r="H102" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="I102" s="3">
-        <v>-227400</v>
+        <v>-232700</v>
       </c>
       <c r="J102" s="3">
-        <v>265300</v>
+        <v>271500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -768,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1634300</v>
+        <v>1693900</v>
       </c>
       <c r="E8" s="3">
-        <v>771700</v>
+        <v>799800</v>
       </c>
       <c r="F8" s="3">
-        <v>1571000</v>
+        <v>1628300</v>
       </c>
       <c r="G8" s="3">
-        <v>705400</v>
+        <v>731100</v>
       </c>
       <c r="H8" s="3">
-        <v>1380100</v>
+        <v>1430400</v>
       </c>
       <c r="I8" s="3">
-        <v>725800</v>
+        <v>752200</v>
       </c>
       <c r="J8" s="3">
-        <v>1605700</v>
+        <v>1664200</v>
       </c>
       <c r="K8" s="3">
         <v>827200</v>
@@ -836,25 +836,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1429100</v>
+        <v>1481200</v>
       </c>
       <c r="E9" s="3">
-        <v>678800</v>
+        <v>703600</v>
       </c>
       <c r="F9" s="3">
-        <v>1330100</v>
+        <v>1378600</v>
       </c>
       <c r="G9" s="3">
-        <v>600200</v>
+        <v>622100</v>
       </c>
       <c r="H9" s="3">
-        <v>1215800</v>
+        <v>1260100</v>
       </c>
       <c r="I9" s="3">
-        <v>650200</v>
+        <v>673900</v>
       </c>
       <c r="J9" s="3">
-        <v>1431200</v>
+        <v>1483300</v>
       </c>
       <c r="K9" s="3">
         <v>744200</v>
@@ -904,25 +904,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>205200</v>
+        <v>212700</v>
       </c>
       <c r="E10" s="3">
-        <v>92900</v>
+        <v>96300</v>
       </c>
       <c r="F10" s="3">
-        <v>240900</v>
+        <v>249700</v>
       </c>
       <c r="G10" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="H10" s="3">
-        <v>164300</v>
+        <v>170300</v>
       </c>
       <c r="I10" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="J10" s="3">
-        <v>174600</v>
+        <v>180900</v>
       </c>
       <c r="K10" s="3">
         <v>83000</v>
@@ -998,25 +998,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42900</v>
+        <v>44400</v>
       </c>
       <c r="E12" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="F12" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="G12" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="H12" s="3">
-        <v>43900</v>
+        <v>45500</v>
       </c>
       <c r="I12" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="J12" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="K12" s="3">
         <v>23900</v>
@@ -1134,25 +1134,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F14" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I14" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="J14" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="K14" s="3">
         <v>13500</v>
@@ -1293,25 +1293,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1626100</v>
+        <v>1685400</v>
       </c>
       <c r="E17" s="3">
-        <v>772700</v>
+        <v>800900</v>
       </c>
       <c r="F17" s="3">
-        <v>1536300</v>
+        <v>1592300</v>
       </c>
       <c r="G17" s="3">
-        <v>694100</v>
+        <v>719400</v>
       </c>
       <c r="H17" s="3">
-        <v>1391400</v>
+        <v>1442100</v>
       </c>
       <c r="I17" s="3">
-        <v>752300</v>
+        <v>779700</v>
       </c>
       <c r="J17" s="3">
-        <v>1654700</v>
+        <v>1715000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1361,25 +1361,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H18" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="I18" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="J18" s="3">
-        <v>-49000</v>
+        <v>-50800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1455,25 +1455,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J20" s="3">
-        <v>167400</v>
+        <v>173500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1523,25 +1523,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>119400</v>
+        <v>123800</v>
       </c>
       <c r="E21" s="3">
-        <v>48000</v>
+        <v>49700</v>
       </c>
       <c r="F21" s="3">
-        <v>153100</v>
+        <v>158700</v>
       </c>
       <c r="G21" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="H21" s="3">
-        <v>96000</v>
+        <v>99500</v>
       </c>
       <c r="I21" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="J21" s="3">
-        <v>239900</v>
+        <v>248600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="E22" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="3">
-        <v>66400</v>
+        <v>68800</v>
       </c>
       <c r="G22" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="H22" s="3">
-        <v>62300</v>
+        <v>64500</v>
       </c>
       <c r="I22" s="3">
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="J22" s="3">
-        <v>42900</v>
+        <v>44400</v>
       </c>
       <c r="K22" s="3">
         <v>14500</v>
@@ -1659,25 +1659,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58200</v>
+        <v>-60300</v>
       </c>
       <c r="E23" s="3">
-        <v>-35700</v>
+        <v>-37000</v>
       </c>
       <c r="F23" s="3">
-        <v>-30600</v>
+        <v>-31700</v>
       </c>
       <c r="G23" s="3">
-        <v>-20400</v>
+        <v>-21200</v>
       </c>
       <c r="H23" s="3">
-        <v>-75500</v>
+        <v>-78300</v>
       </c>
       <c r="I23" s="3">
-        <v>-59200</v>
+        <v>-61400</v>
       </c>
       <c r="J23" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1727,25 +1727,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F24" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="G24" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="H24" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I24" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K24" s="3">
         <v>2100</v>
@@ -1863,25 +1863,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77600</v>
+        <v>-80400</v>
       </c>
       <c r="E26" s="3">
-        <v>-42900</v>
+        <v>-44400</v>
       </c>
       <c r="F26" s="3">
-        <v>-43900</v>
+        <v>-45500</v>
       </c>
       <c r="G26" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="H26" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="I26" s="3">
-        <v>-60200</v>
+        <v>-62400</v>
       </c>
       <c r="J26" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="K26" s="3">
         <v>158800</v>
@@ -1931,25 +1931,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-78600</v>
+        <v>-81500</v>
       </c>
       <c r="E27" s="3">
-        <v>-41900</v>
+        <v>-43400</v>
       </c>
       <c r="F27" s="3">
-        <v>-43900</v>
+        <v>-45500</v>
       </c>
       <c r="G27" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="H27" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="I27" s="3">
-        <v>-60200</v>
+        <v>-62400</v>
       </c>
       <c r="J27" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="K27" s="3">
         <v>158800</v>
@@ -2067,25 +2067,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="E29" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F29" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I29" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J29" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="K29" s="3">
         <v>-9300</v>
@@ -2271,25 +2271,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J32" s="3">
-        <v>-167400</v>
+        <v>-173500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2339,25 +2339,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="E33" s="3">
-        <v>-39800</v>
+        <v>-41300</v>
       </c>
       <c r="F33" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="G33" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="H33" s="3">
-        <v>-80600</v>
+        <v>-83600</v>
       </c>
       <c r="I33" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="J33" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="K33" s="3">
         <v>149500</v>
@@ -2475,25 +2475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="E35" s="3">
-        <v>-39800</v>
+        <v>-41300</v>
       </c>
       <c r="F35" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="G35" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="H35" s="3">
-        <v>-80600</v>
+        <v>-83600</v>
       </c>
       <c r="I35" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="J35" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="K35" s="3">
         <v>149500</v>
@@ -2668,25 +2668,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>171500</v>
+        <v>177700</v>
       </c>
       <c r="E41" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="F41" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="G41" s="3">
-        <v>50000</v>
+        <v>51800</v>
       </c>
       <c r="H41" s="3">
-        <v>101100</v>
+        <v>104700</v>
       </c>
       <c r="I41" s="3">
-        <v>104100</v>
+        <v>107900</v>
       </c>
       <c r="J41" s="3">
-        <v>336900</v>
+        <v>349100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -2736,25 +2736,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="E42" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="F42" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="G42" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="H42" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="I42" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="J42" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2804,25 +2804,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>521600</v>
+        <v>540600</v>
       </c>
       <c r="E43" s="3">
-        <v>514500</v>
+        <v>533200</v>
       </c>
       <c r="F43" s="3">
-        <v>475700</v>
+        <v>493000</v>
       </c>
       <c r="G43" s="3">
-        <v>580800</v>
+        <v>602000</v>
       </c>
       <c r="H43" s="3">
-        <v>454300</v>
+        <v>470800</v>
       </c>
       <c r="I43" s="3">
-        <v>577800</v>
+        <v>598800</v>
       </c>
       <c r="J43" s="3">
-        <v>512400</v>
+        <v>531100</v>
       </c>
       <c r="K43" s="3">
         <v>672600</v>
@@ -2872,25 +2872,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>448100</v>
+        <v>464500</v>
       </c>
       <c r="E44" s="3">
-        <v>388900</v>
+        <v>403100</v>
       </c>
       <c r="F44" s="3">
-        <v>342000</v>
+        <v>354400</v>
       </c>
       <c r="G44" s="3">
-        <v>286800</v>
+        <v>297300</v>
       </c>
       <c r="H44" s="3">
-        <v>171500</v>
+        <v>177700</v>
       </c>
       <c r="I44" s="3">
-        <v>204200</v>
+        <v>211600</v>
       </c>
       <c r="J44" s="3">
-        <v>199100</v>
+        <v>206300</v>
       </c>
       <c r="K44" s="3">
         <v>214800</v>
@@ -2940,25 +2940,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>322600</v>
+        <v>334300</v>
       </c>
       <c r="E45" s="3">
-        <v>343000</v>
+        <v>355500</v>
       </c>
       <c r="F45" s="3">
-        <v>250100</v>
+        <v>259200</v>
       </c>
       <c r="G45" s="3">
-        <v>241900</v>
+        <v>250700</v>
       </c>
       <c r="H45" s="3">
-        <v>231700</v>
+        <v>240200</v>
       </c>
       <c r="I45" s="3">
-        <v>302200</v>
+        <v>313200</v>
       </c>
       <c r="J45" s="3">
-        <v>306200</v>
+        <v>317400</v>
       </c>
       <c r="K45" s="3">
         <v>241800</v>
@@ -3008,25 +3008,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1498500</v>
+        <v>1553100</v>
       </c>
       <c r="E46" s="3">
-        <v>1320900</v>
+        <v>1369100</v>
       </c>
       <c r="F46" s="3">
-        <v>1294400</v>
+        <v>1341500</v>
       </c>
       <c r="G46" s="3">
-        <v>1186200</v>
+        <v>1229400</v>
       </c>
       <c r="H46" s="3">
-        <v>983000</v>
+        <v>1018900</v>
       </c>
       <c r="I46" s="3">
-        <v>1208600</v>
+        <v>1252700</v>
       </c>
       <c r="J46" s="3">
-        <v>1372000</v>
+        <v>1422000</v>
       </c>
       <c r="K46" s="3">
         <v>1129200</v>
@@ -3076,25 +3076,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68400</v>
+        <v>70900</v>
       </c>
       <c r="E47" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="F47" s="3">
-        <v>60200</v>
+        <v>62400</v>
       </c>
       <c r="G47" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="H47" s="3">
-        <v>54100</v>
+        <v>56100</v>
       </c>
       <c r="I47" s="3">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="J47" s="3">
-        <v>63300</v>
+        <v>65600</v>
       </c>
       <c r="K47" s="3">
         <v>61200</v>
@@ -3144,25 +3144,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>337900</v>
+        <v>350200</v>
       </c>
       <c r="E48" s="3">
-        <v>309300</v>
+        <v>320600</v>
       </c>
       <c r="F48" s="3">
-        <v>311300</v>
+        <v>322700</v>
       </c>
       <c r="G48" s="3">
-        <v>299100</v>
+        <v>310000</v>
       </c>
       <c r="H48" s="3">
-        <v>276600</v>
+        <v>286700</v>
       </c>
       <c r="I48" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="J48" s="3">
-        <v>294000</v>
+        <v>304700</v>
       </c>
       <c r="K48" s="3">
         <v>385100</v>
@@ -3212,25 +3212,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1353600</v>
+        <v>1402900</v>
       </c>
       <c r="E49" s="3">
-        <v>1297400</v>
+        <v>1344700</v>
       </c>
       <c r="F49" s="3">
-        <v>1309700</v>
+        <v>1357400</v>
       </c>
       <c r="G49" s="3">
-        <v>1298500</v>
+        <v>1345800</v>
       </c>
       <c r="H49" s="3">
-        <v>1289300</v>
+        <v>1336300</v>
       </c>
       <c r="I49" s="3">
-        <v>1319900</v>
+        <v>1368000</v>
       </c>
       <c r="J49" s="3">
-        <v>1267800</v>
+        <v>1314000</v>
       </c>
       <c r="K49" s="3">
         <v>1374200</v>
@@ -3416,25 +3416,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>76600</v>
+        <v>79400</v>
       </c>
       <c r="E52" s="3">
-        <v>87800</v>
+        <v>91000</v>
       </c>
       <c r="F52" s="3">
+        <v>88900</v>
+      </c>
+      <c r="G52" s="3">
         <v>85700</v>
       </c>
-      <c r="G52" s="3">
-        <v>82700</v>
-      </c>
       <c r="H52" s="3">
-        <v>80600</v>
+        <v>83600</v>
       </c>
       <c r="I52" s="3">
-        <v>94900</v>
+        <v>98400</v>
       </c>
       <c r="J52" s="3">
-        <v>74500</v>
+        <v>77200</v>
       </c>
       <c r="K52" s="3">
         <v>84100</v>
@@ -3552,25 +3552,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3335000</v>
+        <v>3456500</v>
       </c>
       <c r="E54" s="3">
-        <v>3073600</v>
+        <v>3185600</v>
       </c>
       <c r="F54" s="3">
-        <v>3061400</v>
+        <v>3172900</v>
       </c>
       <c r="G54" s="3">
-        <v>2924600</v>
+        <v>3031200</v>
       </c>
       <c r="H54" s="3">
-        <v>2683700</v>
+        <v>2781500</v>
       </c>
       <c r="I54" s="3">
-        <v>2955200</v>
+        <v>3062900</v>
       </c>
       <c r="J54" s="3">
-        <v>3071600</v>
+        <v>3183500</v>
       </c>
       <c r="K54" s="3">
         <v>3337900</v>
@@ -3672,25 +3672,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>817700</v>
+        <v>847500</v>
       </c>
       <c r="E57" s="3">
-        <v>680900</v>
+        <v>705700</v>
       </c>
       <c r="F57" s="3">
-        <v>685000</v>
+        <v>709900</v>
       </c>
       <c r="G57" s="3">
-        <v>578800</v>
+        <v>599900</v>
       </c>
       <c r="H57" s="3">
-        <v>464500</v>
+        <v>481400</v>
       </c>
       <c r="I57" s="3">
-        <v>583900</v>
+        <v>605200</v>
       </c>
       <c r="J57" s="3">
-        <v>724800</v>
+        <v>751200</v>
       </c>
       <c r="K57" s="3">
         <v>770100</v>
@@ -3740,25 +3740,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="E58" s="3">
-        <v>82700</v>
+        <v>85700</v>
       </c>
       <c r="F58" s="3">
-        <v>66400</v>
+        <v>68800</v>
       </c>
       <c r="G58" s="3">
-        <v>106200</v>
+        <v>110000</v>
       </c>
       <c r="H58" s="3">
-        <v>65300</v>
+        <v>67700</v>
       </c>
       <c r="I58" s="3">
-        <v>96000</v>
+        <v>99500</v>
       </c>
       <c r="J58" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="K58" s="3">
         <v>84100</v>
@@ -3808,25 +3808,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>642100</v>
+        <v>665500</v>
       </c>
       <c r="E59" s="3">
-        <v>636000</v>
+        <v>659100</v>
       </c>
       <c r="F59" s="3">
-        <v>637000</v>
+        <v>660200</v>
       </c>
       <c r="G59" s="3">
-        <v>589000</v>
+        <v>610500</v>
       </c>
       <c r="H59" s="3">
-        <v>539000</v>
+        <v>558600</v>
       </c>
       <c r="I59" s="3">
-        <v>603300</v>
+        <v>625300</v>
       </c>
       <c r="J59" s="3">
-        <v>625800</v>
+        <v>648600</v>
       </c>
       <c r="K59" s="3">
         <v>561500</v>
@@ -3876,25 +3876,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1535300</v>
+        <v>1591200</v>
       </c>
       <c r="E60" s="3">
-        <v>1399500</v>
+        <v>1450500</v>
       </c>
       <c r="F60" s="3">
-        <v>1388300</v>
+        <v>1438900</v>
       </c>
       <c r="G60" s="3">
-        <v>1274000</v>
+        <v>1320400</v>
       </c>
       <c r="H60" s="3">
-        <v>1068800</v>
+        <v>1107700</v>
       </c>
       <c r="I60" s="3">
-        <v>1283100</v>
+        <v>1329900</v>
       </c>
       <c r="J60" s="3">
-        <v>1407700</v>
+        <v>1459000</v>
       </c>
       <c r="K60" s="3">
         <v>1413600</v>
@@ -3944,25 +3944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1260700</v>
+        <v>1306600</v>
       </c>
       <c r="E61" s="3">
-        <v>1211700</v>
+        <v>1255800</v>
       </c>
       <c r="F61" s="3">
-        <v>1194300</v>
+        <v>1237900</v>
       </c>
       <c r="G61" s="3">
-        <v>1150400</v>
+        <v>1192400</v>
       </c>
       <c r="H61" s="3">
-        <v>1102500</v>
+        <v>1142600</v>
       </c>
       <c r="I61" s="3">
-        <v>1104500</v>
+        <v>1144800</v>
       </c>
       <c r="J61" s="3">
-        <v>1092300</v>
+        <v>1132100</v>
       </c>
       <c r="K61" s="3">
         <v>1157300</v>
@@ -4012,25 +4012,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>270500</v>
+        <v>280400</v>
       </c>
       <c r="E62" s="3">
-        <v>317500</v>
+        <v>329000</v>
       </c>
       <c r="F62" s="3">
-        <v>342000</v>
+        <v>354400</v>
       </c>
       <c r="G62" s="3">
-        <v>357300</v>
+        <v>370300</v>
       </c>
       <c r="H62" s="3">
-        <v>362400</v>
+        <v>375600</v>
       </c>
       <c r="I62" s="3">
-        <v>393000</v>
+        <v>407300</v>
       </c>
       <c r="J62" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="K62" s="3">
         <v>452500</v>
@@ -4284,25 +4284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3066500</v>
+        <v>3178200</v>
       </c>
       <c r="E66" s="3">
-        <v>2928700</v>
+        <v>3035400</v>
       </c>
       <c r="F66" s="3">
-        <v>2924600</v>
+        <v>3031200</v>
       </c>
       <c r="G66" s="3">
-        <v>2781700</v>
+        <v>2883100</v>
       </c>
       <c r="H66" s="3">
-        <v>2533600</v>
+        <v>2626000</v>
       </c>
       <c r="I66" s="3">
-        <v>2780700</v>
+        <v>2882000</v>
       </c>
       <c r="J66" s="3">
-        <v>2903200</v>
+        <v>3009000</v>
       </c>
       <c r="K66" s="3">
         <v>3025500</v>
@@ -4650,25 +4650,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-574700</v>
+        <v>-595700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-625800</v>
+        <v>-648600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-570600</v>
+        <v>-591400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>-528800</v>
+        <v>-548000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -4922,25 +4922,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>268500</v>
+        <v>278300</v>
       </c>
       <c r="E76" s="3">
-        <v>145000</v>
+        <v>150200</v>
       </c>
       <c r="F76" s="3">
-        <v>136800</v>
+        <v>141800</v>
       </c>
       <c r="G76" s="3">
-        <v>142900</v>
+        <v>148100</v>
       </c>
       <c r="H76" s="3">
-        <v>150100</v>
+        <v>155500</v>
       </c>
       <c r="I76" s="3">
+        <v>180900</v>
+      </c>
+      <c r="J76" s="3">
         <v>174600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>168400</v>
       </c>
       <c r="K76" s="3">
         <v>312400</v>
@@ -5131,25 +5131,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="E81" s="3">
-        <v>-39800</v>
+        <v>-41300</v>
       </c>
       <c r="F81" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="G81" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="H81" s="3">
-        <v>-80600</v>
+        <v>-83600</v>
       </c>
       <c r="I81" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="J81" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="K81" s="3">
         <v>149500</v>
@@ -5225,25 +5225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="E83" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="F83" s="3">
-        <v>116400</v>
+        <v>120600</v>
       </c>
       <c r="G83" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="H83" s="3">
-        <v>110200</v>
+        <v>114300</v>
       </c>
       <c r="I83" s="3">
-        <v>54100</v>
+        <v>56100</v>
       </c>
       <c r="J83" s="3">
-        <v>121500</v>
+        <v>125900</v>
       </c>
       <c r="K83" s="3">
         <v>68500</v>
@@ -5633,25 +5633,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="E89" s="3">
-        <v>-134700</v>
+        <v>-139700</v>
       </c>
       <c r="F89" s="3">
-        <v>214400</v>
+        <v>222200</v>
       </c>
       <c r="G89" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="H89" s="3">
-        <v>-229700</v>
+        <v>-238100</v>
       </c>
       <c r="I89" s="3">
-        <v>-222500</v>
+        <v>-230600</v>
       </c>
       <c r="J89" s="3">
-        <v>138800</v>
+        <v>143900</v>
       </c>
       <c r="K89" s="3">
         <v>-12500</v>
@@ -5727,25 +5727,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="E91" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="F91" s="3">
-        <v>-25500</v>
+        <v>-26500</v>
       </c>
       <c r="G91" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20400</v>
+        <v>-21200</v>
       </c>
       <c r="I91" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="J91" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="K91" s="3">
         <v>-8300</v>
@@ -5931,25 +5931,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62300</v>
+        <v>-64500</v>
       </c>
       <c r="E94" s="3">
-        <v>-38800</v>
+        <v>-40200</v>
       </c>
       <c r="F94" s="3">
-        <v>-60200</v>
+        <v>-62400</v>
       </c>
       <c r="G94" s="3">
-        <v>-30600</v>
+        <v>-31700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="I94" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="J94" s="3">
-        <v>-55100</v>
+        <v>-57100</v>
       </c>
       <c r="K94" s="3">
         <v>-23900</v>
@@ -6297,25 +6297,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="E100" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="F100" s="3">
-        <v>-65300</v>
+        <v>-67700</v>
       </c>
       <c r="G100" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I100" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="J100" s="3">
-        <v>192900</v>
+        <v>200000</v>
       </c>
       <c r="K100" s="3">
         <v>232500</v>
@@ -6365,25 +6365,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J101" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
@@ -6433,25 +6433,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="E102" s="3">
-        <v>-161300</v>
+        <v>-167200</v>
       </c>
       <c r="F102" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="G102" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="H102" s="3">
-        <v>-234800</v>
+        <v>-243300</v>
       </c>
       <c r="I102" s="3">
-        <v>-232700</v>
+        <v>-241200</v>
       </c>
       <c r="J102" s="3">
-        <v>271500</v>
+        <v>281400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCLRY_QTR_FIN.xlsx
@@ -768,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1693900</v>
+        <v>1724100</v>
       </c>
       <c r="E8" s="3">
-        <v>799800</v>
+        <v>814100</v>
       </c>
       <c r="F8" s="3">
-        <v>1628300</v>
+        <v>1657300</v>
       </c>
       <c r="G8" s="3">
-        <v>731100</v>
+        <v>744100</v>
       </c>
       <c r="H8" s="3">
-        <v>1430400</v>
+        <v>1456000</v>
       </c>
       <c r="I8" s="3">
-        <v>752200</v>
+        <v>765700</v>
       </c>
       <c r="J8" s="3">
-        <v>1664200</v>
+        <v>1694000</v>
       </c>
       <c r="K8" s="3">
         <v>827200</v>
@@ -836,25 +836,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1481200</v>
+        <v>1507700</v>
       </c>
       <c r="E9" s="3">
-        <v>703600</v>
+        <v>716100</v>
       </c>
       <c r="F9" s="3">
-        <v>1378600</v>
+        <v>1403200</v>
       </c>
       <c r="G9" s="3">
-        <v>622100</v>
+        <v>633200</v>
       </c>
       <c r="H9" s="3">
-        <v>1260100</v>
+        <v>1282600</v>
       </c>
       <c r="I9" s="3">
-        <v>673900</v>
+        <v>686000</v>
       </c>
       <c r="J9" s="3">
-        <v>1483300</v>
+        <v>1509800</v>
       </c>
       <c r="K9" s="3">
         <v>744200</v>
@@ -904,25 +904,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>212700</v>
+        <v>216500</v>
       </c>
       <c r="E10" s="3">
-        <v>96300</v>
+        <v>98000</v>
       </c>
       <c r="F10" s="3">
-        <v>249700</v>
+        <v>254100</v>
       </c>
       <c r="G10" s="3">
-        <v>109000</v>
+        <v>110900</v>
       </c>
       <c r="H10" s="3">
-        <v>170300</v>
+        <v>173400</v>
       </c>
       <c r="I10" s="3">
-        <v>78300</v>
+        <v>79700</v>
       </c>
       <c r="J10" s="3">
-        <v>180900</v>
+        <v>184100</v>
       </c>
       <c r="K10" s="3">
         <v>83000</v>
@@ -998,25 +998,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="E12" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="F12" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="G12" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="H12" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="I12" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="J12" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="K12" s="3">
         <v>23900</v>
@@ -1134,25 +1134,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="E14" s="3">
         <v>3200</v>
       </c>
       <c r="F14" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="G14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I14" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="J14" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="K14" s="3">
         <v>13500</v>
@@ -1293,25 +1293,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1685400</v>
+        <v>1715500</v>
       </c>
       <c r="E17" s="3">
-        <v>800900</v>
+        <v>815200</v>
       </c>
       <c r="F17" s="3">
-        <v>1592300</v>
+        <v>1620700</v>
       </c>
       <c r="G17" s="3">
-        <v>719400</v>
+        <v>732300</v>
       </c>
       <c r="H17" s="3">
-        <v>1442100</v>
+        <v>1467800</v>
       </c>
       <c r="I17" s="3">
-        <v>779700</v>
+        <v>793700</v>
       </c>
       <c r="J17" s="3">
-        <v>1715000</v>
+        <v>1745700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1361,25 +1361,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E18" s="3">
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="G18" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="H18" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="I18" s="3">
-        <v>-27500</v>
+        <v>-28000</v>
       </c>
       <c r="J18" s="3">
-        <v>-50800</v>
+        <v>-51700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>1100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I20" s="3">
         <v>-1100</v>
       </c>
       <c r="J20" s="3">
-        <v>173500</v>
+        <v>176600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1523,25 +1523,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>123800</v>
+        <v>126000</v>
       </c>
       <c r="E21" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="F21" s="3">
-        <v>158700</v>
+        <v>161500</v>
       </c>
       <c r="G21" s="3">
-        <v>75100</v>
+        <v>76500</v>
       </c>
       <c r="H21" s="3">
-        <v>99500</v>
+        <v>101200</v>
       </c>
       <c r="I21" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="J21" s="3">
-        <v>248600</v>
+        <v>253100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1591,25 +1591,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>75100</v>
+        <v>76500</v>
       </c>
       <c r="E22" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="F22" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="G22" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="H22" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="I22" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="J22" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="K22" s="3">
         <v>14500</v>
@@ -1659,25 +1659,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-60300</v>
+        <v>-61400</v>
       </c>
       <c r="E23" s="3">
-        <v>-37000</v>
+        <v>-37700</v>
       </c>
       <c r="F23" s="3">
-        <v>-31700</v>
+        <v>-32300</v>
       </c>
       <c r="G23" s="3">
-        <v>-21200</v>
+        <v>-21500</v>
       </c>
       <c r="H23" s="3">
-        <v>-78300</v>
+        <v>-79700</v>
       </c>
       <c r="I23" s="3">
-        <v>-61400</v>
+        <v>-62500</v>
       </c>
       <c r="J23" s="3">
-        <v>78300</v>
+        <v>79700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1727,25 +1727,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F24" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="G24" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="H24" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
       </c>
       <c r="J24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K24" s="3">
         <v>2100</v>
@@ -1863,25 +1863,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80400</v>
+        <v>-81800</v>
       </c>
       <c r="E26" s="3">
-        <v>-44400</v>
+        <v>-45200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45500</v>
+        <v>-46300</v>
       </c>
       <c r="G26" s="3">
-        <v>-29600</v>
+        <v>-30200</v>
       </c>
       <c r="H26" s="3">
-        <v>-88900</v>
+        <v>-90500</v>
       </c>
       <c r="I26" s="3">
-        <v>-62400</v>
+        <v>-63500</v>
       </c>
       <c r="J26" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="K26" s="3">
         <v>158800</v>
@@ -1931,25 +1931,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81500</v>
+        <v>-82900</v>
       </c>
       <c r="E27" s="3">
-        <v>-43400</v>
+        <v>-44200</v>
       </c>
       <c r="F27" s="3">
-        <v>-45500</v>
+        <v>-46300</v>
       </c>
       <c r="G27" s="3">
-        <v>-28600</v>
+        <v>-29100</v>
       </c>
       <c r="H27" s="3">
-        <v>-88900</v>
+        <v>-90500</v>
       </c>
       <c r="I27" s="3">
-        <v>-62400</v>
+        <v>-63500</v>
       </c>
       <c r="J27" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="K27" s="3">
         <v>158800</v>
@@ -2067,25 +2067,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>66700</v>
+        <v>67800</v>
       </c>
       <c r="E29" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F29" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I29" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J29" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="K29" s="3">
         <v>-9300</v>
@@ -2271,7 +2271,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>-1100</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I32" s="3">
         <v>1100</v>
       </c>
       <c r="J32" s="3">
-        <v>-173500</v>
+        <v>-176600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2339,25 +2339,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="E33" s="3">
-        <v>-41300</v>
+        <v>-42000</v>
       </c>
       <c r="F33" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="G33" s="3">
-        <v>-28600</v>
+        <v>-29100</v>
       </c>
       <c r="H33" s="3">
-        <v>-83600</v>
+        <v>-85100</v>
       </c>
       <c r="I33" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="J33" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="K33" s="3">
         <v>149500</v>
@@ -2475,25 +2475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="E35" s="3">
-        <v>-41300</v>
+        <v>-42000</v>
       </c>
       <c r="F35" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="G35" s="3">
-        <v>-28600</v>
+        <v>-29100</v>
       </c>
       <c r="H35" s="3">
-        <v>-83600</v>
+        <v>-85100</v>
       </c>
       <c r="I35" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="J35" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="K35" s="3">
         <v>149500</v>
@@ -2668,25 +2668,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177700</v>
+        <v>180900</v>
       </c>
       <c r="E41" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="F41" s="3">
-        <v>207400</v>
+        <v>211100</v>
       </c>
       <c r="G41" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="H41" s="3">
-        <v>104700</v>
+        <v>106600</v>
       </c>
       <c r="I41" s="3">
-        <v>107900</v>
+        <v>109800</v>
       </c>
       <c r="J41" s="3">
-        <v>349100</v>
+        <v>355400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -2736,25 +2736,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="E42" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="F42" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="G42" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="H42" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="I42" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="J42" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2804,25 +2804,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>542800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>501800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>612800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>479200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>609500</v>
+      </c>
+      <c r="J43" s="3">
         <v>540600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>533200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>493000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>602000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>470800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>598800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>531100</v>
       </c>
       <c r="K43" s="3">
         <v>672600</v>
@@ -2872,25 +2872,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>464500</v>
+        <v>472800</v>
       </c>
       <c r="E44" s="3">
-        <v>403100</v>
+        <v>410300</v>
       </c>
       <c r="F44" s="3">
-        <v>354400</v>
+        <v>360800</v>
       </c>
       <c r="G44" s="3">
-        <v>297300</v>
+        <v>302600</v>
       </c>
       <c r="H44" s="3">
-        <v>177700</v>
+        <v>180900</v>
       </c>
       <c r="I44" s="3">
-        <v>211600</v>
+        <v>215400</v>
       </c>
       <c r="J44" s="3">
-        <v>206300</v>
+        <v>210000</v>
       </c>
       <c r="K44" s="3">
         <v>214800</v>
@@ -2940,25 +2940,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>334300</v>
+        <v>340300</v>
       </c>
       <c r="E45" s="3">
-        <v>355500</v>
+        <v>361800</v>
       </c>
       <c r="F45" s="3">
-        <v>259200</v>
+        <v>263800</v>
       </c>
       <c r="G45" s="3">
-        <v>250700</v>
+        <v>255200</v>
       </c>
       <c r="H45" s="3">
-        <v>240200</v>
+        <v>244500</v>
       </c>
       <c r="I45" s="3">
-        <v>313200</v>
+        <v>318800</v>
       </c>
       <c r="J45" s="3">
-        <v>317400</v>
+        <v>323100</v>
       </c>
       <c r="K45" s="3">
         <v>241800</v>
@@ -3008,25 +3008,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1553100</v>
+        <v>1580900</v>
       </c>
       <c r="E46" s="3">
-        <v>1369100</v>
+        <v>1393500</v>
       </c>
       <c r="F46" s="3">
-        <v>1341500</v>
+        <v>1365500</v>
       </c>
       <c r="G46" s="3">
-        <v>1229400</v>
+        <v>1251400</v>
       </c>
       <c r="H46" s="3">
-        <v>1018900</v>
+        <v>1037100</v>
       </c>
       <c r="I46" s="3">
-        <v>1252700</v>
+        <v>1275000</v>
       </c>
       <c r="J46" s="3">
-        <v>1422000</v>
+        <v>1447400</v>
       </c>
       <c r="K46" s="3">
         <v>1129200</v>
@@ -3076,25 +3076,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="E47" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="F47" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="G47" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="H47" s="3">
-        <v>56100</v>
+        <v>57100</v>
       </c>
       <c r="I47" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="J47" s="3">
-        <v>65600</v>
+        <v>66800</v>
       </c>
       <c r="K47" s="3">
         <v>61200</v>
@@ -3144,25 +3144,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>350200</v>
+        <v>356500</v>
       </c>
       <c r="E48" s="3">
-        <v>320600</v>
+        <v>326300</v>
       </c>
       <c r="F48" s="3">
-        <v>322700</v>
+        <v>328500</v>
       </c>
       <c r="G48" s="3">
-        <v>310000</v>
+        <v>315500</v>
       </c>
       <c r="H48" s="3">
-        <v>286700</v>
+        <v>291800</v>
       </c>
       <c r="I48" s="3">
-        <v>295200</v>
+        <v>300500</v>
       </c>
       <c r="J48" s="3">
-        <v>304700</v>
+        <v>310100</v>
       </c>
       <c r="K48" s="3">
         <v>385100</v>
@@ -3212,25 +3212,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1402900</v>
+        <v>1428000</v>
       </c>
       <c r="E49" s="3">
-        <v>1344700</v>
+        <v>1368700</v>
       </c>
       <c r="F49" s="3">
-        <v>1357400</v>
+        <v>1381700</v>
       </c>
       <c r="G49" s="3">
-        <v>1345800</v>
+        <v>1369800</v>
       </c>
       <c r="H49" s="3">
-        <v>1336300</v>
+        <v>1360100</v>
       </c>
       <c r="I49" s="3">
-        <v>1368000</v>
+        <v>1392400</v>
       </c>
       <c r="J49" s="3">
-        <v>1314000</v>
+        <v>1337500</v>
       </c>
       <c r="K49" s="3">
         <v>1374200</v>
@@ -3416,25 +3416,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="E52" s="3">
-        <v>91000</v>
+        <v>92600</v>
       </c>
       <c r="F52" s="3">
-        <v>88900</v>
+        <v>90500</v>
       </c>
       <c r="G52" s="3">
-        <v>85700</v>
+        <v>87200</v>
       </c>
       <c r="H52" s="3">
-        <v>83600</v>
+        <v>85100</v>
       </c>
       <c r="I52" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="J52" s="3">
-        <v>77200</v>
+        <v>78600</v>
       </c>
       <c r="K52" s="3">
         <v>84100</v>
@@ -3552,25 +3552,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3456500</v>
+        <v>3518200</v>
       </c>
       <c r="E54" s="3">
-        <v>3185600</v>
+        <v>3242500</v>
       </c>
       <c r="F54" s="3">
-        <v>3172900</v>
+        <v>3229600</v>
       </c>
       <c r="G54" s="3">
-        <v>3031200</v>
+        <v>3085300</v>
       </c>
       <c r="H54" s="3">
-        <v>2781500</v>
+        <v>2831200</v>
       </c>
       <c r="I54" s="3">
-        <v>3062900</v>
+        <v>3117600</v>
       </c>
       <c r="J54" s="3">
-        <v>3183500</v>
+        <v>3240400</v>
       </c>
       <c r="K54" s="3">
         <v>3337900</v>
@@ -3672,25 +3672,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>847500</v>
+        <v>862600</v>
       </c>
       <c r="E57" s="3">
-        <v>705700</v>
+        <v>718300</v>
       </c>
       <c r="F57" s="3">
-        <v>709900</v>
+        <v>722600</v>
       </c>
       <c r="G57" s="3">
-        <v>599900</v>
+        <v>610600</v>
       </c>
       <c r="H57" s="3">
-        <v>481400</v>
+        <v>490000</v>
       </c>
       <c r="I57" s="3">
-        <v>605200</v>
+        <v>616000</v>
       </c>
       <c r="J57" s="3">
-        <v>751200</v>
+        <v>764600</v>
       </c>
       <c r="K57" s="3">
         <v>770100</v>
@@ -3740,25 +3740,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>78300</v>
+        <v>79700</v>
       </c>
       <c r="E58" s="3">
-        <v>85700</v>
+        <v>87200</v>
       </c>
       <c r="F58" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="G58" s="3">
-        <v>110000</v>
+        <v>112000</v>
       </c>
       <c r="H58" s="3">
-        <v>67700</v>
+        <v>68900</v>
       </c>
       <c r="I58" s="3">
-        <v>99500</v>
+        <v>101200</v>
       </c>
       <c r="J58" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="K58" s="3">
         <v>84100</v>
@@ -3808,25 +3808,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>665500</v>
+        <v>677400</v>
       </c>
       <c r="E59" s="3">
-        <v>659100</v>
+        <v>670900</v>
       </c>
       <c r="F59" s="3">
-        <v>660200</v>
+        <v>672000</v>
       </c>
       <c r="G59" s="3">
-        <v>610500</v>
+        <v>621400</v>
       </c>
       <c r="H59" s="3">
-        <v>558600</v>
+        <v>568600</v>
       </c>
       <c r="I59" s="3">
-        <v>625300</v>
+        <v>636400</v>
       </c>
       <c r="J59" s="3">
-        <v>648600</v>
+        <v>660100</v>
       </c>
       <c r="K59" s="3">
         <v>561500</v>
@@ -3876,25 +3876,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1591200</v>
+        <v>1619700</v>
       </c>
       <c r="E60" s="3">
-        <v>1450500</v>
+        <v>1476400</v>
       </c>
       <c r="F60" s="3">
-        <v>1438900</v>
+        <v>1464600</v>
       </c>
       <c r="G60" s="3">
-        <v>1320400</v>
+        <v>1344000</v>
       </c>
       <c r="H60" s="3">
-        <v>1107700</v>
+        <v>1127500</v>
       </c>
       <c r="I60" s="3">
-        <v>1329900</v>
+        <v>1353700</v>
       </c>
       <c r="J60" s="3">
-        <v>1459000</v>
+        <v>1485000</v>
       </c>
       <c r="K60" s="3">
         <v>1413600</v>
@@ -3944,25 +3944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1306600</v>
+        <v>1330000</v>
       </c>
       <c r="E61" s="3">
-        <v>1255800</v>
+        <v>1278300</v>
       </c>
       <c r="F61" s="3">
-        <v>1237900</v>
+        <v>1260000</v>
       </c>
       <c r="G61" s="3">
-        <v>1192400</v>
+        <v>1213700</v>
       </c>
       <c r="H61" s="3">
-        <v>1142600</v>
+        <v>1163100</v>
       </c>
       <c r="I61" s="3">
-        <v>1144800</v>
+        <v>1165200</v>
       </c>
       <c r="J61" s="3">
-        <v>1132100</v>
+        <v>1152300</v>
       </c>
       <c r="K61" s="3">
         <v>1157300</v>
@@ -4012,25 +4012,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>280400</v>
+        <v>285400</v>
       </c>
       <c r="E62" s="3">
-        <v>329000</v>
+        <v>334900</v>
       </c>
       <c r="F62" s="3">
-        <v>354400</v>
+        <v>360800</v>
       </c>
       <c r="G62" s="3">
-        <v>370300</v>
+        <v>376900</v>
       </c>
       <c r="H62" s="3">
-        <v>375600</v>
+        <v>382300</v>
       </c>
       <c r="I62" s="3">
-        <v>407300</v>
+        <v>414600</v>
       </c>
       <c r="J62" s="3">
-        <v>417900</v>
+        <v>425400</v>
       </c>
       <c r="K62" s="3">
         <v>452500</v>
@@ -4284,25 +4284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3178200</v>
+        <v>3235000</v>
       </c>
       <c r="E66" s="3">
-        <v>3035400</v>
+        <v>3089600</v>
       </c>
       <c r="F66" s="3">
-        <v>3031200</v>
+        <v>3085300</v>
       </c>
       <c r="G66" s="3">
-        <v>2883100</v>
+        <v>2934600</v>
       </c>
       <c r="H66" s="3">
-        <v>2626000</v>
+        <v>2672900</v>
       </c>
       <c r="I66" s="3">
-        <v>2882000</v>
+        <v>2933500</v>
       </c>
       <c r="J66" s="3">
-        <v>3009000</v>
+        <v>3062700</v>
       </c>
       <c r="K66" s="3">
         <v>3025500</v>
@@ -4650,25 +4650,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-595700</v>
+        <v>-606300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-648600</v>
+        <v>-660100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-591400</v>
+        <v>-602000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>-548000</v>
+        <v>-557800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -4922,25 +4922,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>278300</v>
+        <v>283200</v>
       </c>
       <c r="E76" s="3">
-        <v>150200</v>
+        <v>152900</v>
       </c>
       <c r="F76" s="3">
-        <v>141800</v>
+        <v>144300</v>
       </c>
       <c r="G76" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="H76" s="3">
-        <v>155500</v>
+        <v>158300</v>
       </c>
       <c r="I76" s="3">
-        <v>180900</v>
+        <v>184100</v>
       </c>
       <c r="J76" s="3">
-        <v>174600</v>
+        <v>177700</v>
       </c>
       <c r="K76" s="3">
         <v>312400</v>
@@ -5131,25 +5131,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="E81" s="3">
-        <v>-41300</v>
+        <v>-42000</v>
       </c>
       <c r="F81" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="G81" s="3">
-        <v>-28600</v>
+        <v>-29100</v>
       </c>
       <c r="H81" s="3">
-        <v>-83600</v>
+        <v>-85100</v>
       </c>
       <c r="I81" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="J81" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="K81" s="3">
         <v>149500</v>
@@ -5225,25 +5225,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>109000</v>
+        <v>110900</v>
       </c>
       <c r="E83" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="F83" s="3">
-        <v>120600</v>
+        <v>122800</v>
       </c>
       <c r="G83" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="H83" s="3">
-        <v>114300</v>
+        <v>116300</v>
       </c>
       <c r="I83" s="3">
-        <v>56100</v>
+        <v>57100</v>
       </c>
       <c r="J83" s="3">
-        <v>125900</v>
+        <v>128200</v>
       </c>
       <c r="K83" s="3">
         <v>68500</v>
@@ -5633,25 +5633,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="E89" s="3">
-        <v>-139700</v>
+        <v>-142200</v>
       </c>
       <c r="F89" s="3">
-        <v>222200</v>
+        <v>226100</v>
       </c>
       <c r="G89" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="H89" s="3">
-        <v>-238100</v>
+        <v>-242300</v>
       </c>
       <c r="I89" s="3">
-        <v>-230600</v>
+        <v>-234800</v>
       </c>
       <c r="J89" s="3">
-        <v>143900</v>
+        <v>146500</v>
       </c>
       <c r="K89" s="3">
         <v>-12500</v>
@@ -5727,25 +5727,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24300</v>
+        <v>-24000</v>
       </c>
       <c r="E91" s="3">
-        <v>-14800</v>
+        <v>-35000</v>
       </c>
       <c r="F91" s="3">
-        <v>-26500</v>
+        <v>-33000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8500</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3">
-        <v>-21200</v>
+        <v>-19000</v>
       </c>
       <c r="I91" s="3">
-        <v>-11600</v>
+        <v>-23000</v>
       </c>
       <c r="J91" s="3">
-        <v>-16900</v>
+        <v>-25000</v>
       </c>
       <c r="K91" s="3">
         <v>-8300</v>
@@ -5931,25 +5931,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64500</v>
+        <v>-65700</v>
       </c>
       <c r="E94" s="3">
-        <v>-40200</v>
+        <v>-40900</v>
       </c>
       <c r="F94" s="3">
-        <v>-62400</v>
+        <v>-63500</v>
       </c>
       <c r="G94" s="3">
-        <v>-31700</v>
+        <v>-32300</v>
       </c>
       <c r="H94" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="I94" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="J94" s="3">
-        <v>-57100</v>
+        <v>-58200</v>
       </c>
       <c r="K94" s="3">
         <v>-23900</v>
@@ -6297,25 +6297,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29600</v>
+        <v>-30200</v>
       </c>
       <c r="E100" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F100" s="3">
-        <v>-67700</v>
+        <v>-68900</v>
       </c>
       <c r="G100" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="H100" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I100" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J100" s="3">
-        <v>200000</v>
+        <v>203500</v>
       </c>
       <c r="K100" s="3">
         <v>232500</v>
@@ -6371,19 +6371,19 @@
         <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="I101" s="3">
         <v>3200</v>
       </c>
       <c r="J101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
@@ -6433,25 +6433,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29600</v>
+        <v>-30200</v>
       </c>
       <c r="E102" s="3">
-        <v>-167200</v>
+        <v>-170200</v>
       </c>
       <c r="F102" s="3">
-        <v>101600</v>
+        <v>103400</v>
       </c>
       <c r="G102" s="3">
-        <v>-55000</v>
+        <v>-56000</v>
       </c>
       <c r="H102" s="3">
-        <v>-243300</v>
+        <v>-247700</v>
       </c>
       <c r="I102" s="3">
-        <v>-241200</v>
+        <v>-245500</v>
       </c>
       <c r="J102" s="3">
-        <v>281400</v>
+        <v>286500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
